--- a/מתארים- descriptors.xlsx
+++ b/מתארים- descriptors.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\AITextAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5924C8DB-F177-4048-9757-420F03057700}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952F93D4-3429-4CD0-A111-BB0F31E46CE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="886">
   <si>
     <t>מילים</t>
   </si>
@@ -181,6 +188,2567 @@
   </si>
   <si>
     <t>when' might be a part of a sentence</t>
+  </si>
+  <si>
+    <t>was, were</t>
+  </si>
+  <si>
+    <t>been</t>
+  </si>
+  <si>
+    <t>beat</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>became</t>
+  </si>
+  <si>
+    <t>begin</t>
+  </si>
+  <si>
+    <t>began</t>
+  </si>
+  <si>
+    <t>begun</t>
+  </si>
+  <si>
+    <t>bend</t>
+  </si>
+  <si>
+    <t>bent</t>
+  </si>
+  <si>
+    <t>bet</t>
+  </si>
+  <si>
+    <t>bid</t>
+  </si>
+  <si>
+    <t>bite</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>blow</t>
+  </si>
+  <si>
+    <t>blew</t>
+  </si>
+  <si>
+    <t>blown</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>bring</t>
+  </si>
+  <si>
+    <t>brought</t>
+  </si>
+  <si>
+    <t>build</t>
+  </si>
+  <si>
+    <t>built</t>
+  </si>
+  <si>
+    <t>burn</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>catch</t>
+  </si>
+  <si>
+    <t>caught</t>
+  </si>
+  <si>
+    <t>choose</t>
+  </si>
+  <si>
+    <t>chose</t>
+  </si>
+  <si>
+    <t>chosen</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>came</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>dig</t>
+  </si>
+  <si>
+    <t>dug</t>
+  </si>
+  <si>
+    <t>dived</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>did</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>drew</t>
+  </si>
+  <si>
+    <t>drawn</t>
+  </si>
+  <si>
+    <t>dream</t>
+  </si>
+  <si>
+    <t>drive</t>
+  </si>
+  <si>
+    <t>drove</t>
+  </si>
+  <si>
+    <t>driven</t>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>drank</t>
+  </si>
+  <si>
+    <t>drunk</t>
+  </si>
+  <si>
+    <t>eat</t>
+  </si>
+  <si>
+    <t>ate</t>
+  </si>
+  <si>
+    <t>eaten</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>felt</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>fought</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>fly</t>
+  </si>
+  <si>
+    <t>flew</t>
+  </si>
+  <si>
+    <t>flown</t>
+  </si>
+  <si>
+    <t>forget</t>
+  </si>
+  <si>
+    <t>forgot</t>
+  </si>
+  <si>
+    <t>forgive</t>
+  </si>
+  <si>
+    <t>forgave</t>
+  </si>
+  <si>
+    <t>forgiven</t>
+  </si>
+  <si>
+    <t>freeze</t>
+  </si>
+  <si>
+    <t>froze</t>
+  </si>
+  <si>
+    <t>frozen</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>gave</t>
+  </si>
+  <si>
+    <t>given</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>went</t>
+  </si>
+  <si>
+    <t>gone</t>
+  </si>
+  <si>
+    <t>grow</t>
+  </si>
+  <si>
+    <t>grew</t>
+  </si>
+  <si>
+    <t>grown</t>
+  </si>
+  <si>
+    <t>hang</t>
+  </si>
+  <si>
+    <t>hung</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>had</t>
+  </si>
+  <si>
+    <t>hear</t>
+  </si>
+  <si>
+    <t>heard</t>
+  </si>
+  <si>
+    <t>hide</t>
+  </si>
+  <si>
+    <t>hid</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>held</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>kept</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>knew</t>
+  </si>
+  <si>
+    <t>known</t>
+  </si>
+  <si>
+    <t>lay</t>
+  </si>
+  <si>
+    <t>laid</t>
+  </si>
+  <si>
+    <t>lead</t>
+  </si>
+  <si>
+    <t>led</t>
+  </si>
+  <si>
+    <t>leave</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>lend</t>
+  </si>
+  <si>
+    <t>lent</t>
+  </si>
+  <si>
+    <t>let</t>
+  </si>
+  <si>
+    <t>lie</t>
+  </si>
+  <si>
+    <t>lain</t>
+  </si>
+  <si>
+    <t>lose</t>
+  </si>
+  <si>
+    <t>lost</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>meant</t>
+  </si>
+  <si>
+    <t>meet</t>
+  </si>
+  <si>
+    <t>met</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>ride</t>
+  </si>
+  <si>
+    <t>rode</t>
+  </si>
+  <si>
+    <t>ridden</t>
+  </si>
+  <si>
+    <t>ring</t>
+  </si>
+  <si>
+    <t>rang</t>
+  </si>
+  <si>
+    <t>rung</t>
+  </si>
+  <si>
+    <t>rise</t>
+  </si>
+  <si>
+    <t>rose</t>
+  </si>
+  <si>
+    <t>risen</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>ran</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>said</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>saw</t>
+  </si>
+  <si>
+    <t>seen</t>
+  </si>
+  <si>
+    <t>sell</t>
+  </si>
+  <si>
+    <t>sold</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>sent</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>showed</t>
+  </si>
+  <si>
+    <t>shut</t>
+  </si>
+  <si>
+    <t>sing</t>
+  </si>
+  <si>
+    <t>sang</t>
+  </si>
+  <si>
+    <t>sung</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>sat</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>slept</t>
+  </si>
+  <si>
+    <t>speak</t>
+  </si>
+  <si>
+    <t>spoke</t>
+  </si>
+  <si>
+    <t>spoken</t>
+  </si>
+  <si>
+    <t>spend</t>
+  </si>
+  <si>
+    <t>spent</t>
+  </si>
+  <si>
+    <t>stood</t>
+  </si>
+  <si>
+    <t>swim</t>
+  </si>
+  <si>
+    <t>swam</t>
+  </si>
+  <si>
+    <t>swum</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>took</t>
+  </si>
+  <si>
+    <t>taken</t>
+  </si>
+  <si>
+    <t>teach</t>
+  </si>
+  <si>
+    <t>taught</t>
+  </si>
+  <si>
+    <t>tear</t>
+  </si>
+  <si>
+    <t>tore</t>
+  </si>
+  <si>
+    <t>torn</t>
+  </si>
+  <si>
+    <t>tell</t>
+  </si>
+  <si>
+    <t>told</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>throw</t>
+  </si>
+  <si>
+    <t>threw</t>
+  </si>
+  <si>
+    <t>thrown</t>
+  </si>
+  <si>
+    <t>understand</t>
+  </si>
+  <si>
+    <t>understood</t>
+  </si>
+  <si>
+    <t>wake</t>
+  </si>
+  <si>
+    <t>wear</t>
+  </si>
+  <si>
+    <t>wore</t>
+  </si>
+  <si>
+    <t>worn</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>wrote</t>
+  </si>
+  <si>
+    <t>written</t>
+  </si>
+  <si>
+    <t>arise</t>
+  </si>
+  <si>
+    <t>arose</t>
+  </si>
+  <si>
+    <t>arisen</t>
+  </si>
+  <si>
+    <t>awake</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>bear</t>
+  </si>
+  <si>
+    <t>bore</t>
+  </si>
+  <si>
+    <t>bind</t>
+  </si>
+  <si>
+    <t>bound</t>
+  </si>
+  <si>
+    <t>bleed</t>
+  </si>
+  <si>
+    <t>bled</t>
+  </si>
+  <si>
+    <t>breed</t>
+  </si>
+  <si>
+    <t>bred</t>
+  </si>
+  <si>
+    <t>broadcast</t>
+  </si>
+  <si>
+    <t>burst</t>
+  </si>
+  <si>
+    <t>cling</t>
+  </si>
+  <si>
+    <t>clung</t>
+  </si>
+  <si>
+    <t>creep</t>
+  </si>
+  <si>
+    <t>crept</t>
+  </si>
+  <si>
+    <t>deal</t>
+  </si>
+  <si>
+    <t>dealt</t>
+  </si>
+  <si>
+    <t>feed</t>
+  </si>
+  <si>
+    <t>fed</t>
+  </si>
+  <si>
+    <t>forbid</t>
+  </si>
+  <si>
+    <t>forbade</t>
+  </si>
+  <si>
+    <t>forbidden</t>
+  </si>
+  <si>
+    <t>grind</t>
+  </si>
+  <si>
+    <t>ground</t>
+  </si>
+  <si>
+    <t>kneel</t>
+  </si>
+  <si>
+    <t>lean</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>lied</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>mow</t>
+  </si>
+  <si>
+    <t>mowed</t>
+  </si>
+  <si>
+    <t>overtake</t>
+  </si>
+  <si>
+    <t>overtook</t>
+  </si>
+  <si>
+    <t>overtaken</t>
+  </si>
+  <si>
+    <t>sawed</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>sew</t>
+  </si>
+  <si>
+    <t>sewed</t>
+  </si>
+  <si>
+    <t>shake</t>
+  </si>
+  <si>
+    <t>shook</t>
+  </si>
+  <si>
+    <t>shaken</t>
+  </si>
+  <si>
+    <t>shed</t>
+  </si>
+  <si>
+    <t>shine</t>
+  </si>
+  <si>
+    <t>shoot</t>
+  </si>
+  <si>
+    <t>shot</t>
+  </si>
+  <si>
+    <t>shrink</t>
+  </si>
+  <si>
+    <t>shrunk</t>
+  </si>
+  <si>
+    <t>sink</t>
+  </si>
+  <si>
+    <t>sunk</t>
+  </si>
+  <si>
+    <t>slide</t>
+  </si>
+  <si>
+    <t>slid</t>
+  </si>
+  <si>
+    <t>smell</t>
+  </si>
+  <si>
+    <t>sow</t>
+  </si>
+  <si>
+    <t>sowed</t>
+  </si>
+  <si>
+    <t>spell</t>
+  </si>
+  <si>
+    <t>spill</t>
+  </si>
+  <si>
+    <t>spit</t>
+  </si>
+  <si>
+    <t>spread</t>
+  </si>
+  <si>
+    <t>steal</t>
+  </si>
+  <si>
+    <t>stole</t>
+  </si>
+  <si>
+    <t>stolen</t>
+  </si>
+  <si>
+    <t>stick</t>
+  </si>
+  <si>
+    <t>stuck</t>
+  </si>
+  <si>
+    <t>sting</t>
+  </si>
+  <si>
+    <t>stung</t>
+  </si>
+  <si>
+    <t>stink</t>
+  </si>
+  <si>
+    <t>stunk</t>
+  </si>
+  <si>
+    <t>struck</t>
+  </si>
+  <si>
+    <t>swear</t>
+  </si>
+  <si>
+    <t>swore</t>
+  </si>
+  <si>
+    <t>sworn</t>
+  </si>
+  <si>
+    <t>sweep</t>
+  </si>
+  <si>
+    <t>swept</t>
+  </si>
+  <si>
+    <t>swell</t>
+  </si>
+  <si>
+    <t>swelled</t>
+  </si>
+  <si>
+    <t>swing</t>
+  </si>
+  <si>
+    <t>swung</t>
+  </si>
+  <si>
+    <t>weep</t>
+  </si>
+  <si>
+    <t>wept</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>wound</t>
+  </si>
+  <si>
+    <t>awakened / awoke</t>
+  </si>
+  <si>
+    <t>awakened / awoken</t>
+  </si>
+  <si>
+    <t>backslide</t>
+  </si>
+  <si>
+    <t>backslid</t>
+  </si>
+  <si>
+    <t>backslidden / backslid</t>
+  </si>
+  <si>
+    <t>born / borne</t>
+  </si>
+  <si>
+    <t>beaten / beat</t>
+  </si>
+  <si>
+    <t>bet / betted [?]</t>
+  </si>
+  <si>
+    <t>bid (farewell)</t>
+  </si>
+  <si>
+    <t>bid / bade</t>
+  </si>
+  <si>
+    <t>bidden</t>
+  </si>
+  <si>
+    <t>bid (offer amount)</t>
+  </si>
+  <si>
+    <t>broadcast / broadcasted</t>
+  </si>
+  <si>
+    <t>browbeat</t>
+  </si>
+  <si>
+    <t>browbeaten / browbeat</t>
+  </si>
+  <si>
+    <t>burned / burnt [?]</t>
+  </si>
+  <si>
+    <t>bust</t>
+  </si>
+  <si>
+    <t>busted / bust</t>
+  </si>
+  <si>
+    <t>cast</t>
+  </si>
+  <si>
+    <t>clothe</t>
+  </si>
+  <si>
+    <t>clothed / clad [?]</t>
+  </si>
+  <si>
+    <t>crossbreed</t>
+  </si>
+  <si>
+    <t>crossbred</t>
+  </si>
+  <si>
+    <t>daydream</t>
+  </si>
+  <si>
+    <t>daydreamed / daydreamt [?]</t>
+  </si>
+  <si>
+    <t>disprove</t>
+  </si>
+  <si>
+    <t>disproved</t>
+  </si>
+  <si>
+    <t>disproved / disproven</t>
+  </si>
+  <si>
+    <t>dive (jump head-first)</t>
+  </si>
+  <si>
+    <t>dove / dived</t>
+  </si>
+  <si>
+    <t>dive (scuba diving)</t>
+  </si>
+  <si>
+    <t>dived / dove</t>
+  </si>
+  <si>
+    <t>dreamed / dreamt [?]</t>
+  </si>
+  <si>
+    <t>dwell</t>
+  </si>
+  <si>
+    <t>dwelt / dwelled [?]</t>
+  </si>
+  <si>
+    <t>fit (tailor, change size)</t>
+  </si>
+  <si>
+    <t>fitted / fit [?]</t>
+  </si>
+  <si>
+    <t>fit (be right size)</t>
+  </si>
+  <si>
+    <t>fit / fitted [?]</t>
+  </si>
+  <si>
+    <t>flee</t>
+  </si>
+  <si>
+    <t>fled</t>
+  </si>
+  <si>
+    <t>fling</t>
+  </si>
+  <si>
+    <t>flung</t>
+  </si>
+  <si>
+    <t>forecast</t>
+  </si>
+  <si>
+    <t>forego (also forgo)</t>
+  </si>
+  <si>
+    <t>forewent</t>
+  </si>
+  <si>
+    <t>foregone</t>
+  </si>
+  <si>
+    <t>foresee</t>
+  </si>
+  <si>
+    <t>foresaw</t>
+  </si>
+  <si>
+    <t>foreseen</t>
+  </si>
+  <si>
+    <t>foretell</t>
+  </si>
+  <si>
+    <t>foretold</t>
+  </si>
+  <si>
+    <t>forgotten / forgot [?]</t>
+  </si>
+  <si>
+    <t>forsake</t>
+  </si>
+  <si>
+    <t>forsook</t>
+  </si>
+  <si>
+    <t>forsaken</t>
+  </si>
+  <si>
+    <t>frostbite</t>
+  </si>
+  <si>
+    <t>frostbit</t>
+  </si>
+  <si>
+    <t>frostbitten</t>
+  </si>
+  <si>
+    <t>gotten / got [?]</t>
+  </si>
+  <si>
+    <t>hand-feed</t>
+  </si>
+  <si>
+    <t>hand-fed</t>
+  </si>
+  <si>
+    <t>handwrite</t>
+  </si>
+  <si>
+    <t>handwrote</t>
+  </si>
+  <si>
+    <t>handwritten</t>
+  </si>
+  <si>
+    <t>hew</t>
+  </si>
+  <si>
+    <t>hewed</t>
+  </si>
+  <si>
+    <t>hewn / hewed</t>
+  </si>
+  <si>
+    <t>inbreed</t>
+  </si>
+  <si>
+    <t>inbred</t>
+  </si>
+  <si>
+    <t>inlay</t>
+  </si>
+  <si>
+    <t>inlaid</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>input / inputted</t>
+  </si>
+  <si>
+    <t>interbreed</t>
+  </si>
+  <si>
+    <t>interbred</t>
+  </si>
+  <si>
+    <t>interweave</t>
+  </si>
+  <si>
+    <t>interwove / interweaved</t>
+  </si>
+  <si>
+    <t>interwoven / interweaved</t>
+  </si>
+  <si>
+    <t>interwind</t>
+  </si>
+  <si>
+    <t>interwound</t>
+  </si>
+  <si>
+    <t>jerry-build</t>
+  </si>
+  <si>
+    <t>jerry-built</t>
+  </si>
+  <si>
+    <t>knelt / kneeled</t>
+  </si>
+  <si>
+    <t>knit</t>
+  </si>
+  <si>
+    <t>knitted / knit</t>
+  </si>
+  <si>
+    <t>leaned / leant [?]</t>
+  </si>
+  <si>
+    <t>leap</t>
+  </si>
+  <si>
+    <t>leaped / leapt [?]</t>
+  </si>
+  <si>
+    <t>learned / learnt [?]</t>
+  </si>
+  <si>
+    <t>lie (not tell truth) REGULAR</t>
+  </si>
+  <si>
+    <t>lit / lighted</t>
+  </si>
+  <si>
+    <t>lip-read</t>
+  </si>
+  <si>
+    <t>miscast</t>
+  </si>
+  <si>
+    <t>misdeal</t>
+  </si>
+  <si>
+    <t>misdealt</t>
+  </si>
+  <si>
+    <t>misdo</t>
+  </si>
+  <si>
+    <t>misdid</t>
+  </si>
+  <si>
+    <t>misdone</t>
+  </si>
+  <si>
+    <t>mishear</t>
+  </si>
+  <si>
+    <t>misheard</t>
+  </si>
+  <si>
+    <t>mislay</t>
+  </si>
+  <si>
+    <t>mislaid</t>
+  </si>
+  <si>
+    <t>mislead</t>
+  </si>
+  <si>
+    <t>misled</t>
+  </si>
+  <si>
+    <t>mislearn</t>
+  </si>
+  <si>
+    <t>mislearned / mislearnt [?]</t>
+  </si>
+  <si>
+    <t>misread</t>
+  </si>
+  <si>
+    <t>misset</t>
+  </si>
+  <si>
+    <t>misspeak</t>
+  </si>
+  <si>
+    <t>misspoke</t>
+  </si>
+  <si>
+    <t>misspoken</t>
+  </si>
+  <si>
+    <t>misspell</t>
+  </si>
+  <si>
+    <t>misspelled / misspelt [?]</t>
+  </si>
+  <si>
+    <t>misspend</t>
+  </si>
+  <si>
+    <t>misspent</t>
+  </si>
+  <si>
+    <t>mistake</t>
+  </si>
+  <si>
+    <t>mistook</t>
+  </si>
+  <si>
+    <t>mistaken</t>
+  </si>
+  <si>
+    <t>misteach</t>
+  </si>
+  <si>
+    <t>mistaught</t>
+  </si>
+  <si>
+    <t>misunderstand</t>
+  </si>
+  <si>
+    <t>misunderstood</t>
+  </si>
+  <si>
+    <t>miswrite</t>
+  </si>
+  <si>
+    <t>miswrote</t>
+  </si>
+  <si>
+    <t>miswritten</t>
+  </si>
+  <si>
+    <t>mowed / mown</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>outbid</t>
+  </si>
+  <si>
+    <t>outbreed</t>
+  </si>
+  <si>
+    <t>outbred</t>
+  </si>
+  <si>
+    <t>outdo</t>
+  </si>
+  <si>
+    <t>outdid</t>
+  </si>
+  <si>
+    <t>outdone</t>
+  </si>
+  <si>
+    <t>outdraw</t>
+  </si>
+  <si>
+    <t>outdrew</t>
+  </si>
+  <si>
+    <t>outdrawn</t>
+  </si>
+  <si>
+    <t>outdrink</t>
+  </si>
+  <si>
+    <t>outdrank</t>
+  </si>
+  <si>
+    <t>outdrunk</t>
+  </si>
+  <si>
+    <t>outdrive</t>
+  </si>
+  <si>
+    <t>outdrove</t>
+  </si>
+  <si>
+    <t>outdriven</t>
+  </si>
+  <si>
+    <t>outfight</t>
+  </si>
+  <si>
+    <t>outfought</t>
+  </si>
+  <si>
+    <t>outfly</t>
+  </si>
+  <si>
+    <t>outflew</t>
+  </si>
+  <si>
+    <t>outflown</t>
+  </si>
+  <si>
+    <t>outgrow</t>
+  </si>
+  <si>
+    <t>outgrew</t>
+  </si>
+  <si>
+    <t>outgrown</t>
+  </si>
+  <si>
+    <t>outleap</t>
+  </si>
+  <si>
+    <t>outleaped / outleapt [?]</t>
+  </si>
+  <si>
+    <t>outlie (not tell truth) REGULAR</t>
+  </si>
+  <si>
+    <t>outlied</t>
+  </si>
+  <si>
+    <t>outride</t>
+  </si>
+  <si>
+    <t>outrode</t>
+  </si>
+  <si>
+    <t>outridden</t>
+  </si>
+  <si>
+    <t>outrun</t>
+  </si>
+  <si>
+    <t>outran</t>
+  </si>
+  <si>
+    <t>outsell</t>
+  </si>
+  <si>
+    <t>outsold</t>
+  </si>
+  <si>
+    <t>outshine</t>
+  </si>
+  <si>
+    <t>outshined / outshone [?]</t>
+  </si>
+  <si>
+    <t>outshoot</t>
+  </si>
+  <si>
+    <t>outshot</t>
+  </si>
+  <si>
+    <t>outsing</t>
+  </si>
+  <si>
+    <t>outsang</t>
+  </si>
+  <si>
+    <t>outsung</t>
+  </si>
+  <si>
+    <t>outsit</t>
+  </si>
+  <si>
+    <t>outsat</t>
+  </si>
+  <si>
+    <t>outsleep</t>
+  </si>
+  <si>
+    <t>outslept</t>
+  </si>
+  <si>
+    <t>outsmell</t>
+  </si>
+  <si>
+    <t>outsmelled / outsmelt [?]</t>
+  </si>
+  <si>
+    <t>outspeak</t>
+  </si>
+  <si>
+    <t>outspoke</t>
+  </si>
+  <si>
+    <t>outspoken</t>
+  </si>
+  <si>
+    <t>outspeed</t>
+  </si>
+  <si>
+    <t>outsped</t>
+  </si>
+  <si>
+    <t>outspend</t>
+  </si>
+  <si>
+    <t>outspent</t>
+  </si>
+  <si>
+    <t>outswear</t>
+  </si>
+  <si>
+    <t>outswore</t>
+  </si>
+  <si>
+    <t>outsworn</t>
+  </si>
+  <si>
+    <t>outswim</t>
+  </si>
+  <si>
+    <t>outswam</t>
+  </si>
+  <si>
+    <t>outswum</t>
+  </si>
+  <si>
+    <t>outthink</t>
+  </si>
+  <si>
+    <t>outthought</t>
+  </si>
+  <si>
+    <t>outthrow</t>
+  </si>
+  <si>
+    <t>outthrew</t>
+  </si>
+  <si>
+    <t>outthrown</t>
+  </si>
+  <si>
+    <t>outwrite</t>
+  </si>
+  <si>
+    <t>outwrote</t>
+  </si>
+  <si>
+    <t>outwritten</t>
+  </si>
+  <si>
+    <t>overbid</t>
+  </si>
+  <si>
+    <t>overbreed</t>
+  </si>
+  <si>
+    <t>overbred</t>
+  </si>
+  <si>
+    <t>overbuild</t>
+  </si>
+  <si>
+    <t>overbuilt</t>
+  </si>
+  <si>
+    <t>overbuy</t>
+  </si>
+  <si>
+    <t>overbought</t>
+  </si>
+  <si>
+    <t>overcome</t>
+  </si>
+  <si>
+    <t>overcame</t>
+  </si>
+  <si>
+    <t>overdo</t>
+  </si>
+  <si>
+    <t>overdid</t>
+  </si>
+  <si>
+    <t>overdone</t>
+  </si>
+  <si>
+    <t>overdraw</t>
+  </si>
+  <si>
+    <t>overdrew</t>
+  </si>
+  <si>
+    <t>overdrawn</t>
+  </si>
+  <si>
+    <t>overdrink</t>
+  </si>
+  <si>
+    <t>overdrank</t>
+  </si>
+  <si>
+    <t>overdrunk</t>
+  </si>
+  <si>
+    <t>overeat</t>
+  </si>
+  <si>
+    <t>overate</t>
+  </si>
+  <si>
+    <t>overeaten</t>
+  </si>
+  <si>
+    <t>overfeed</t>
+  </si>
+  <si>
+    <t>overfed</t>
+  </si>
+  <si>
+    <t>overhang</t>
+  </si>
+  <si>
+    <t>overhung</t>
+  </si>
+  <si>
+    <t>overhear</t>
+  </si>
+  <si>
+    <t>overheard</t>
+  </si>
+  <si>
+    <t>overlay</t>
+  </si>
+  <si>
+    <t>overlaid</t>
+  </si>
+  <si>
+    <t>overpay</t>
+  </si>
+  <si>
+    <t>overpaid</t>
+  </si>
+  <si>
+    <t>override</t>
+  </si>
+  <si>
+    <t>overrode</t>
+  </si>
+  <si>
+    <t>overridden</t>
+  </si>
+  <si>
+    <t>overrun</t>
+  </si>
+  <si>
+    <t>overran</t>
+  </si>
+  <si>
+    <t>oversee</t>
+  </si>
+  <si>
+    <t>oversaw</t>
+  </si>
+  <si>
+    <t>overseen</t>
+  </si>
+  <si>
+    <t>oversell</t>
+  </si>
+  <si>
+    <t>oversold</t>
+  </si>
+  <si>
+    <t>oversew</t>
+  </si>
+  <si>
+    <t>oversewed</t>
+  </si>
+  <si>
+    <t>oversewn / oversewed</t>
+  </si>
+  <si>
+    <t>overshoot</t>
+  </si>
+  <si>
+    <t>overshot</t>
+  </si>
+  <si>
+    <t>oversleep</t>
+  </si>
+  <si>
+    <t>overslept</t>
+  </si>
+  <si>
+    <t>overspeak</t>
+  </si>
+  <si>
+    <t>overspoke</t>
+  </si>
+  <si>
+    <t>overspoken</t>
+  </si>
+  <si>
+    <t>overspend</t>
+  </si>
+  <si>
+    <t>overspent</t>
+  </si>
+  <si>
+    <t>overspill</t>
+  </si>
+  <si>
+    <t>overspilled / overspilt [?]</t>
+  </si>
+  <si>
+    <t>overthink</t>
+  </si>
+  <si>
+    <t>overthought</t>
+  </si>
+  <si>
+    <t>overthrow</t>
+  </si>
+  <si>
+    <t>overthrew</t>
+  </si>
+  <si>
+    <t>overthrown</t>
+  </si>
+  <si>
+    <t>overwind</t>
+  </si>
+  <si>
+    <t>overwound</t>
+  </si>
+  <si>
+    <t>overwrite</t>
+  </si>
+  <si>
+    <t>overwrote</t>
+  </si>
+  <si>
+    <t>overwritten</t>
+  </si>
+  <si>
+    <t>partake</t>
+  </si>
+  <si>
+    <t>partook</t>
+  </si>
+  <si>
+    <t>partaken</t>
+  </si>
+  <si>
+    <t>plead</t>
+  </si>
+  <si>
+    <t>pleaded / pled</t>
+  </si>
+  <si>
+    <t>prebuild</t>
+  </si>
+  <si>
+    <t>prebuilt</t>
+  </si>
+  <si>
+    <t>predo</t>
+  </si>
+  <si>
+    <t>predid</t>
+  </si>
+  <si>
+    <t>predone</t>
+  </si>
+  <si>
+    <t>premake</t>
+  </si>
+  <si>
+    <t>premade</t>
+  </si>
+  <si>
+    <t>prepay</t>
+  </si>
+  <si>
+    <t>prepaid</t>
+  </si>
+  <si>
+    <t>presell</t>
+  </si>
+  <si>
+    <t>presold</t>
+  </si>
+  <si>
+    <t>preset</t>
+  </si>
+  <si>
+    <t>preshrink</t>
+  </si>
+  <si>
+    <t>preshrank</t>
+  </si>
+  <si>
+    <t>preshrunk</t>
+  </si>
+  <si>
+    <t>proofread</t>
+  </si>
+  <si>
+    <t>prove</t>
+  </si>
+  <si>
+    <t>proved</t>
+  </si>
+  <si>
+    <t>proven / proved</t>
+  </si>
+  <si>
+    <t>quick-freeze</t>
+  </si>
+  <si>
+    <t>quick-froze</t>
+  </si>
+  <si>
+    <t>quick-frozen</t>
+  </si>
+  <si>
+    <t>quit</t>
+  </si>
+  <si>
+    <t>quit / quitted [?]</t>
+  </si>
+  <si>
+    <t>read (sounds like "red")</t>
+  </si>
+  <si>
+    <t>reawake</t>
+  </si>
+  <si>
+    <t>reawoke</t>
+  </si>
+  <si>
+    <t>reawaken</t>
+  </si>
+  <si>
+    <t>rebid</t>
+  </si>
+  <si>
+    <t>rebind</t>
+  </si>
+  <si>
+    <t>rebound</t>
+  </si>
+  <si>
+    <t>rebroadcast</t>
+  </si>
+  <si>
+    <t>rebroadcast / rebroadcasted</t>
+  </si>
+  <si>
+    <t>rebuild</t>
+  </si>
+  <si>
+    <t>rebuilt</t>
+  </si>
+  <si>
+    <t>recast</t>
+  </si>
+  <si>
+    <t>recut</t>
+  </si>
+  <si>
+    <t>redeal</t>
+  </si>
+  <si>
+    <t>redealt</t>
+  </si>
+  <si>
+    <t>redo</t>
+  </si>
+  <si>
+    <t>redid</t>
+  </si>
+  <si>
+    <t>redone</t>
+  </si>
+  <si>
+    <t>redraw</t>
+  </si>
+  <si>
+    <t>redrew</t>
+  </si>
+  <si>
+    <t>redrawn</t>
+  </si>
+  <si>
+    <t>refit (replace parts)</t>
+  </si>
+  <si>
+    <t>refit / refitted [?]</t>
+  </si>
+  <si>
+    <t>refit (retailor)</t>
+  </si>
+  <si>
+    <t>refitted / refit [?]</t>
+  </si>
+  <si>
+    <t>regrind</t>
+  </si>
+  <si>
+    <t>reground</t>
+  </si>
+  <si>
+    <t>regrow</t>
+  </si>
+  <si>
+    <t>regrew</t>
+  </si>
+  <si>
+    <t>regrown</t>
+  </si>
+  <si>
+    <t>rehang</t>
+  </si>
+  <si>
+    <t>rehung</t>
+  </si>
+  <si>
+    <t>rehear</t>
+  </si>
+  <si>
+    <t>reheard</t>
+  </si>
+  <si>
+    <t>reknit</t>
+  </si>
+  <si>
+    <t>reknitted / reknit</t>
+  </si>
+  <si>
+    <t>relay (for example tiles)</t>
+  </si>
+  <si>
+    <t>relaid</t>
+  </si>
+  <si>
+    <t>relay (pass along) REGULAR</t>
+  </si>
+  <si>
+    <t>relayed</t>
+  </si>
+  <si>
+    <t>relearn</t>
+  </si>
+  <si>
+    <t>relearned / relearnt [?]</t>
+  </si>
+  <si>
+    <t>relight</t>
+  </si>
+  <si>
+    <t>relit / relighted</t>
+  </si>
+  <si>
+    <t>remake</t>
+  </si>
+  <si>
+    <t>remade</t>
+  </si>
+  <si>
+    <t>repay</t>
+  </si>
+  <si>
+    <t>repaid</t>
+  </si>
+  <si>
+    <t>reread</t>
+  </si>
+  <si>
+    <t>rerun</t>
+  </si>
+  <si>
+    <t>reran</t>
+  </si>
+  <si>
+    <t>resell</t>
+  </si>
+  <si>
+    <t>resold</t>
+  </si>
+  <si>
+    <t>resend</t>
+  </si>
+  <si>
+    <t>resent</t>
+  </si>
+  <si>
+    <t>reset</t>
+  </si>
+  <si>
+    <t>resew</t>
+  </si>
+  <si>
+    <t>resewed</t>
+  </si>
+  <si>
+    <t>resewn / resewed</t>
+  </si>
+  <si>
+    <t>retake</t>
+  </si>
+  <si>
+    <t>retook</t>
+  </si>
+  <si>
+    <t>retaken</t>
+  </si>
+  <si>
+    <t>reteach</t>
+  </si>
+  <si>
+    <t>retaught</t>
+  </si>
+  <si>
+    <t>retear</t>
+  </si>
+  <si>
+    <t>retore</t>
+  </si>
+  <si>
+    <t>retorn</t>
+  </si>
+  <si>
+    <t>retell</t>
+  </si>
+  <si>
+    <t>retold</t>
+  </si>
+  <si>
+    <t>rethink</t>
+  </si>
+  <si>
+    <t>rethought</t>
+  </si>
+  <si>
+    <t>retread</t>
+  </si>
+  <si>
+    <t>retrofit</t>
+  </si>
+  <si>
+    <t>retrofitted / retrofit [?]</t>
+  </si>
+  <si>
+    <t>rewake</t>
+  </si>
+  <si>
+    <t>rewoke / rewaked</t>
+  </si>
+  <si>
+    <t>rewaken / rewaked</t>
+  </si>
+  <si>
+    <t>rewear</t>
+  </si>
+  <si>
+    <t>rewore</t>
+  </si>
+  <si>
+    <t>reworn</t>
+  </si>
+  <si>
+    <t>reweave</t>
+  </si>
+  <si>
+    <t>rewove / reweaved</t>
+  </si>
+  <si>
+    <t>rewoven / reweaved</t>
+  </si>
+  <si>
+    <t>rewed</t>
+  </si>
+  <si>
+    <t>rewed / rewedded</t>
+  </si>
+  <si>
+    <t>rewet</t>
+  </si>
+  <si>
+    <t>rewet / rewetted [?]</t>
+  </si>
+  <si>
+    <t>rewin</t>
+  </si>
+  <si>
+    <t>rewon</t>
+  </si>
+  <si>
+    <t>rewind</t>
+  </si>
+  <si>
+    <t>rewound</t>
+  </si>
+  <si>
+    <t>rewrite</t>
+  </si>
+  <si>
+    <t>rewrote</t>
+  </si>
+  <si>
+    <t>rewritten</t>
+  </si>
+  <si>
+    <t>rid</t>
+  </si>
+  <si>
+    <t>roughcast</t>
+  </si>
+  <si>
+    <t>sand-cast</t>
+  </si>
+  <si>
+    <t>sawed / sawn</t>
+  </si>
+  <si>
+    <t>seek</t>
+  </si>
+  <si>
+    <t>sought</t>
+  </si>
+  <si>
+    <t>sewn / sewed</t>
+  </si>
+  <si>
+    <t>shave</t>
+  </si>
+  <si>
+    <t>shaved</t>
+  </si>
+  <si>
+    <t>shaved / shaven</t>
+  </si>
+  <si>
+    <t>shear</t>
+  </si>
+  <si>
+    <t>sheared</t>
+  </si>
+  <si>
+    <t>sheared / shorn</t>
+  </si>
+  <si>
+    <t>shined / shone [?]</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">shit / </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / shitted</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">shit/ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / shitted</t>
+    </r>
+  </si>
+  <si>
+    <t>shown / showed</t>
+  </si>
+  <si>
+    <t>shrank / shrunk</t>
+  </si>
+  <si>
+    <t>sight-read</t>
+  </si>
+  <si>
+    <t>sank / sunk</t>
+  </si>
+  <si>
+    <t>slay (kill)</t>
+  </si>
+  <si>
+    <t>slew / slayed</t>
+  </si>
+  <si>
+    <t>slain / slayed</t>
+  </si>
+  <si>
+    <t>slay (amuse) REGULAR</t>
+  </si>
+  <si>
+    <t>slayed</t>
+  </si>
+  <si>
+    <t>sling</t>
+  </si>
+  <si>
+    <t>slung</t>
+  </si>
+  <si>
+    <t>slink</t>
+  </si>
+  <si>
+    <t>slinked / slunk</t>
+  </si>
+  <si>
+    <t>slit</t>
+  </si>
+  <si>
+    <t>smelled / smelt [?]</t>
+  </si>
+  <si>
+    <t>sneak</t>
+  </si>
+  <si>
+    <t>sneaked / snuck</t>
+  </si>
+  <si>
+    <t>sown / sowed</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>sped / speeded</t>
+  </si>
+  <si>
+    <t>spelled / spelt [?]</t>
+  </si>
+  <si>
+    <t>spilled / spilt [?]</t>
+  </si>
+  <si>
+    <t>spin</t>
+  </si>
+  <si>
+    <t>spun</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">spit / </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spat</t>
+    </r>
+  </si>
+  <si>
+    <t>split</t>
+  </si>
+  <si>
+    <t>spoil</t>
+  </si>
+  <si>
+    <t>spoiled / spoilt [?]</t>
+  </si>
+  <si>
+    <t>spoon-feed</t>
+  </si>
+  <si>
+    <t>spoon-fed</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>sprang / sprung</t>
+  </si>
+  <si>
+    <t>sprung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stand </t>
+  </si>
+  <si>
+    <t>stunk / stank</t>
+  </si>
+  <si>
+    <t>strew</t>
+  </si>
+  <si>
+    <t>strewed</t>
+  </si>
+  <si>
+    <t>strewn / strewed</t>
+  </si>
+  <si>
+    <t>stride</t>
+  </si>
+  <si>
+    <t>strode</t>
+  </si>
+  <si>
+    <t>stridden</t>
+  </si>
+  <si>
+    <t>strike (delete)</t>
+  </si>
+  <si>
+    <t>stricken</t>
+  </si>
+  <si>
+    <t>strike (hit)</t>
+  </si>
+  <si>
+    <t>struck / stricken</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>strung</t>
+  </si>
+  <si>
+    <t>strive</t>
+  </si>
+  <si>
+    <t>strove / strived</t>
+  </si>
+  <si>
+    <t>striven / strived</t>
+  </si>
+  <si>
+    <t>sublet</t>
+  </si>
+  <si>
+    <t>sunburn</t>
+  </si>
+  <si>
+    <t>sunburned / sunburnt [?]</t>
+  </si>
+  <si>
+    <t>sweat</t>
+  </si>
+  <si>
+    <t>sweat / sweated</t>
+  </si>
+  <si>
+    <t>swollen / swelled</t>
+  </si>
+  <si>
+    <t>telecast</t>
+  </si>
+  <si>
+    <t>test-drive</t>
+  </si>
+  <si>
+    <t>test-drove</t>
+  </si>
+  <si>
+    <t>test-driven</t>
+  </si>
+  <si>
+    <t>test-fly</t>
+  </si>
+  <si>
+    <t>test-flew</t>
+  </si>
+  <si>
+    <t>test-flown</t>
+  </si>
+  <si>
+    <t>thrust</t>
+  </si>
+  <si>
+    <t>tread</t>
+  </si>
+  <si>
+    <t>trod</t>
+  </si>
+  <si>
+    <t>trodden / trod</t>
+  </si>
+  <si>
+    <t>typecast</t>
+  </si>
+  <si>
+    <t>typeset</t>
+  </si>
+  <si>
+    <t>typewrite</t>
+  </si>
+  <si>
+    <t>typewrote</t>
+  </si>
+  <si>
+    <t>typewritten</t>
+  </si>
+  <si>
+    <t>unbend</t>
+  </si>
+  <si>
+    <t>unbent</t>
+  </si>
+  <si>
+    <t>unbind</t>
+  </si>
+  <si>
+    <t>unbound</t>
+  </si>
+  <si>
+    <t>unclothe</t>
+  </si>
+  <si>
+    <t>unclothed / unclad [?]</t>
+  </si>
+  <si>
+    <t>underbid</t>
+  </si>
+  <si>
+    <t>undercut</t>
+  </si>
+  <si>
+    <t>underfeed</t>
+  </si>
+  <si>
+    <t>underfed</t>
+  </si>
+  <si>
+    <t>undergo</t>
+  </si>
+  <si>
+    <t>underwent</t>
+  </si>
+  <si>
+    <t>undergone</t>
+  </si>
+  <si>
+    <t>underlie</t>
+  </si>
+  <si>
+    <t>underlay</t>
+  </si>
+  <si>
+    <t>underlain</t>
+  </si>
+  <si>
+    <t>undersell</t>
+  </si>
+  <si>
+    <t>undersold</t>
+  </si>
+  <si>
+    <t>underspend</t>
+  </si>
+  <si>
+    <t>underspent</t>
+  </si>
+  <si>
+    <t>undertake</t>
+  </si>
+  <si>
+    <t>undertook</t>
+  </si>
+  <si>
+    <t>undertaken</t>
+  </si>
+  <si>
+    <t>underwrite</t>
+  </si>
+  <si>
+    <t>underwrote</t>
+  </si>
+  <si>
+    <t>underwritten</t>
+  </si>
+  <si>
+    <t>undo</t>
+  </si>
+  <si>
+    <t>undid</t>
+  </si>
+  <si>
+    <t>undone</t>
+  </si>
+  <si>
+    <t>unfreeze</t>
+  </si>
+  <si>
+    <t>unfroze</t>
+  </si>
+  <si>
+    <t>unfrozen</t>
+  </si>
+  <si>
+    <t>unhang</t>
+  </si>
+  <si>
+    <t>unhung</t>
+  </si>
+  <si>
+    <t>unhide</t>
+  </si>
+  <si>
+    <t>unhid</t>
+  </si>
+  <si>
+    <t>unhidden</t>
+  </si>
+  <si>
+    <t>unknit</t>
+  </si>
+  <si>
+    <t>unknitted / unknit</t>
+  </si>
+  <si>
+    <t>unlearn</t>
+  </si>
+  <si>
+    <t>unlearned / unlearnt [?]</t>
+  </si>
+  <si>
+    <t>unsew</t>
+  </si>
+  <si>
+    <t>unsewed</t>
+  </si>
+  <si>
+    <t>unsewn / unsewed</t>
+  </si>
+  <si>
+    <t>unsling</t>
+  </si>
+  <si>
+    <t>unslung</t>
+  </si>
+  <si>
+    <t>unspin</t>
+  </si>
+  <si>
+    <t>unspun</t>
+  </si>
+  <si>
+    <t>unstick</t>
+  </si>
+  <si>
+    <t>unstuck</t>
+  </si>
+  <si>
+    <t>unstring</t>
+  </si>
+  <si>
+    <t>unstrung</t>
+  </si>
+  <si>
+    <t>unweave</t>
+  </si>
+  <si>
+    <t>unwove / unweaved</t>
+  </si>
+  <si>
+    <t>unwoven / unweaved</t>
+  </si>
+  <si>
+    <t>unwind</t>
+  </si>
+  <si>
+    <t>unwound</t>
+  </si>
+  <si>
+    <t>uphold</t>
+  </si>
+  <si>
+    <t>upheld</t>
+  </si>
+  <si>
+    <t>upset</t>
+  </si>
+  <si>
+    <t>No commonly used irregular verbs beginning with "V."</t>
+  </si>
+  <si>
+    <t>woke / waked</t>
+  </si>
+  <si>
+    <t>woken / waked</t>
+  </si>
+  <si>
+    <t>waylay</t>
+  </si>
+  <si>
+    <t>waylaid</t>
+  </si>
+  <si>
+    <t>weave</t>
+  </si>
+  <si>
+    <t>wove / weaved</t>
+  </si>
+  <si>
+    <t>woven / weaved</t>
+  </si>
+  <si>
+    <t>wed</t>
+  </si>
+  <si>
+    <t>wed / wedded</t>
+  </si>
+  <si>
+    <t>wet</t>
+  </si>
+  <si>
+    <t>wet / wetted [?]</t>
+  </si>
+  <si>
+    <t>whet  REGULAR</t>
+  </si>
+  <si>
+    <t>whetted</t>
+  </si>
+  <si>
+    <t>withdraw</t>
+  </si>
+  <si>
+    <t>withdrew</t>
+  </si>
+  <si>
+    <t>withdrawn</t>
+  </si>
+  <si>
+    <t>withhold</t>
+  </si>
+  <si>
+    <t>withheld</t>
+  </si>
+  <si>
+    <t>withstand</t>
+  </si>
+  <si>
+    <t>withstood</t>
+  </si>
+  <si>
+    <t>wring</t>
+  </si>
+  <si>
+    <t>wrung</t>
   </si>
 </sst>
 </file>
@@ -212,16 +2780,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -236,7 +2805,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -249,23 +2819,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
+  <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -548,7 +3125,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,40 +3146,40 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="B7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C9" t="s">
@@ -615,12 +3192,12 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="B11" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="B12" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -640,7 +3217,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="B17" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -655,7 +3232,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="B20" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -665,7 +3242,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+      <c r="B22" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -750,17 +3327,17 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
+      <c r="B40" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
+      <c r="B41" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
+      <c r="B42" s="8" t="s">
         <v>47</v>
       </c>
     </row>
@@ -852,4 +3429,4574 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA122E6C-9CCE-4211-8E22-06ECBA957879}">
+  <dimension ref="E3:G376"/>
+  <sheetViews>
+    <sheetView topLeftCell="A351" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T353" sqref="T353"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E3" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E4" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E5" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E6" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E7" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E13" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E14" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E15" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E17" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E20" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E21" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E22" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E23" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E24" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E26" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E27" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E28" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E29" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E30" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E31" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E32" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E33" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E34" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E35" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E36" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E37" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E38" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E39" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E40" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E41" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E42" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="43" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E43" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E44" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E45" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E46" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E47" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="48" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E48" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E49" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E50" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E51" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E52" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E53" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E54" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E55" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E56" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E57" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="58" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E58" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="59" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E59" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="60" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E60" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="61" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E61" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E62" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="63" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E63" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="64" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E64" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="65" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E65" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="66" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E66" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="67" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E67" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="68" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E68" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E69" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="70" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E70" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E71" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="72" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E72" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="73" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E73" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E74" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E75" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="76" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E76" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E77" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="78" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E78" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="79" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E79" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E80" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E81" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E82" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="83" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E83" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E84" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E85" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E86" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E87" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="88" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E88" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="89" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E89" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="90" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E90" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="91" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E91" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="92" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E92" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="93" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E93" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="94" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E94" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E95" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="96" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E96" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="97" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E97" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E98" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="99" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E99" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="100" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E100" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="101" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E101" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="102" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E102" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="103" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E103" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="104" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E104" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="105" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E105" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="106" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E106" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="107" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E107" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="108" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E108" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="109" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E109" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="110" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E110" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="111" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E111" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="112" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E112" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="113" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E113" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="114" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E114" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="115" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E115" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="116" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E116" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="117" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E117" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="118" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E118" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="119" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E119" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="120" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E120" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="121" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E121" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="122" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E122" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="123" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E123" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="124" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E124" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="125" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E125" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="126" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E126" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="127" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E127" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="128" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E128" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="129" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E129" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="130" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E130" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="131" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E131" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="132" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E132" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="133" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E133" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="134" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E134" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="135" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E135" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="136" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E136" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="137" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E137" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="138" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E138" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="139" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E139" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="140" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E140" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="141" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E141" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="142" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E142" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="143" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E143" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="144" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E144" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="145" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E145" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="146" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E146" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="G146" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="147" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E147" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="148" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E148" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="149" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E149" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="150" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E150" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="151" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E151" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="G151" s="6" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="152" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E152" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="153" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E153" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="154" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E154" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="155" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E155" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="156" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E156" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="157" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E157" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="G157" s="5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="158" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E158" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="159" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E159" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G159" s="5" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="160" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E160" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="161" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E161" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="162" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E162" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="163" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E163" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="G163" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="164" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E164" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="165" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E165" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="G165" s="5" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="166" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E166" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="167" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E167" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="G167" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="168" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E168" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="169" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E169" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="G169" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="170" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E170" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G170" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="171" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E171" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="G171" s="5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="172" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E172" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="G172" s="5" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="173" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E173" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="G173" s="5" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="174" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E174" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="G174" s="5" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="175" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E175" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="G175" s="5" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="176" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E176" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="G176" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="177" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E177" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="G177" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="178" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E178" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="G178" s="5" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="179" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E179" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="G179" s="5" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="180" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E180" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="G180" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="181" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E181" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="G181" s="5" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="182" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E182" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="G182" s="5" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="183" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E183" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="G183" s="6" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="184" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E184" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G184" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="185" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E185" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="G185" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="186" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E186" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="G186" s="5" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="187" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E187" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F187" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="G187" s="5" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="188" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E188" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="G188" s="5" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="189" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E189" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="G189" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="190" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E190" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G190" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="191" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E191" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="G191" s="5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="192" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E192" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="G192" s="5" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="193" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E193" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="G193" s="5" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="194" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E194" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="G194" s="5" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="195" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E195" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="G195" s="5" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="196" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E196" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="G196" s="5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="197" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E197" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="G197" s="5" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="198" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E198" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="G198" s="5" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="199" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E199" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="G199" s="5" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="200" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E200" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="G200" s="5" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="201" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E201" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G201" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="202" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E202" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="G202" s="5" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="203" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E203" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="F203" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="G203" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="204" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E204" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="G204" s="5" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="205" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E205" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="G205" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="206" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E206" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="G206" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="207" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E207" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="G207" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="208" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E208" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="G208" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="209" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E209" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="G209" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="210" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E210" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="G210" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="211" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E211" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="G211" s="5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="212" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E212" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="G212" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="213" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E213" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="F213" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="G213" s="5" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="214" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E214" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="G214" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="215" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E215" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="F215" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="G215" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="216" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E216" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="F216" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="G216" s="6" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="217" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E217" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="F217" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="G217" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="218" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E218" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="G218" s="5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="219" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E219" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="F219" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="G219" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="220" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E220" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="F220" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="G220" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="221" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E221" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="F221" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="G221" s="5" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="222" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E222" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="G222" s="5" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="223" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E223" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="F223" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="G223" s="5" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="224" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E224" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="F224" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="G224" s="6" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="225" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E225" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="F225" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="G225" s="5" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="226" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E226" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="F226" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="G226" s="5" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="227" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E227" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="F227" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="G227" s="5" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="228" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E228" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="F228" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="G228" s="5" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="229" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E229" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="F229" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="G229" s="5" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="230" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E230" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="F230" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="G230" s="5" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="231" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E231" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="F231" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="G231" s="5" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="232" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E232" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="F232" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="G232" s="5" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="233" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E233" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="F233" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="G233" s="5" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="234" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E234" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="F234" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="G234" s="5" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="235" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E235" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="F235" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="G235" s="5" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="236" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E236" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="F236" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="G236" s="5" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="237" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E237" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="F237" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="G237" s="5" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="238" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E238" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="F238" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="G238" s="5" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="239" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E239" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="F239" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="G239" s="5" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="240" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E240" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="F240" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="G240" s="6" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="241" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E241" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="F241" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="G241" s="5" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="242" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E242" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="F242" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="G242" s="5" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="243" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E243" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="F243" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="G243" s="5" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="244" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E244" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="F244" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="G244" s="5" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="245" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E245" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="F245" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="G245" s="6" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="246" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E246" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="F246" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="G246" s="5" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="247" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E247" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="F247" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="G247" s="5" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="248" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E248" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="F248" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="G248" s="5" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="249" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E249" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="F249" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="G249" s="5" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="250" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E250" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F250" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G250" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="251" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E251" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F251" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G251" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="252" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E252" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F252" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G252" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="253" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E253" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="F253" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="G253" s="5" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="254" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E254" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F254" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G254" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="255" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E255" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="F255" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="G255" s="5" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="256" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E256" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="F256" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G256" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="257" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E257" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F257" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G257" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="258" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E258" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F258" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G258" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="259" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E259" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="F259" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="G259" s="5" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="260" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E260" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F260" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G260" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="261" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E261" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F261" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G261" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="262" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E262" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="F262" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G262" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="263" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E263" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="F263" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G263" s="5" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="264" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E264" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="F264" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G264" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="265" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E265" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="F265" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="G265" s="5" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="266" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E266" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="F266" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="G266" s="5" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="267" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E267" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F267" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G267" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="268" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E268" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F268" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="G268" s="6" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="269" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E269" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="F269" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="G269" s="5" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="270" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E270" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="F270" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G270" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="271" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E271" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F271" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G271" s="5" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="272" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E272" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F272" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="G272" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="273" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E273" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F273" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G273" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="274" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E274" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="F274" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="G274" s="5" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="275" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E275" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F275" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G275" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="276" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E276" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F276" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="G276" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="277" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E277" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F277" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G277" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="278" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E278" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="F278" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="G278" s="5" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="279" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E279" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="F279" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="G279" s="5" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="280" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E280" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F280" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G280" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="281" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E281" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F281" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="G281" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="282" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E282" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="F282" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G282" s="5" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="283" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E283" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="F283" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="G283" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="284" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E284" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="F284" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="G284" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="285" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E285" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="F285" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="G285" s="6" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="286" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E286" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="F286" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="G286" s="5" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="287" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E287" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F287" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G287" s="5" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="288" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E288" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F288" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G288" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="289" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E289" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="F289" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="G289" s="5" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="290" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E290" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="F290" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="G290" s="6" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="291" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E291" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F291" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G291" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="292" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E292" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F292" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="G292" s="6" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="293" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E293" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="F293" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="G293" s="5" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="294" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E294" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="F294" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="G294" s="5" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="295" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E295" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="F295" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="G295" s="5" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="296" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E296" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="F296" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="G296" s="6" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="297" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E297" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="F297" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="G297" s="5" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="298" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E298" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="F298" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G298" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="299" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E299" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="F299" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="G299" s="5" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="300" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E300" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="F300" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G300" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="301" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E301" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="F301" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="G301" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="302" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E302" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F302" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G302" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="303" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E303" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F303" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="G303" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="304" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E304" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F304" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="G304" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="305" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E305" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="F305" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="G305" s="5" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="306" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E306" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="F306" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="G306" s="5" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="307" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E307" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="F307" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G307" s="5" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="308" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E308" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="F308" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G308" s="5" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="309" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E309" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="F309" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="G309" s="5" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="310" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E310" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="F310" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="G310" s="5" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="311" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E311" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="F311" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="G311" s="5" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="312" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E312" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="F312" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="G312" s="6" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="313" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E313" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F313" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G313" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="314" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E314" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="F314" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="G314" s="5" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="315" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E315" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="F315" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G315" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="316" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E316" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="F316" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="G316" s="5" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="317" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E317" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F317" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G317" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="318" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E318" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="F318" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G318" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="319" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E319" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F319" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G319" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="320" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E320" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F320" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G320" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="321" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E321" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F321" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G321" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="322" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E322" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="F322" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="G322" s="5" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="323" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E323" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F323" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G323" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="324" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E324" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="F324" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="G324" s="5" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="325" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E325" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="F325" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="G325" s="5" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="326" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E326" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F326" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G326" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="327" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E327" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F327" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G327" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="328" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E328" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="F328" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="G328" s="5" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="329" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E329" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="F329" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="G329" s="5" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="330" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E330" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="F330" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="G330" s="5" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="331" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E331" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="F331" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="G331" s="5" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="332" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E332" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="F332" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="G332" s="5" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="333" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E333" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="F333" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="G333" s="5" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="334" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E334" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="F334" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="G334" s="5" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="335" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E335" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="F335" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="G335" s="6" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="336" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E336" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="F336" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="G336" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="337" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E337" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="F337" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="G337" s="5" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="338" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E338" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="F338" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="G338" s="5" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="339" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E339" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="F339" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="G339" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="340" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E340" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="F340" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="G340" s="5" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="341" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E341" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="F341" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="G341" s="5" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="342" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E342" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="F342" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="G342" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="343" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E343" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F343" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G343" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="344" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E344" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="F344" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="G344" s="5" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="345" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E345" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="F345" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="G345" s="5" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="346" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E346" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="F346" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="G346" s="5" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="347" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E347" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="F347" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="G347" s="5" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="348" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E348" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="F348" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="G348" s="5" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="349" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E349" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="F349" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="G349" s="5" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="350" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E350" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="F350" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="G350" s="5" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="351" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E351" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="F351" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="G351" s="6" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="352" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E352" s="6" t="s">
+        <v>844</v>
+      </c>
+      <c r="F352" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="G352" s="5" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="353" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E353" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="F353" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="G353" s="5" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="354" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E354" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="F354" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="G354" s="5" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="355" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E355" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="F355" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="G355" s="5" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="356" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E356" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="F356" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="G356" s="5" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="357" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E357" s="6" t="s">
+        <v>855</v>
+      </c>
+      <c r="F357" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="G357" s="5" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="358" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E358" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="F358" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="G358" s="5" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="359" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E359" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="F359" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="G359" s="5" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="360" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E360" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="F360" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="G360" s="5" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="361" spans="5:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E361" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="F361" s="7"/>
+      <c r="G361" s="7"/>
+    </row>
+    <row r="362" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E362" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F362" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="G362" s="5" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="363" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E363" s="6" t="s">
+        <v>866</v>
+      </c>
+      <c r="F363" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="G363" s="5" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="364" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E364" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="F364" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G364" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="365" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E365" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="F365" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="G365" s="5" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="366" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E366" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="F366" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="G366" s="5" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="367" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E367" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F367" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G367" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="368" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E368" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="F368" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="G368" s="6" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="369" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E369" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="F369" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="G369" s="5" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="370" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E370" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F370" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G370" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="371" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E371" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="F371" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="G371" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="372" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E372" s="6" t="s">
+        <v>877</v>
+      </c>
+      <c r="F372" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="G372" s="5" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="373" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E373" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="F373" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="G373" s="5" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="374" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E374" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="F374" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="G374" s="5" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="375" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E375" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="F375" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="G375" s="5" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="376" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E376" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F376" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G376" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E361:G361"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" display="https://www.onelook.com/?loc=pub&amp;w=arise" xr:uid="{86CD8698-FED7-45BD-89E3-BCF436A8D59C}"/>
+    <hyperlink ref="E4" r:id="rId2" display="https://www.onelook.com/?loc=pub&amp;w=awake" xr:uid="{67C3368D-6C1F-415C-84FD-9762F828B126}"/>
+    <hyperlink ref="E5" r:id="rId3" display="https://www.onelook.com/?loc=pub&amp;w=backslide" xr:uid="{2135BCE6-3D48-44C0-8D63-332318854DAD}"/>
+    <hyperlink ref="E6" r:id="rId4" display="https://www.onelook.com/?loc=pub&amp;w=be" xr:uid="{27EA38C8-AB47-4B90-A287-C078957AB739}"/>
+    <hyperlink ref="E7" r:id="rId5" display="https://www.onelook.com/?loc=pub&amp;w=bear" xr:uid="{AEB2DFCE-6EA6-4F44-95B2-60EE2E8A3EF4}"/>
+    <hyperlink ref="E8" r:id="rId6" display="https://www.onelook.com/?loc=pub&amp;w=beat" xr:uid="{48290793-5339-4AA6-944E-2579742B50FB}"/>
+    <hyperlink ref="E9" r:id="rId7" display="https://www.onelook.com/?loc=pub&amp;w=become" xr:uid="{D0E5A0FB-8262-49FC-BCAC-BFC4ACE6F6D2}"/>
+    <hyperlink ref="E10" r:id="rId8" display="https://www.onelook.com/?loc=pub&amp;w=begin" xr:uid="{544092AE-707F-4017-9AF9-058C5093FC70}"/>
+    <hyperlink ref="E11" r:id="rId9" display="https://www.onelook.com/?loc=pub&amp;w=bend" xr:uid="{AEF8FCD9-F33B-4DB8-8607-3FFA5CEA1BC4}"/>
+    <hyperlink ref="E12" r:id="rId10" display="https://www.onelook.com/?loc=pub&amp;w=bet" xr:uid="{2BAAC97B-74EF-4A4D-BE18-78412C4A0DA1}"/>
+    <hyperlink ref="F12" r:id="rId11" location="5" display="https://www.englishpage.com/irregularverbs/info.html - 5" xr:uid="{2B11F118-C6A3-486D-9F86-C831F19D956D}"/>
+    <hyperlink ref="G12" r:id="rId12" location="5" display="https://www.englishpage.com/irregularverbs/info.html - 5" xr:uid="{91377350-3794-4178-B014-6A19C8C0E969}"/>
+    <hyperlink ref="E13" r:id="rId13" display="https://www.onelook.com/?loc=pub&amp;w=bid" xr:uid="{329788E1-55C2-45AE-8C7E-C91B0D5B26F2}"/>
+    <hyperlink ref="E14" r:id="rId14" display="https://www.onelook.com/?loc=pub&amp;w=bid" xr:uid="{6DC9E727-9F15-4BE5-B2E5-6477244B2847}"/>
+    <hyperlink ref="E15" r:id="rId15" display="https://www.onelook.com/?loc=pub&amp;w=bind" xr:uid="{C93828A1-6F0A-4837-BF75-DA8A1AD08384}"/>
+    <hyperlink ref="E16" r:id="rId16" display="https://www.onelook.com/?loc=pub&amp;w=bite" xr:uid="{315D0857-5242-4DA9-9312-CDFD4DD294E2}"/>
+    <hyperlink ref="E17" r:id="rId17" display="https://www.onelook.com/?loc=pub&amp;w=bleed" xr:uid="{3D5A5258-FBB8-4EE4-BA8C-FCE241D1F8A4}"/>
+    <hyperlink ref="E18" r:id="rId18" display="https://www.onelook.com/?loc=pub&amp;w=blow" xr:uid="{B4D1A0AA-3B16-4CFF-A423-E483D15100ED}"/>
+    <hyperlink ref="E19" r:id="rId19" display="https://www.onelook.com/?loc=pub&amp;w=break" xr:uid="{5C879AD0-6124-4B24-8E8C-8CB213DAC17B}"/>
+    <hyperlink ref="E20" r:id="rId20" display="https://www.onelook.com/?loc=pub&amp;w=breed" xr:uid="{7DF8EC44-64E6-41FE-BBB4-D5A5C3AA25A3}"/>
+    <hyperlink ref="E21" r:id="rId21" display="https://www.onelook.com/?loc=pub&amp;w=bring" xr:uid="{CB8CDFB5-10EE-4359-A595-25EEA8F25FA4}"/>
+    <hyperlink ref="E22" r:id="rId22" display="https://www.onelook.com/?loc=pub&amp;w=broadcast" xr:uid="{FD2A3273-AA1B-4B4D-82BD-CA7D65E639EB}"/>
+    <hyperlink ref="E23" r:id="rId23" display="https://www.onelook.com/?loc=pub&amp;w=browbeat" xr:uid="{618B2322-CECD-40E3-89E1-B1BE3EC38E4C}"/>
+    <hyperlink ref="E24" r:id="rId24" display="https://www.onelook.com/?loc=pub&amp;w=build" xr:uid="{ADAF925E-DBCC-4D23-AFE3-1F295183EC66}"/>
+    <hyperlink ref="E25" r:id="rId25" display="https://www.onelook.com/?loc=pub&amp;w=burn" xr:uid="{935E1F43-7D4C-4F49-8625-FC6AE10AD400}"/>
+    <hyperlink ref="F25" r:id="rId26" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{753FA166-0CCF-4EB8-8BBC-2569B9B6C6A8}"/>
+    <hyperlink ref="G25" r:id="rId27" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{982AF926-5794-4952-B0BE-DC8368F13303}"/>
+    <hyperlink ref="E26" r:id="rId28" display="https://www.onelook.com/?loc=pub&amp;w=burst" xr:uid="{20A14930-3FCC-4DD0-9878-4DD21E0F7117}"/>
+    <hyperlink ref="E27" r:id="rId29" display="https://www.onelook.com/?loc=pub&amp;w=bust" xr:uid="{CD18522E-C85F-475D-8D2A-E4B26CD362EE}"/>
+    <hyperlink ref="E28" r:id="rId30" display="https://www.onelook.com/?loc=pub&amp;w=buy" xr:uid="{EB0F2DA2-BB53-492B-BD9F-CFA412440866}"/>
+    <hyperlink ref="E29" r:id="rId31" display="https://www.onelook.com/?loc=pub&amp;w=cast" xr:uid="{4DB62380-9352-4FC3-AF08-9EFE2E98A6CD}"/>
+    <hyperlink ref="E30" r:id="rId32" display="https://www.onelook.com/?loc=pub&amp;w=catch" xr:uid="{3E8434AD-6FE1-4274-9796-B4B14BED9C89}"/>
+    <hyperlink ref="E31" r:id="rId33" display="https://www.onelook.com/?loc=pub&amp;w=choose" xr:uid="{2FB9A3D7-8E92-4A1F-9D07-2B8C22188622}"/>
+    <hyperlink ref="E32" r:id="rId34" display="https://www.onelook.com/?loc=pub&amp;w=cling" xr:uid="{D079DCD1-A74B-43FC-9885-01FBE3217356}"/>
+    <hyperlink ref="E33" r:id="rId35" display="https://www.onelook.com/?loc=pub&amp;w=clothe" xr:uid="{BBF1BE56-140B-4426-AB19-FFF48BE8A3CF}"/>
+    <hyperlink ref="F33" r:id="rId36" location="6" display="https://www.englishpage.com/irregularverbs/info.html - 6" xr:uid="{ED5693DB-4B69-400A-982E-672BB807FC4B}"/>
+    <hyperlink ref="G33" r:id="rId37" location="6" display="https://www.englishpage.com/irregularverbs/info.html - 6" xr:uid="{B9858B90-89C7-492D-B024-1C278A9A38C4}"/>
+    <hyperlink ref="E34" r:id="rId38" display="https://www.onelook.com/?loc=pub&amp;w=come" xr:uid="{7094BF2A-19A6-4C07-8602-DD62ACE0DE9A}"/>
+    <hyperlink ref="E35" r:id="rId39" display="https://www.onelook.com/?loc=pub&amp;w=cost" xr:uid="{B1B7A2BC-C341-4630-8F4D-8BBA4B317551}"/>
+    <hyperlink ref="E36" r:id="rId40" display="https://www.onelook.com/?loc=pub&amp;w=creep" xr:uid="{B95E59F3-4D96-455C-926E-23BD85733891}"/>
+    <hyperlink ref="E37" r:id="rId41" display="https://www.onelook.com/?loc=pub&amp;w=crossbreed" xr:uid="{6724F68C-59A7-4976-B2B2-56B99D81C427}"/>
+    <hyperlink ref="E38" r:id="rId42" display="https://www.onelook.com/?loc=pub&amp;w=cut" xr:uid="{7DA88BF4-ED27-43A3-B5C1-A1EDA0F50FBF}"/>
+    <hyperlink ref="E39" r:id="rId43" display="https://www.onelook.com/?loc=pub&amp;w=daydream" xr:uid="{B27BB06A-7971-4FCE-B11C-BB10E0FD6171}"/>
+    <hyperlink ref="F39" r:id="rId44" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{734F241E-0BFB-40D6-B80A-801963220455}"/>
+    <hyperlink ref="G39" r:id="rId45" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{48E6E39B-7093-4EA9-B299-DBB33B02225C}"/>
+    <hyperlink ref="E40" r:id="rId46" display="https://www.onelook.com/?loc=pub&amp;w=deal" xr:uid="{829ABD49-733C-41F8-9DA9-2CA8601DF654}"/>
+    <hyperlink ref="E41" r:id="rId47" display="https://www.onelook.com/?loc=pub&amp;w=dig" xr:uid="{50CFB9B1-F6E3-4E71-BE06-BA451F392CDA}"/>
+    <hyperlink ref="E42" r:id="rId48" display="https://www.onelook.com/?loc=pub&amp;w=disprove" xr:uid="{295A6027-5F25-41F6-AFF1-37C08D210781}"/>
+    <hyperlink ref="E43" r:id="rId49" display="https://www.onelook.com/?loc=pub&amp;w=dive" xr:uid="{FB88CC8D-1C40-4C32-9A74-A63CBF746D35}"/>
+    <hyperlink ref="E44" r:id="rId50" display="https://www.onelook.com/?loc=pub&amp;w=dive" xr:uid="{1DFB8C85-9816-4484-A7E8-307F3F423F31}"/>
+    <hyperlink ref="E45" r:id="rId51" display="https://www.onelook.com/?loc=pub&amp;w=do" xr:uid="{1716E2C4-1CE7-42F4-ABFF-FB2C3EE56A33}"/>
+    <hyperlink ref="E46" r:id="rId52" display="https://www.onelook.com/?loc=pub&amp;w=draw" xr:uid="{402B0184-03AD-45DB-BD39-A2A53170453D}"/>
+    <hyperlink ref="E47" r:id="rId53" display="https://www.onelook.com/?loc=pub&amp;w=dream" xr:uid="{0992A857-3204-400C-AE1F-DE62AF48016B}"/>
+    <hyperlink ref="F47" r:id="rId54" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{BAACB282-4F5F-4677-A3FC-0F39E3F7B651}"/>
+    <hyperlink ref="G47" r:id="rId55" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{29ECB719-DA8E-4BAE-B586-4343D6AAF8B8}"/>
+    <hyperlink ref="E48" r:id="rId56" display="https://www.onelook.com/?loc=pub&amp;w=drink" xr:uid="{CCF2A2DD-14BC-43A2-A300-DAD1B4D1D998}"/>
+    <hyperlink ref="E49" r:id="rId57" display="https://www.onelook.com/?loc=pub&amp;w=drive" xr:uid="{D27C0410-6A3C-461A-922A-A38BFA7DDBC1}"/>
+    <hyperlink ref="E50" r:id="rId58" display="https://www.onelook.com/?loc=pub&amp;w=dwell" xr:uid="{AA81B7B2-0A31-4940-B115-2643CDFB0B63}"/>
+    <hyperlink ref="F50" r:id="rId59" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{681ED718-3CB4-4CEF-BBC2-8523C7DC2E8C}"/>
+    <hyperlink ref="G50" r:id="rId60" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{659FF0A4-5156-40E3-8220-102051ABE3C7}"/>
+    <hyperlink ref="E51" r:id="rId61" display="https://www.onelook.com/?loc=pub&amp;w=eat" xr:uid="{5D95493B-ACE0-449D-BA60-E559BF606E4E}"/>
+    <hyperlink ref="E52" r:id="rId62" display="https://www.onelook.com/?loc=pub&amp;w=fall" xr:uid="{BEA4D6AD-B71E-429A-B952-87939BC7FAD4}"/>
+    <hyperlink ref="E53" r:id="rId63" display="https://www.onelook.com/?loc=pub&amp;w=feed" xr:uid="{3F335968-64D1-4B9A-A7A0-D7C6F233D47B}"/>
+    <hyperlink ref="E54" r:id="rId64" display="https://www.onelook.com/?loc=pub&amp;w=feel" xr:uid="{71AA04BC-48A2-4B6E-B455-34084557081D}"/>
+    <hyperlink ref="E55" r:id="rId65" display="https://www.onelook.com/?loc=pub&amp;w=fight" xr:uid="{43002C58-7DBB-4904-BD1F-E7B8C3B612CA}"/>
+    <hyperlink ref="E56" r:id="rId66" display="https://www.onelook.com/?loc=pub&amp;w=find" xr:uid="{EA82F5C8-30E7-4BC5-A8FC-29CC6D535F5E}"/>
+    <hyperlink ref="E57" r:id="rId67" display="https://www.onelook.com/?loc=pub&amp;w=fit" xr:uid="{038AD956-4361-4118-8BB9-2D251C5D011C}"/>
+    <hyperlink ref="F57" r:id="rId68" location="7" display="https://www.englishpage.com/irregularverbs/info.html - 7" xr:uid="{B0CAA897-99BB-4B82-A389-712A935B8C64}"/>
+    <hyperlink ref="G57" r:id="rId69" location="7" display="https://www.englishpage.com/irregularverbs/info.html - 7" xr:uid="{1F19DFC0-C2AF-4D45-A834-F515867A67A9}"/>
+    <hyperlink ref="E58" r:id="rId70" display="https://www.onelook.com/?loc=pub&amp;w=fit" xr:uid="{F428362C-6103-4A51-9EF2-E4A2FBA1F4F8}"/>
+    <hyperlink ref="F58" r:id="rId71" location="7" display="https://www.englishpage.com/irregularverbs/info.html - 7" xr:uid="{BC50D8AC-E18D-474E-B6E5-D190D500E864}"/>
+    <hyperlink ref="G58" r:id="rId72" location="7" display="https://www.englishpage.com/irregularverbs/info.html - 7" xr:uid="{5A76E4E6-C965-4158-884D-487C32602B81}"/>
+    <hyperlink ref="E59" r:id="rId73" display="https://www.onelook.com/?loc=pub&amp;w=flee" xr:uid="{3794403D-D9C1-47F1-A39F-A78C26FDCF2F}"/>
+    <hyperlink ref="E60" r:id="rId74" display="https://www.onelook.com/?loc=pub&amp;w=fling" xr:uid="{628AD899-F866-480F-B0FD-4CA2D7943D24}"/>
+    <hyperlink ref="E61" r:id="rId75" display="https://www.onelook.com/?loc=pub&amp;w=fly" xr:uid="{0CC88133-79B2-4B36-A2F5-DE259A8B07B1}"/>
+    <hyperlink ref="E62" r:id="rId76" display="https://www.onelook.com/?loc=pub&amp;w=forbid" xr:uid="{02C4521A-B272-4588-8436-6EDC387BEBD0}"/>
+    <hyperlink ref="E63" r:id="rId77" display="https://www.onelook.com/?loc=pub&amp;w=forecast" xr:uid="{43CF53FB-BC37-446C-B92E-993A60CA8B30}"/>
+    <hyperlink ref="E64" r:id="rId78" display="https://www.onelook.com/?loc=pub&amp;w=forego" xr:uid="{7ECACAC4-4E22-4A15-B06A-A9AAB5C861B1}"/>
+    <hyperlink ref="E65" r:id="rId79" display="https://www.onelook.com/?loc=pub&amp;w=foresee" xr:uid="{D14A2BB5-FE5E-42FF-B339-BAC8BAA8DDF0}"/>
+    <hyperlink ref="E66" r:id="rId80" display="https://www.onelook.com/?loc=pub&amp;w=foretell" xr:uid="{F26AF02B-F61C-47ED-AF75-27C715D5013F}"/>
+    <hyperlink ref="E67" r:id="rId81" display="https://www.onelook.com/?loc=pub&amp;w=forget" xr:uid="{0388F2AE-C620-45A7-9AFE-A5562B4657EE}"/>
+    <hyperlink ref="G67" r:id="rId82" location="9" display="https://www.englishpage.com/irregularverbs/info.html - 9" xr:uid="{14EF4F3F-2018-46C4-8131-70B0FBC0EF85}"/>
+    <hyperlink ref="E68" r:id="rId83" display="https://www.onelook.com/?loc=pub&amp;w=forgive" xr:uid="{1A8165FE-92E5-400F-9B2D-62C9DC3D98E2}"/>
+    <hyperlink ref="E69" r:id="rId84" display="https://www.onelook.com/?loc=pub&amp;w=forsake" xr:uid="{41194C0B-1067-48BA-A649-6F7B84A3093F}"/>
+    <hyperlink ref="E70" r:id="rId85" display="https://www.onelook.com/?loc=pub&amp;w=freeze" xr:uid="{460F877A-2A82-415A-93D5-4B70E1AE1CA9}"/>
+    <hyperlink ref="E71" r:id="rId86" display="https://www.onelook.com/?loc=pub&amp;w=frostbite" xr:uid="{D5A94A20-836D-4E92-BAC4-B4740805CC45}"/>
+    <hyperlink ref="E72" r:id="rId87" display="https://www.onelook.com/?loc=pub&amp;w=get" xr:uid="{179AF548-733B-4773-BD3F-0133590682D4}"/>
+    <hyperlink ref="G72" r:id="rId88" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{9859081D-98A9-40F9-B11E-72C997F7DF64}"/>
+    <hyperlink ref="E73" r:id="rId89" display="https://www.onelook.com/?loc=pub&amp;w=give" xr:uid="{E18526E3-B23C-46C1-B24F-B8D90ECC3CB1}"/>
+    <hyperlink ref="E74" r:id="rId90" display="https://www.onelook.com/?loc=pub&amp;w=go" xr:uid="{94D49884-C9B7-445C-A1D2-FCC4B36EAA13}"/>
+    <hyperlink ref="E75" r:id="rId91" display="https://www.onelook.com/?loc=pub&amp;w=grind" xr:uid="{4ABFCCE3-737E-4269-9FA8-6CC9132DC770}"/>
+    <hyperlink ref="E76" r:id="rId92" display="https://www.onelook.com/?loc=pub&amp;w=grow" xr:uid="{3478B3EC-7942-4CEE-A574-A76DDBB041C4}"/>
+    <hyperlink ref="E77" r:id="rId93" display="https://www.onelook.com/?loc=pub&amp;w=hand-feed" xr:uid="{5BEF5C51-D2A7-4B80-A94B-2A682E766E5A}"/>
+    <hyperlink ref="E78" r:id="rId94" display="https://www.onelook.com/?loc=pub&amp;w=handwrite" xr:uid="{D8F714BE-5A4C-4DAA-85BC-CD3757ECCAC8}"/>
+    <hyperlink ref="E79" r:id="rId95" display="https://www.onelook.com/?loc=pub&amp;w=hang" xr:uid="{C9A9C925-C9CF-45C0-8567-9C43FF6C74A2}"/>
+    <hyperlink ref="E80" r:id="rId96" display="https://www.onelook.com/?loc=pub&amp;w=have" xr:uid="{C4DCE69E-3726-48D6-9349-D1E7E78A2379}"/>
+    <hyperlink ref="E81" r:id="rId97" display="https://www.onelook.com/?loc=pub&amp;w=hear" xr:uid="{A2D0D680-1863-4269-AC3D-898887B05A3F}"/>
+    <hyperlink ref="E82" r:id="rId98" display="https://www.onelook.com/?loc=pub&amp;w=hew" xr:uid="{EC1DAEC2-0C9E-4ECB-BAA6-529257859D87}"/>
+    <hyperlink ref="E83" r:id="rId99" display="https://www.onelook.com/?loc=pub&amp;w=hide" xr:uid="{42535881-9AAB-4723-B960-8FB7C8A4E3C8}"/>
+    <hyperlink ref="E84" r:id="rId100" display="https://www.onelook.com/?loc=pub&amp;w=hit" xr:uid="{877CBDE7-6D6D-40EB-936F-4EC14E3CF423}"/>
+    <hyperlink ref="E85" r:id="rId101" display="https://www.onelook.com/?loc=pub&amp;w=hold" xr:uid="{FBBE3B8E-8A25-436F-BC57-2E31141B8335}"/>
+    <hyperlink ref="E86" r:id="rId102" display="https://www.onelook.com/?loc=pub&amp;w=hurt" xr:uid="{65295E7C-9986-4F5D-951B-C1F4CD5FE293}"/>
+    <hyperlink ref="E87" r:id="rId103" display="https://www.onelook.com/?loc=pub&amp;w=inbreed" xr:uid="{C7D11A37-9D97-4F9B-B719-AD352DF64CDD}"/>
+    <hyperlink ref="E88" r:id="rId104" display="https://www.onelook.com/?loc=pub&amp;w=inlay" xr:uid="{4523EA74-DC0E-4335-92FF-856EA821B289}"/>
+    <hyperlink ref="E89" r:id="rId105" display="https://www.onelook.com/?loc=pub&amp;w=input" xr:uid="{D8D47821-30C8-479B-B288-F4ED1A1264FB}"/>
+    <hyperlink ref="E90" r:id="rId106" display="https://www.onelook.com/?loc=pub&amp;w=interbreed" xr:uid="{82E993CD-7271-43E6-A626-643E4A3C5D0D}"/>
+    <hyperlink ref="E91" r:id="rId107" display="https://www.onelook.com/?loc=pub&amp;w=interweave" xr:uid="{350FDAD2-AB33-4B2B-B62E-130779262A2C}"/>
+    <hyperlink ref="E92" r:id="rId108" display="https://www.onelook.com/?loc=pub&amp;w=interwind" xr:uid="{AEADCBC6-752F-4523-82A8-981DED6DF754}"/>
+    <hyperlink ref="E93" r:id="rId109" display="https://www.onelook.com/?loc=pub&amp;w=jerry-build" xr:uid="{6FF4BBF0-D4F6-4ACE-8B12-072171F5D775}"/>
+    <hyperlink ref="E94" r:id="rId110" display="https://www.onelook.com/?loc=pub&amp;w=keep" xr:uid="{8F801120-AB97-4BD0-ACFE-F4B6241A9FA1}"/>
+    <hyperlink ref="E95" r:id="rId111" display="https://www.onelook.com/?loc=pub&amp;w=kneel" xr:uid="{5A8B4156-8DAC-4DCF-8380-75ABC85757EC}"/>
+    <hyperlink ref="E96" r:id="rId112" display="https://www.onelook.com/?loc=pub&amp;w=knit" xr:uid="{E857FC22-9994-4B2B-900C-1E1B2571E16E}"/>
+    <hyperlink ref="E97" r:id="rId113" display="https://www.onelook.com/?loc=pub&amp;w=know" xr:uid="{58886B42-2E54-42BC-84C8-B9E722988F29}"/>
+    <hyperlink ref="E98" r:id="rId114" display="https://www.onelook.com/?loc=pub&amp;w=lay" xr:uid="{0411FAAE-D4C3-4B76-AB52-64B77E63D6DD}"/>
+    <hyperlink ref="E99" r:id="rId115" display="https://www.onelook.com/?loc=pub&amp;w=lead" xr:uid="{12ACD616-E56A-47FD-81D7-9AE940206C83}"/>
+    <hyperlink ref="E100" r:id="rId116" display="https://www.onelook.com/?loc=pub&amp;w=lean" xr:uid="{D407600E-302B-4C0D-B011-B004804C08F5}"/>
+    <hyperlink ref="F100" r:id="rId117" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{6608F589-EAB2-4062-A869-821C49F9F753}"/>
+    <hyperlink ref="G100" r:id="rId118" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{A118176C-0FDF-4099-AFE4-D42ABA1A7B2C}"/>
+    <hyperlink ref="E101" r:id="rId119" display="https://www.onelook.com/?loc=pub&amp;w=leap" xr:uid="{B2AF0E52-4B8A-479A-8F89-61DAC5B06F3F}"/>
+    <hyperlink ref="F101" r:id="rId120" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{A8A8DE4D-4747-423D-A536-62291DED1B3C}"/>
+    <hyperlink ref="G101" r:id="rId121" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{3E2FD33C-B02A-4B6C-AF55-114D0F8FEE85}"/>
+    <hyperlink ref="E102" r:id="rId122" display="https://www.onelook.com/?loc=pub&amp;w=learn" xr:uid="{63CD1D5D-11A4-4BD8-AC7D-7FD066E4AF62}"/>
+    <hyperlink ref="F102" r:id="rId123" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{AD128603-F18E-4D2E-B9E2-6D87027F9C6D}"/>
+    <hyperlink ref="G102" r:id="rId124" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{09DABC99-CE0B-4BF7-9C3A-FD166F9E58F7}"/>
+    <hyperlink ref="E103" r:id="rId125" display="https://www.onelook.com/?loc=pub&amp;w=leave" xr:uid="{CEA7040B-D645-43DD-93A2-0492C9C2D376}"/>
+    <hyperlink ref="E104" r:id="rId126" display="https://www.onelook.com/?loc=pub&amp;w=lend" xr:uid="{0E42C3B0-FC56-496A-9A9A-9588928CDAFC}"/>
+    <hyperlink ref="E105" r:id="rId127" display="https://www.onelook.com/?loc=pub&amp;w=let" xr:uid="{92FAFFFF-8A7D-45D8-B942-6AA7CA75E9CC}"/>
+    <hyperlink ref="E106" r:id="rId128" display="https://www.onelook.com/?loc=pub&amp;w=lie" xr:uid="{008936B5-B58C-481F-A0A1-BA976200A2FF}"/>
+    <hyperlink ref="E107" r:id="rId129" display="https://www.onelook.com/?loc=pub&amp;w=lie" xr:uid="{5ACCBDE7-53AA-4929-A24E-DA2445840492}"/>
+    <hyperlink ref="E108" r:id="rId130" display="https://www.onelook.com/?loc=pub&amp;w=light" xr:uid="{14EF5FA2-1CEB-4723-92A0-6ABD4B5219AF}"/>
+    <hyperlink ref="E109" r:id="rId131" display="https://www.onelook.com/?loc=pub&amp;w=lip-read" xr:uid="{CC4EA7C0-DC13-4E91-8F0A-0CA10BB5D763}"/>
+    <hyperlink ref="E110" r:id="rId132" display="https://www.onelook.com/?loc=pub&amp;w=lose" xr:uid="{7265DBF7-ED47-49D4-860C-B1054A07284E}"/>
+    <hyperlink ref="E111" r:id="rId133" display="https://www.onelook.com/?loc=pub&amp;w=make" xr:uid="{02F3627F-04BE-48CA-A142-CC52647D78F2}"/>
+    <hyperlink ref="E112" r:id="rId134" display="https://www.onelook.com/?loc=pub&amp;w=mean" xr:uid="{DA6C0DF3-73A6-4B30-AD3A-D182441123D8}"/>
+    <hyperlink ref="E113" r:id="rId135" display="https://www.onelook.com/?loc=pub&amp;w=meet" xr:uid="{D30C5CA0-1D4A-47E6-B994-DEB4681F47AE}"/>
+    <hyperlink ref="E114" r:id="rId136" display="https://www.onelook.com/?loc=pub&amp;w=miscast" xr:uid="{274CF6FD-7DDD-46E7-AE96-2A2261B31FF2}"/>
+    <hyperlink ref="E115" r:id="rId137" display="https://www.onelook.com/?loc=pub&amp;w=misdeal" xr:uid="{1B716024-8429-470B-ABFA-0B0661DF50B3}"/>
+    <hyperlink ref="E116" r:id="rId138" display="https://www.onelook.com/?loc=pub&amp;w=misdo" xr:uid="{A3700B50-FE7A-4048-8324-E9EF7B355469}"/>
+    <hyperlink ref="E117" r:id="rId139" display="https://www.onelook.com/?loc=pub&amp;w=mishear" xr:uid="{71F099C7-9A37-4B57-BE37-6F1CE8D4E48A}"/>
+    <hyperlink ref="E118" r:id="rId140" display="https://www.onelook.com/?loc=pub&amp;w=mislay" xr:uid="{81390497-D963-4EA5-8BEE-CFBF79AF076F}"/>
+    <hyperlink ref="E119" r:id="rId141" display="https://www.onelook.com/?loc=pub&amp;w=mislead" xr:uid="{7E9A9698-AC5D-4E62-8754-99413DA3BD63}"/>
+    <hyperlink ref="E120" r:id="rId142" display="https://www.onelook.com/?loc=pub&amp;w=mislearn" xr:uid="{8E328143-6AAA-4BE9-84B5-8469948F21EA}"/>
+    <hyperlink ref="F120" r:id="rId143" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{75D1895B-86B3-466D-A600-3EA5C8B11DDC}"/>
+    <hyperlink ref="G120" r:id="rId144" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{55BE5099-6C1F-427B-A26B-FB9BC8229D52}"/>
+    <hyperlink ref="E121" r:id="rId145" display="https://www.onelook.com/?loc=pub&amp;w=misread" xr:uid="{E2F91EC0-A278-481E-B80D-ED7A74BE309F}"/>
+    <hyperlink ref="E122" r:id="rId146" display="https://www.onelook.com/?loc=pub&amp;w=misset" xr:uid="{E64F7E77-0ACD-47C5-B95D-BA472C1D235C}"/>
+    <hyperlink ref="E123" r:id="rId147" display="https://www.onelook.com/?loc=pub&amp;w=misspeak" xr:uid="{9E2FA496-F5D3-4CEF-B390-1876B6ECE75B}"/>
+    <hyperlink ref="E124" r:id="rId148" display="https://www.onelook.com/?loc=pub&amp;w=misspell" xr:uid="{D2DFA9CF-3A2E-4580-8135-861A936B2CB6}"/>
+    <hyperlink ref="F124" r:id="rId149" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{B46EF978-40CF-499E-BA93-C88035043CCD}"/>
+    <hyperlink ref="G124" r:id="rId150" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{6669D59A-84DB-4624-8D3E-7F55BBBC1168}"/>
+    <hyperlink ref="E125" r:id="rId151" display="https://www.onelook.com/?loc=pub&amp;w=misspend" xr:uid="{7B3ACE59-32AE-4920-9927-D67E432BE659}"/>
+    <hyperlink ref="E126" r:id="rId152" display="https://www.onelook.com/?loc=pub&amp;w=mistake" xr:uid="{22B14693-D73B-42A9-A773-1993AF97553F}"/>
+    <hyperlink ref="E127" r:id="rId153" display="https://www.onelook.com/?loc=pub&amp;w=misteach" xr:uid="{4EFB1D44-13DA-4061-8554-76B949EBA5B9}"/>
+    <hyperlink ref="E128" r:id="rId154" display="https://www.onelook.com/?loc=pub&amp;w=misunderstand" xr:uid="{DE16A3C6-1A6C-4412-87D8-9D1687513BA7}"/>
+    <hyperlink ref="E129" r:id="rId155" display="https://www.onelook.com/?loc=pub&amp;w=miswrite" xr:uid="{86C6A0E5-EC0E-4E8C-8F5A-FD9E4956BD96}"/>
+    <hyperlink ref="E130" r:id="rId156" display="https://www.onelook.com/?loc=pub&amp;w=mow" xr:uid="{5DCAC3A8-C081-4F51-B049-54A2467AA68C}"/>
+    <hyperlink ref="E131" r:id="rId157" display="https://www.onelook.com/?loc=pub&amp;w=offset" xr:uid="{C8060D72-07E8-4D5B-B220-A49AF1877612}"/>
+    <hyperlink ref="E132" r:id="rId158" display="https://www.onelook.com/?loc=pub&amp;w=outbid" xr:uid="{6EB9DF82-BBE0-4AD3-8BB1-EEFA4EFF819C}"/>
+    <hyperlink ref="E133" r:id="rId159" display="https://www.onelook.com/?loc=pub&amp;w=outbreed" xr:uid="{969A0EFB-CFD8-4866-A102-57108FB3075E}"/>
+    <hyperlink ref="E134" r:id="rId160" display="https://www.onelook.com/?loc=pub&amp;w=outdo" xr:uid="{F1292698-6222-4486-9F03-5B5F5FF1FE98}"/>
+    <hyperlink ref="E135" r:id="rId161" display="https://www.onelook.com/?loc=pub&amp;w=outdraw" xr:uid="{3050A47B-480E-4541-85FB-5A8BF4B1DFCE}"/>
+    <hyperlink ref="E136" r:id="rId162" display="https://www.onelook.com/?loc=pub&amp;w=outdrink" xr:uid="{D375DD9B-E6E1-4A79-8A96-C3C509F54839}"/>
+    <hyperlink ref="E137" r:id="rId163" display="https://www.onelook.com/?loc=pub&amp;w=outdrive" xr:uid="{E28AF1AD-A84B-42CC-951D-9995E51FEFCB}"/>
+    <hyperlink ref="E138" r:id="rId164" display="https://www.onelook.com/?loc=pub&amp;w=outfight" xr:uid="{0440BBEA-BC74-4F9F-9BAE-2ADAE0FE504A}"/>
+    <hyperlink ref="E139" r:id="rId165" display="https://www.onelook.com/?loc=pub&amp;w=outfly" xr:uid="{67FDAA6D-630C-45E4-8CA1-0AC91FEBE641}"/>
+    <hyperlink ref="E140" r:id="rId166" display="https://www.onelook.com/?loc=pub&amp;w=outgrow" xr:uid="{26038D81-611D-4DD7-A307-B81AC170570D}"/>
+    <hyperlink ref="E141" r:id="rId167" display="https://www.onelook.com/?loc=pub&amp;w=outleap" xr:uid="{CEAEDCB1-6A31-4D7B-A627-B75353E6F688}"/>
+    <hyperlink ref="F141" r:id="rId168" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{35EBA028-D0D4-496B-8F20-5BACE4625428}"/>
+    <hyperlink ref="G141" r:id="rId169" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{EBDE442D-32CD-48E4-A932-FAFCA7199D8C}"/>
+    <hyperlink ref="E142" r:id="rId170" display="https://www.onelook.com/?loc=pub&amp;w=outlie" xr:uid="{99EFACE2-E9B5-4CF4-87F0-DAC309527717}"/>
+    <hyperlink ref="E143" r:id="rId171" display="https://www.onelook.com/?loc=pub&amp;w=outride" xr:uid="{E8B2399E-8A4C-40D9-B309-AA9E39AF896D}"/>
+    <hyperlink ref="E144" r:id="rId172" display="https://www.onelook.com/?loc=pub&amp;w=outrun" xr:uid="{105E3FCA-EBEF-4E21-8171-722020D76626}"/>
+    <hyperlink ref="E145" r:id="rId173" display="https://www.onelook.com/?loc=pub&amp;w=outsell" xr:uid="{D17819DA-CADC-4114-A4B4-BD05B6E9FFDE}"/>
+    <hyperlink ref="E146" r:id="rId174" display="https://www.onelook.com/?loc=pub&amp;w=outshine" xr:uid="{CD3306E8-CD30-4742-A90A-B8D978C4D388}"/>
+    <hyperlink ref="F146" r:id="rId175" location="8" display="https://www.englishpage.com/irregularverbs/info.html - 8" xr:uid="{4F35E632-D4B4-4B25-A84C-6F84203E148D}"/>
+    <hyperlink ref="G146" r:id="rId176" location="8" display="https://www.englishpage.com/irregularverbs/info.html - 8" xr:uid="{435D7096-E51E-41F9-B5D3-D0A4AB4538F4}"/>
+    <hyperlink ref="E147" r:id="rId177" display="https://www.onelook.com/?loc=pub&amp;w=outshoot" xr:uid="{2FE8C3B2-8AF3-47D6-B4C8-CEFFF7684950}"/>
+    <hyperlink ref="E148" r:id="rId178" display="https://www.onelook.com/?loc=pub&amp;w=outsing" xr:uid="{44BF33C9-C268-4B73-9AE3-44EDE908C792}"/>
+    <hyperlink ref="E149" r:id="rId179" display="https://www.onelook.com/?loc=pub&amp;w=outsit" xr:uid="{EFF297C0-C86B-4F35-9E45-E503B5521B02}"/>
+    <hyperlink ref="E150" r:id="rId180" display="https://www.onelook.com/?loc=pub&amp;w=outsleep" xr:uid="{9F45CFB5-2C0A-444E-A6B7-E8A1AE42FA02}"/>
+    <hyperlink ref="E151" r:id="rId181" display="https://www.onelook.com/?loc=pub&amp;w=outsmell" xr:uid="{F9C237FD-7EBA-4AC7-8007-9FDEE68CEE3A}"/>
+    <hyperlink ref="F151" r:id="rId182" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{93F96772-8625-486C-A69C-3F936B5DC436}"/>
+    <hyperlink ref="G151" r:id="rId183" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{C70DA052-1CE4-44EA-9223-C88144C7C1BB}"/>
+    <hyperlink ref="E152" r:id="rId184" display="https://www.onelook.com/?loc=pub&amp;w=outspeak" xr:uid="{B416D6B9-C5D3-41E6-B3D1-496DC2BBFCC8}"/>
+    <hyperlink ref="E153" r:id="rId185" display="https://www.onelook.com/?loc=pub&amp;w=outspeed" xr:uid="{35B9BFC1-90AE-4D2C-A645-9C3C514B3D65}"/>
+    <hyperlink ref="E154" r:id="rId186" display="https://www.onelook.com/?loc=pub&amp;w=outspend" xr:uid="{BCDFA8BB-680E-4D6A-A993-548898F8A67C}"/>
+    <hyperlink ref="E155" r:id="rId187" display="https://www.onelook.com/?loc=pub&amp;w=outswear" xr:uid="{BCA97EE3-A5CC-4539-B3AD-A79AFB05F6E9}"/>
+    <hyperlink ref="E156" r:id="rId188" display="https://www.onelook.com/?loc=pub&amp;w=outswim" xr:uid="{C5B7525C-10C8-4B43-BB5A-9B116DB55EEC}"/>
+    <hyperlink ref="E157" r:id="rId189" display="https://www.onelook.com/?loc=pub&amp;w=outthink" xr:uid="{39DCC715-AD0B-4D7F-B6F9-5309180C3CAC}"/>
+    <hyperlink ref="E158" r:id="rId190" display="https://www.onelook.com/?loc=pub&amp;w=outthrow" xr:uid="{B31A71FB-3931-42EA-8F96-8325F9F3AACE}"/>
+    <hyperlink ref="E159" r:id="rId191" display="https://www.onelook.com/?loc=pub&amp;w=outwrite" xr:uid="{1C149D45-C789-4E53-B42E-045D4E60FD78}"/>
+    <hyperlink ref="E160" r:id="rId192" display="https://www.onelook.com/?loc=pub&amp;w=overbid" xr:uid="{2BE710BA-BD4E-45D5-9D07-389E5AA4BA47}"/>
+    <hyperlink ref="E161" r:id="rId193" display="https://www.onelook.com/?loc=pub&amp;w=overbreed" xr:uid="{FD73787B-1679-44EB-8581-DF8D96E8D232}"/>
+    <hyperlink ref="E162" r:id="rId194" display="https://www.onelook.com/?loc=pub&amp;w=overbuild" xr:uid="{644D8285-8B50-44BE-8609-8BCCFB51D0CC}"/>
+    <hyperlink ref="E163" r:id="rId195" display="https://www.onelook.com/?loc=pub&amp;w=overbuy" xr:uid="{A2B84FF2-B655-4C24-8688-86166E31CA3C}"/>
+    <hyperlink ref="E164" r:id="rId196" display="https://www.onelook.com/?loc=pub&amp;w=overcome" xr:uid="{9456C285-BC29-4DAF-AE27-06A92EE651A1}"/>
+    <hyperlink ref="E165" r:id="rId197" display="https://www.onelook.com/?loc=pub&amp;w=overdo" xr:uid="{6D40F613-A4FF-47E7-8B6A-428F874F0C6A}"/>
+    <hyperlink ref="E166" r:id="rId198" display="https://www.onelook.com/?loc=pub&amp;w=overdraw" xr:uid="{60BF2D8B-97F9-4045-90B7-60B5E2090409}"/>
+    <hyperlink ref="E167" r:id="rId199" display="https://www.onelook.com/?loc=pub&amp;w=overdrink" xr:uid="{093E0235-BACC-447F-9868-DF38770AA8AB}"/>
+    <hyperlink ref="E168" r:id="rId200" display="https://www.onelook.com/?loc=pub&amp;w=overeat" xr:uid="{B4453DC6-B3F2-4171-BFA2-D3A34F74C464}"/>
+    <hyperlink ref="E169" r:id="rId201" display="https://www.onelook.com/?loc=pub&amp;w=overfeed" xr:uid="{A031EDCB-8C37-415B-9D02-9E6C4428217D}"/>
+    <hyperlink ref="E170" r:id="rId202" display="https://www.onelook.com/?loc=pub&amp;w=overhang" xr:uid="{2E1A6682-1CD0-4772-9C1C-229013593284}"/>
+    <hyperlink ref="E171" r:id="rId203" display="https://www.onelook.com/?loc=pub&amp;w=overhear" xr:uid="{61F08805-96E8-4A57-B624-C02AE6CB659A}"/>
+    <hyperlink ref="E172" r:id="rId204" display="https://www.onelook.com/?loc=pub&amp;w=overlay" xr:uid="{7E439D8A-1FBD-43E0-AA24-80FD2BBE21AE}"/>
+    <hyperlink ref="E173" r:id="rId205" display="https://www.onelook.com/?loc=pub&amp;w=overpay" xr:uid="{356D6C74-90B7-4796-B672-21D4EC14DD3E}"/>
+    <hyperlink ref="E174" r:id="rId206" display="https://www.onelook.com/?loc=pub&amp;w=override" xr:uid="{9206453D-88CD-4709-9231-CD00ECE0F639}"/>
+    <hyperlink ref="E175" r:id="rId207" display="https://www.onelook.com/?loc=pub&amp;w=overrun" xr:uid="{5E109992-8DA6-4B83-B400-82765CAE1633}"/>
+    <hyperlink ref="E176" r:id="rId208" display="https://www.onelook.com/?loc=pub&amp;w=oversee" xr:uid="{16DB5A72-22F4-4C84-BE0B-9A6F75678E31}"/>
+    <hyperlink ref="E177" r:id="rId209" display="https://www.onelook.com/?loc=pub&amp;w=oversell" xr:uid="{CC423737-E4E0-4B10-B508-3C810197546C}"/>
+    <hyperlink ref="E178" r:id="rId210" display="https://www.onelook.com/?loc=pub&amp;w=oversew" xr:uid="{52111B6A-31FF-4073-B7AC-C3CFF0EEBCB7}"/>
+    <hyperlink ref="E179" r:id="rId211" display="https://www.onelook.com/?loc=pub&amp;w=overshoot" xr:uid="{066128C2-4511-46B2-981A-6EBCAE554753}"/>
+    <hyperlink ref="E180" r:id="rId212" display="https://www.onelook.com/?loc=pub&amp;w=oversleep" xr:uid="{07254444-8A2C-49BC-B92A-D4E8E02EB05B}"/>
+    <hyperlink ref="E181" r:id="rId213" display="https://www.onelook.com/?loc=pub&amp;w=overspeak" xr:uid="{29E88102-8573-4547-A216-B49C88522372}"/>
+    <hyperlink ref="E182" r:id="rId214" display="https://www.onelook.com/?loc=pub&amp;w=overspend" xr:uid="{9B72FD99-91B5-4962-8882-42617055F3DE}"/>
+    <hyperlink ref="E183" r:id="rId215" display="https://www.onelook.com/?loc=pub&amp;w=overspill" xr:uid="{F012622C-4AFA-4562-ADA6-16B68D262CFF}"/>
+    <hyperlink ref="F183" r:id="rId216" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{B19047C5-CDF1-4A3F-B5D7-214CB4989587}"/>
+    <hyperlink ref="G183" r:id="rId217" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{6EFF2655-D5DB-432A-B7E4-98BCD81245BA}"/>
+    <hyperlink ref="E184" r:id="rId218" display="https://www.onelook.com/?loc=pub&amp;w=overtake" xr:uid="{631512EE-1189-4D7D-A3FD-0D3B7407FB95}"/>
+    <hyperlink ref="E185" r:id="rId219" display="https://www.onelook.com/?loc=pub&amp;w=overthink" xr:uid="{E3054474-2B61-4079-9623-F02A10C5D7BC}"/>
+    <hyperlink ref="E186" r:id="rId220" display="https://www.onelook.com/?loc=pub&amp;w=overthrow" xr:uid="{6E3B4FCB-11A1-4546-AF8D-0FE64CFE4653}"/>
+    <hyperlink ref="E187" r:id="rId221" display="https://www.onelook.com/?loc=pub&amp;w=overwind" xr:uid="{A039848D-D989-4AF0-B235-9B115FE23091}"/>
+    <hyperlink ref="E188" r:id="rId222" display="https://www.onelook.com/?loc=pub&amp;w=overwrite" xr:uid="{F07EFDDD-992C-46E3-B075-A864723A81F0}"/>
+    <hyperlink ref="E189" r:id="rId223" display="https://www.onelook.com/?loc=pub&amp;w=partake" xr:uid="{791CE159-6AF3-4CF0-BB6A-EB3EFD0A4363}"/>
+    <hyperlink ref="E190" r:id="rId224" display="https://www.onelook.com/?loc=pub&amp;w=pay" xr:uid="{6EFF276B-6692-400C-9685-9693EB681AB6}"/>
+    <hyperlink ref="E191" r:id="rId225" display="https://www.onelook.com/?loc=pub&amp;w=plead" xr:uid="{20574B9D-A079-404A-A7EA-E1CEA7356CE8}"/>
+    <hyperlink ref="E192" r:id="rId226" display="https://www.onelook.com/?loc=pub&amp;w=prebuild" xr:uid="{DDE0FD52-F7D0-4D91-AC0E-19E9937C4FEE}"/>
+    <hyperlink ref="E193" r:id="rId227" display="https://www.onelook.com/?loc=pub&amp;w=predo" xr:uid="{F66991FB-CDE1-4CF4-B9B1-37B36A2A000F}"/>
+    <hyperlink ref="E194" r:id="rId228" display="https://www.onelook.com/?loc=pub&amp;w=premake" xr:uid="{1628B5C9-4738-408E-84D8-7A5B3EB0F19F}"/>
+    <hyperlink ref="E195" r:id="rId229" display="https://www.onelook.com/?loc=pub&amp;w=prepay" xr:uid="{7E66C836-7330-4B68-8D7E-A954456033C1}"/>
+    <hyperlink ref="E196" r:id="rId230" display="https://www.onelook.com/?loc=pub&amp;w=presell" xr:uid="{B158C456-CEF0-48A7-B0E8-2EC56053B92E}"/>
+    <hyperlink ref="E197" r:id="rId231" display="https://www.onelook.com/?loc=pub&amp;w=preset" xr:uid="{D0468D1A-5B6F-42AA-9E64-A60922F5DEBE}"/>
+    <hyperlink ref="E198" r:id="rId232" display="https://www.onelook.com/?loc=pub&amp;w=preshrink" xr:uid="{1F47211F-BB2D-4F36-87BB-4C140F0BD49E}"/>
+    <hyperlink ref="E199" r:id="rId233" display="https://www.onelook.com/?loc=pub&amp;w=proofread" xr:uid="{3E471335-A234-48D8-9402-E4A410EAD9F9}"/>
+    <hyperlink ref="E200" r:id="rId234" display="https://www.onelook.com/?loc=pub&amp;w=prove" xr:uid="{E7F434B1-BE93-4A71-B49A-05396D3F0FB5}"/>
+    <hyperlink ref="E201" r:id="rId235" display="https://www.onelook.com/?loc=pub&amp;w=put" xr:uid="{428D97BE-6A60-43C9-88C0-525AFDD5F9F0}"/>
+    <hyperlink ref="E202" r:id="rId236" display="https://www.onelook.com/?loc=pub&amp;w=quick-freeze" xr:uid="{15E67FF2-1D4C-4B43-ABC2-82786F27BBEF}"/>
+    <hyperlink ref="E203" r:id="rId237" display="https://www.onelook.com/?loc=pub&amp;w=quit" xr:uid="{9D745656-F4EF-48CB-9413-2D3E632E492E}"/>
+    <hyperlink ref="F203" r:id="rId238" location="5" display="https://www.englishpage.com/irregularverbs/info.html - 5" xr:uid="{6E4D669E-534F-485A-926C-3C902036F1E8}"/>
+    <hyperlink ref="G203" r:id="rId239" location="5" display="https://www.englishpage.com/irregularverbs/info.html - 5" xr:uid="{71E5F9AA-F4E9-4FB6-965E-EF75A04272B6}"/>
+    <hyperlink ref="E204" r:id="rId240" display="https://www.onelook.com/?loc=pub&amp;w=read" xr:uid="{5C672F0D-4180-4B44-B970-93E422A71D7B}"/>
+    <hyperlink ref="E205" r:id="rId241" display="https://www.onelook.com/?loc=pub&amp;w=reawake" xr:uid="{BF94599B-AB62-4C26-8BEE-868915B25F44}"/>
+    <hyperlink ref="E206" r:id="rId242" display="https://www.onelook.com/?loc=pub&amp;w=rebid" xr:uid="{17696284-056C-46B3-9D9E-696545C823C0}"/>
+    <hyperlink ref="E207" r:id="rId243" display="https://www.onelook.com/?loc=pub&amp;w=rebind" xr:uid="{96F14478-EC34-4E6E-81A0-1AC11D5D19FC}"/>
+    <hyperlink ref="E208" r:id="rId244" display="https://www.onelook.com/?loc=pub&amp;w=rebroadcast" xr:uid="{F78FFD9E-ACAD-4EBC-9A19-91BDF345E366}"/>
+    <hyperlink ref="E209" r:id="rId245" display="https://www.onelook.com/?loc=pub&amp;w=rebuild" xr:uid="{F9D7B34E-4C8D-4325-AFB4-3F6FD0460261}"/>
+    <hyperlink ref="E210" r:id="rId246" display="https://www.onelook.com/?loc=pub&amp;w=recast" xr:uid="{8A3FAF47-C016-490D-BE80-83510612B89D}"/>
+    <hyperlink ref="E211" r:id="rId247" display="https://www.onelook.com/?loc=pub&amp;w=recut" xr:uid="{05485F59-0AF1-4B05-818F-352DC0A0240E}"/>
+    <hyperlink ref="E212" r:id="rId248" display="https://www.onelook.com/?loc=pub&amp;w=redeal" xr:uid="{2EC65C1F-0182-4C68-AEDC-7EA0C193F1BC}"/>
+    <hyperlink ref="E213" r:id="rId249" display="https://www.onelook.com/?loc=pub&amp;w=redo" xr:uid="{0BF7F948-2189-4B3B-AEBC-AE1855349148}"/>
+    <hyperlink ref="E214" r:id="rId250" display="https://www.onelook.com/?loc=pub&amp;w=redraw" xr:uid="{6C6572AE-1A92-489D-8356-B4ECE0ED1C1E}"/>
+    <hyperlink ref="E215" r:id="rId251" display="https://www.onelook.com/?loc=pub&amp;w=refit" xr:uid="{07A48051-2298-4060-8E4B-894092C2B2C8}"/>
+    <hyperlink ref="F215" r:id="rId252" location="7" display="https://www.englishpage.com/irregularverbs/info.html - 7" xr:uid="{F9E67B14-BEC9-46F4-9056-7801BF54C9FE}"/>
+    <hyperlink ref="G215" r:id="rId253" location="7" display="https://www.englishpage.com/irregularverbs/info.html - 7" xr:uid="{63DC0D72-BB28-46E5-BE87-0CFC9020FA6C}"/>
+    <hyperlink ref="E216" r:id="rId254" display="https://www.onelook.com/?loc=pub&amp;w=refit" xr:uid="{236A1E7E-EF2B-4360-BCB5-EDA5A01FC247}"/>
+    <hyperlink ref="F216" r:id="rId255" location="7" display="https://www.englishpage.com/irregularverbs/info.html - 7" xr:uid="{04A9943A-A50B-4370-94ED-0284FE9AA33F}"/>
+    <hyperlink ref="G216" r:id="rId256" location="7" display="https://www.englishpage.com/irregularverbs/info.html - 7" xr:uid="{429B1D73-4886-4D1F-80F6-97432F1E0322}"/>
+    <hyperlink ref="E217" r:id="rId257" display="https://www.onelook.com/?loc=pub&amp;w=regrind" xr:uid="{AC4D03FB-2F6F-406C-9682-E59D9DF872B6}"/>
+    <hyperlink ref="E218" r:id="rId258" display="https://www.onelook.com/?loc=pub&amp;w=regrow" xr:uid="{F2E2DD6A-5C5E-4023-B364-846D3C5C23D2}"/>
+    <hyperlink ref="E219" r:id="rId259" display="https://www.onelook.com/?loc=pub&amp;w=rehang" xr:uid="{3F6B1827-BF10-42D1-A0A1-7BB85DA97264}"/>
+    <hyperlink ref="E220" r:id="rId260" display="https://www.onelook.com/?loc=pub&amp;w=rehear" xr:uid="{503CCC27-1BF9-4D1A-AD2D-7836163989E9}"/>
+    <hyperlink ref="E221" r:id="rId261" display="https://www.onelook.com/?loc=pub&amp;w=reknit" xr:uid="{29215EC0-3ACA-44C7-B770-A0A36FB70516}"/>
+    <hyperlink ref="E222" r:id="rId262" display="https://www.onelook.com/?loc=pub&amp;w=relay" xr:uid="{8D140CFF-A0DA-438C-A322-5711F09D3477}"/>
+    <hyperlink ref="E223" r:id="rId263" display="https://www.onelook.com/?loc=pub&amp;w=relay" xr:uid="{7815C195-4254-4E84-85F2-057BC16C1FCB}"/>
+    <hyperlink ref="E224" r:id="rId264" display="https://www.onelook.com/?loc=pub&amp;w=relearn" xr:uid="{8F3924CF-DCCB-4B65-9074-521FD0164495}"/>
+    <hyperlink ref="F224" r:id="rId265" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{B8AD259E-5F53-46BC-9862-00956AD263A9}"/>
+    <hyperlink ref="G224" r:id="rId266" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{67414212-E412-43A2-AD31-44DA57BAB594}"/>
+    <hyperlink ref="E225" r:id="rId267" display="https://www.onelook.com/?loc=pub&amp;w=relight" xr:uid="{3403113B-1749-4564-91B0-93409D39A6ED}"/>
+    <hyperlink ref="E226" r:id="rId268" display="https://www.onelook.com/?loc=pub&amp;w=remake" xr:uid="{EF7A42F3-41D3-4F77-AC4F-68D3BD2169C3}"/>
+    <hyperlink ref="E227" r:id="rId269" display="https://www.onelook.com/?loc=pub&amp;w=repay" xr:uid="{FD191F52-48BE-41D6-B87B-1550B5E14515}"/>
+    <hyperlink ref="E228" r:id="rId270" display="https://www.onelook.com/?loc=pub&amp;w=reread" xr:uid="{88570623-7214-4FC2-A5D8-6E2BFCE3A83D}"/>
+    <hyperlink ref="E229" r:id="rId271" display="https://www.onelook.com/?loc=pub&amp;w=rerun" xr:uid="{8ECE68F6-BE89-49A0-890F-DE621FB0EA1E}"/>
+    <hyperlink ref="E230" r:id="rId272" display="https://www.onelook.com/?loc=pub&amp;w=resell" xr:uid="{23AFB88D-FB43-4708-976B-177D6298D500}"/>
+    <hyperlink ref="E231" r:id="rId273" display="https://www.onelook.com/?loc=pub&amp;w=resend" xr:uid="{36BCAED4-F848-4395-91FC-2CD2741CF381}"/>
+    <hyperlink ref="E232" r:id="rId274" display="https://www.onelook.com/?loc=pub&amp;w=reset" xr:uid="{F9AA194D-6ACD-4804-AF07-8BA4A564AD10}"/>
+    <hyperlink ref="E233" r:id="rId275" display="https://www.onelook.com/?loc=pub&amp;w=resew" xr:uid="{3754BC9B-A169-4DC9-8A96-6324A542E9F3}"/>
+    <hyperlink ref="E234" r:id="rId276" display="https://www.onelook.com/?loc=pub&amp;w=retake" xr:uid="{E1C9698A-66B3-4E70-8319-122F777D028F}"/>
+    <hyperlink ref="E235" r:id="rId277" display="https://www.onelook.com/?loc=pub&amp;w=reteach" xr:uid="{9D7ED83E-FE22-4161-BBE4-CEB66FE3F4A4}"/>
+    <hyperlink ref="E236" r:id="rId278" display="https://www.onelook.com/?loc=pub&amp;w=retear" xr:uid="{C884D87B-BA6E-4D5E-BC99-D6CC3EBFB043}"/>
+    <hyperlink ref="E237" r:id="rId279" display="https://www.onelook.com/?loc=pub&amp;w=retell" xr:uid="{6FC1B292-D170-4958-84D9-8BCB5F720492}"/>
+    <hyperlink ref="E238" r:id="rId280" display="https://www.onelook.com/?loc=pub&amp;w=rethink" xr:uid="{E3F328FC-EAC7-4853-8361-E1A6765A0184}"/>
+    <hyperlink ref="E239" r:id="rId281" display="https://www.onelook.com/?loc=pub&amp;w=retread" xr:uid="{2D9AF283-279C-4EB3-9455-0422100A248F}"/>
+    <hyperlink ref="E240" r:id="rId282" display="https://www.onelook.com/?loc=pub&amp;w=retrofit" xr:uid="{35AE98D2-8A30-4FB1-866B-5310DA87469A}"/>
+    <hyperlink ref="F240" r:id="rId283" location="7" display="https://www.englishpage.com/irregularverbs/info.html - 7" xr:uid="{538FDA67-34D1-4FD4-A744-C6B365705D83}"/>
+    <hyperlink ref="G240" r:id="rId284" location="7" display="https://www.englishpage.com/irregularverbs/info.html - 7" xr:uid="{06783F6D-75E8-427E-83D5-0498AFBE8F4C}"/>
+    <hyperlink ref="E241" r:id="rId285" display="https://www.onelook.com/?loc=pub&amp;w=rewake" xr:uid="{DA2F7A22-9B1B-4823-BD85-1E7A0D9ABC03}"/>
+    <hyperlink ref="E242" r:id="rId286" display="https://www.onelook.com/?loc=pub&amp;w=rewear" xr:uid="{12EC9F4D-DC46-43FE-9667-64DD4DE915A5}"/>
+    <hyperlink ref="E243" r:id="rId287" display="https://www.onelook.com/?loc=pub&amp;w=reweave" xr:uid="{0A889ABC-4499-4B81-9E17-EF21E65EC97C}"/>
+    <hyperlink ref="E244" r:id="rId288" display="https://www.onelook.com/?loc=pub&amp;w=rewed" xr:uid="{0E40F77A-FCB8-491A-B608-E5E8E59B8DC4}"/>
+    <hyperlink ref="E245" r:id="rId289" display="https://www.onelook.com/?loc=pub&amp;w=rewet" xr:uid="{08259FC0-DA04-454A-BAF0-4A4A00D7F6FC}"/>
+    <hyperlink ref="F245" r:id="rId290" location="5" display="https://www.englishpage.com/irregularverbs/info.html - 5" xr:uid="{2B427171-47AF-4D11-93A7-B4D5D1401844}"/>
+    <hyperlink ref="G245" r:id="rId291" location="5" display="https://www.englishpage.com/irregularverbs/info.html - 5" xr:uid="{48AE15C3-6C60-4489-96DF-26D2AFC622A9}"/>
+    <hyperlink ref="E246" r:id="rId292" display="https://www.onelook.com/?loc=pub&amp;w=rewin" xr:uid="{A6BFE9A7-6ABE-4D54-AF23-614794073960}"/>
+    <hyperlink ref="E247" r:id="rId293" display="https://www.onelook.com/?loc=pub&amp;w=rewind" xr:uid="{256012E2-A800-4A63-9510-C2E8B20EDF21}"/>
+    <hyperlink ref="E248" r:id="rId294" display="https://www.onelook.com/?loc=pub&amp;w=rewrite" xr:uid="{0375CF72-288B-494B-93D2-918519795C56}"/>
+    <hyperlink ref="E249" r:id="rId295" display="https://www.onelook.com/?loc=pub&amp;w=rid" xr:uid="{8240693A-B845-492C-8419-C566C58D4CE1}"/>
+    <hyperlink ref="E250" r:id="rId296" display="https://www.onelook.com/?loc=pub&amp;w=ride" xr:uid="{91F03E22-32EC-4C8E-9467-5E4D385E7076}"/>
+    <hyperlink ref="E251" r:id="rId297" display="https://www.onelook.com/?loc=pub&amp;w=ring" xr:uid="{E65DC75D-D77E-4D53-8498-669937B693D3}"/>
+    <hyperlink ref="E252" r:id="rId298" display="https://www.onelook.com/?loc=pub&amp;w=rise" xr:uid="{77AD92F6-A969-4A55-B633-AE2EBA2E74FF}"/>
+    <hyperlink ref="E253" r:id="rId299" display="https://www.onelook.com/?loc=pub&amp;w=roughcast" xr:uid="{1636BECC-5A76-44CF-9D5D-CDE1D0F4F617}"/>
+    <hyperlink ref="E254" r:id="rId300" display="https://www.onelook.com/?loc=pub&amp;w=run" xr:uid="{0A0E4961-1D3E-49BB-AF76-679DB23D4C40}"/>
+    <hyperlink ref="E255" r:id="rId301" display="https://www.onelook.com/?loc=pub&amp;w=sand-cast" xr:uid="{AC98A71E-9694-4284-B370-AC80ACFB16AF}"/>
+    <hyperlink ref="E256" r:id="rId302" display="https://www.onelook.com/?loc=pub&amp;w=saw" xr:uid="{73853B61-72C6-49E2-A1AF-31DEFE76D1DD}"/>
+    <hyperlink ref="E257" r:id="rId303" display="https://www.onelook.com/?loc=pub&amp;w=say" xr:uid="{74847674-CDF7-48E7-BAB6-76C4DF68B9FE}"/>
+    <hyperlink ref="E258" r:id="rId304" display="https://www.onelook.com/?loc=pub&amp;w=see" xr:uid="{37730FAC-A285-4BBE-BCC3-052706604A7A}"/>
+    <hyperlink ref="E259" r:id="rId305" display="https://www.onelook.com/?loc=pub&amp;w=seek" xr:uid="{BD4FF4DA-6D10-4C7E-B286-68DFF19527F5}"/>
+    <hyperlink ref="E260" r:id="rId306" display="https://www.onelook.com/?loc=pub&amp;w=sell" xr:uid="{E60A3FE7-2301-4C14-B2DB-AF1F625AEAB0}"/>
+    <hyperlink ref="E261" r:id="rId307" display="https://www.onelook.com/?loc=pub&amp;w=send" xr:uid="{B0D3FF6F-85BA-4AC9-992F-F5FCC334762D}"/>
+    <hyperlink ref="E262" r:id="rId308" display="https://www.onelook.com/?loc=pub&amp;w=set" xr:uid="{CE72E0D5-1AD0-4E96-B09F-52AD457CDA51}"/>
+    <hyperlink ref="E263" r:id="rId309" display="https://www.onelook.com/?loc=pub&amp;w=sew" xr:uid="{18F13CFB-E66F-4047-9A63-00FE07DB2936}"/>
+    <hyperlink ref="E264" r:id="rId310" display="https://www.onelook.com/?loc=pub&amp;w=shake" xr:uid="{2A6B8760-DCF2-4EFC-B511-495A6A68CBD0}"/>
+    <hyperlink ref="E265" r:id="rId311" display="https://www.onelook.com/?loc=pub&amp;w=shave" xr:uid="{D7E69B55-3E12-447C-BE3D-7A96ADF213EF}"/>
+    <hyperlink ref="E266" r:id="rId312" display="https://www.onelook.com/?loc=pub&amp;w=shear" xr:uid="{F913B121-6DED-4B2E-8AD5-F46CA76EA484}"/>
+    <hyperlink ref="E267" r:id="rId313" display="https://www.onelook.com/?loc=pub&amp;w=shed" xr:uid="{AFF6A2C2-99CC-4C8C-9F36-6D360935F9FB}"/>
+    <hyperlink ref="E268" r:id="rId314" display="https://www.onelook.com/?loc=pub&amp;w=shine" xr:uid="{9D847E6F-E24C-47D5-83CA-4D8AB95D2F02}"/>
+    <hyperlink ref="F268" r:id="rId315" location="8" display="https://www.englishpage.com/irregularverbs/info.html - 8" xr:uid="{54A7CC1D-9465-4C36-B043-FA9A6B9D94CF}"/>
+    <hyperlink ref="G268" r:id="rId316" location="8" display="https://www.englishpage.com/irregularverbs/info.html - 8" xr:uid="{93F74C20-8693-452A-932A-E7CF377F70C6}"/>
+    <hyperlink ref="E269" r:id="rId317" display="https://www.onelook.com/?loc=pub&amp;w=shit" xr:uid="{E5E79D9B-ECB0-45E5-8DF3-B2535925C17A}"/>
+    <hyperlink ref="E270" r:id="rId318" display="https://www.onelook.com/?loc=pub&amp;w=shoot" xr:uid="{12F78172-04CA-448E-8E54-059C2A84DA38}"/>
+    <hyperlink ref="E271" r:id="rId319" display="https://www.onelook.com/?loc=pub&amp;w=show" xr:uid="{A4C1A35A-5E34-42EA-AEFE-6872BE04BE65}"/>
+    <hyperlink ref="E272" r:id="rId320" display="https://www.onelook.com/?loc=pub&amp;w=shrink" xr:uid="{3B49F0CA-466F-455E-8597-913B710AFC6B}"/>
+    <hyperlink ref="E273" r:id="rId321" display="https://www.onelook.com/?loc=pub&amp;w=shut" xr:uid="{7EB69D0C-7233-4885-A76D-D8704A52952B}"/>
+    <hyperlink ref="E274" r:id="rId322" display="https://www.onelook.com/?loc=pub&amp;w=sight-read" xr:uid="{63D56857-246D-46BD-B38F-24B9FA9BFB8E}"/>
+    <hyperlink ref="E275" r:id="rId323" display="https://www.onelook.com/?loc=pub&amp;w=sing" xr:uid="{9A3C087C-D386-4E14-AF38-B302C32B3C43}"/>
+    <hyperlink ref="E276" r:id="rId324" display="https://www.onelook.com/?loc=pub&amp;w=sink" xr:uid="{8DF65DF9-C64A-422F-899F-59E4532EFD9F}"/>
+    <hyperlink ref="E277" r:id="rId325" display="https://www.onelook.com/?loc=pub&amp;w=sit" xr:uid="{1C288B65-0E25-4A7C-A008-71A1BA580F8A}"/>
+    <hyperlink ref="E278" r:id="rId326" display="https://www.onelook.com/?loc=pub&amp;w=slay" xr:uid="{574554FA-D516-4931-8E55-2D8ECF9C0234}"/>
+    <hyperlink ref="E279" r:id="rId327" display="https://www.onelook.com/?loc=pub&amp;w=slay" xr:uid="{951FCD63-6608-448D-8170-65D80A709708}"/>
+    <hyperlink ref="E280" r:id="rId328" display="https://www.onelook.com/?loc=pub&amp;w=sleep" xr:uid="{B24A02C9-D2F2-4A0E-8BCB-1B823E04D2DD}"/>
+    <hyperlink ref="E281" r:id="rId329" display="https://www.onelook.com/?loc=pub&amp;w=slide" xr:uid="{43060359-CBB0-4D4F-BA8F-F28198CD49B0}"/>
+    <hyperlink ref="E282" r:id="rId330" display="https://www.onelook.com/?loc=pub&amp;w=sling" xr:uid="{2A909E05-F461-4AE9-A8D2-82853ED03A9A}"/>
+    <hyperlink ref="E283" r:id="rId331" display="https://www.onelook.com/?loc=pub&amp;w=slink" xr:uid="{FA89FE96-52C7-4FA2-AD66-2209D4EB2C64}"/>
+    <hyperlink ref="E284" r:id="rId332" display="https://www.onelook.com/?loc=pub&amp;w=slit" xr:uid="{DB5337A3-57B1-47DB-93BA-395AFB3E94DB}"/>
+    <hyperlink ref="E285" r:id="rId333" display="https://www.onelook.com/?loc=pub&amp;w=smell" xr:uid="{086CCEB3-8694-4666-917F-966588950634}"/>
+    <hyperlink ref="F285" r:id="rId334" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{E64CC2E9-7D6F-44AF-B2F2-18EC12B2D41B}"/>
+    <hyperlink ref="G285" r:id="rId335" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{6BA58E47-6760-456E-8CD7-11ADBEFBA653}"/>
+    <hyperlink ref="E286" r:id="rId336" display="https://www.onelook.com/?loc=pub&amp;w=sneak" xr:uid="{1068605A-7774-4CB1-990E-5162E465C5A1}"/>
+    <hyperlink ref="E287" r:id="rId337" display="https://www.onelook.com/?loc=pub&amp;w=sow" xr:uid="{72848621-12A3-4EE8-998A-E8E8DCAD6C20}"/>
+    <hyperlink ref="E288" r:id="rId338" display="https://www.onelook.com/?loc=pub&amp;w=speak" xr:uid="{88CD9F3F-B4EC-40E5-B6CD-42104ECBCAA7}"/>
+    <hyperlink ref="E289" r:id="rId339" display="https://www.onelook.com/?loc=pub&amp;w=speed" xr:uid="{E4791A8E-EF02-4F13-8F81-D7FF23B67EDE}"/>
+    <hyperlink ref="E290" r:id="rId340" display="https://www.onelook.com/?loc=pub&amp;w=spell" xr:uid="{37FF1B5B-B606-4B9D-A9DE-874F9280BB0F}"/>
+    <hyperlink ref="F290" r:id="rId341" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{A3A8A75D-1EF3-4C4F-A074-2EF8286CABED}"/>
+    <hyperlink ref="G290" r:id="rId342" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{B9AEF271-403E-4A7F-954D-1DC694ED66AF}"/>
+    <hyperlink ref="E291" r:id="rId343" display="https://www.onelook.com/?loc=pub&amp;w=spend" xr:uid="{546FBD56-D4FD-4730-AFD3-1C32E994ED5B}"/>
+    <hyperlink ref="E292" r:id="rId344" display="https://www.onelook.com/?loc=pub&amp;w=spill" xr:uid="{F06D81F4-E286-4423-A42A-FE0E63ED9C0C}"/>
+    <hyperlink ref="F292" r:id="rId345" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{2191D8AA-44C8-406D-9B2E-4B634769B8E4}"/>
+    <hyperlink ref="G292" r:id="rId346" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{C372F5D8-DBCC-4B60-A828-CCF476DE25EF}"/>
+    <hyperlink ref="E293" r:id="rId347" display="https://www.onelook.com/?loc=pub&amp;w=spin" xr:uid="{FD0D46F4-31B0-455D-AF8C-01B0E04A3DE8}"/>
+    <hyperlink ref="E294" r:id="rId348" display="https://www.onelook.com/?loc=pub&amp;w=spit" xr:uid="{5BCD9B2A-893E-4DB0-AB1C-2577550E1B6C}"/>
+    <hyperlink ref="E295" r:id="rId349" display="https://www.onelook.com/?loc=pub&amp;w=split" xr:uid="{8E03799A-0059-47EF-9443-EAD11B6A3EF3}"/>
+    <hyperlink ref="E296" r:id="rId350" display="https://www.onelook.com/?loc=pub&amp;w=spoil" xr:uid="{2EBD6334-22BF-403A-864A-C7ADE227F100}"/>
+    <hyperlink ref="F296" r:id="rId351" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{60B1FABC-5E5D-4AA0-B536-2CA6D7514A1E}"/>
+    <hyperlink ref="G296" r:id="rId352" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{757697DB-C771-4C30-8067-2507F75C01CB}"/>
+    <hyperlink ref="E297" r:id="rId353" display="https://www.onelook.com/?loc=pub&amp;w=spoon-feed" xr:uid="{70628379-E02E-47A6-8AB9-7CB907EA8177}"/>
+    <hyperlink ref="E298" r:id="rId354" display="https://www.onelook.com/?loc=pub&amp;w=spread" xr:uid="{F83B3D1D-CDA0-4B18-898C-451EC14B6755}"/>
+    <hyperlink ref="E299" r:id="rId355" display="https://www.onelook.com/?loc=pub&amp;w=spring" xr:uid="{76FCFE1E-8C10-42B3-ADC7-CEE1F8BB297B}"/>
+    <hyperlink ref="E300" r:id="rId356" display="https://www.onelook.com/?loc=pub&amp;w=stand" xr:uid="{EA49A642-1EA9-4807-86AF-601BD9F71C41}"/>
+    <hyperlink ref="E301" r:id="rId357" display="https://www.onelook.com/?loc=pub&amp;w=steal" xr:uid="{E497C043-75FD-48C7-B74F-5970A4446864}"/>
+    <hyperlink ref="E302" r:id="rId358" display="https://www.onelook.com/?loc=pub&amp;w=stick" xr:uid="{F6F5B922-A47B-4B96-96F7-A56C019247CA}"/>
+    <hyperlink ref="E303" r:id="rId359" display="https://www.onelook.com/?loc=pub&amp;w=sting" xr:uid="{F8C3022C-E9E0-4AB4-85FD-97E74C8CE9AD}"/>
+    <hyperlink ref="E304" r:id="rId360" display="https://www.onelook.com/?loc=pub&amp;w=stink" xr:uid="{62487058-8EF4-4D26-ACDA-ECD0A1F67FFA}"/>
+    <hyperlink ref="E305" r:id="rId361" display="https://www.onelook.com/?loc=pub&amp;w=strew" xr:uid="{99FA4218-1C18-4A7A-9308-358902B7184E}"/>
+    <hyperlink ref="E306" r:id="rId362" display="https://www.onelook.com/?loc=pub&amp;w=stride" xr:uid="{873BC2A4-F141-42AB-B71F-BCCEDA8595DC}"/>
+    <hyperlink ref="E307" r:id="rId363" display="https://www.onelook.com/?loc=pub&amp;w=strike" xr:uid="{2BE62D10-4262-49EC-8B8E-FFE6074F3C53}"/>
+    <hyperlink ref="E308" r:id="rId364" display="https://www.onelook.com/?loc=pub&amp;w=strike" xr:uid="{65B3948E-2765-4C19-A689-DEFFA1E11BC3}"/>
+    <hyperlink ref="E309" r:id="rId365" display="https://www.onelook.com/?loc=pub&amp;w=string" xr:uid="{92D0B186-0604-4D15-8421-111B6A53DBFF}"/>
+    <hyperlink ref="E310" r:id="rId366" display="https://www.onelook.com/?loc=pub&amp;w=strive" xr:uid="{DF5D3627-3B08-47A3-9937-D5EC279CA592}"/>
+    <hyperlink ref="E311" r:id="rId367" display="https://www.onelook.com/?loc=pub&amp;w=sublet" xr:uid="{A6062A82-3A98-418B-8D3F-B2836AEAA720}"/>
+    <hyperlink ref="E312" r:id="rId368" display="https://www.onelook.com/?loc=pub&amp;w=sunburn" xr:uid="{32263312-A179-4C97-9725-3C83DC501FE5}"/>
+    <hyperlink ref="F312" r:id="rId369" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{159E5D84-E899-4A9A-9CD3-04F384C50E0E}"/>
+    <hyperlink ref="G312" r:id="rId370" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{21A05679-7A92-40B8-AD22-81DB1F43A0FD}"/>
+    <hyperlink ref="E313" r:id="rId371" display="https://www.onelook.com/?loc=pub&amp;w=swear" xr:uid="{CC05BFFE-8858-4E5F-A002-A9F2A0367467}"/>
+    <hyperlink ref="E314" r:id="rId372" display="https://www.onelook.com/?loc=pub&amp;w=sweat" xr:uid="{87290B81-29D8-48A8-A42A-41CD163BF4DE}"/>
+    <hyperlink ref="E315" r:id="rId373" display="https://www.onelook.com/?loc=pub&amp;w=sweep" xr:uid="{5B1F0F2C-FC80-4322-8029-D91DD1E0B28B}"/>
+    <hyperlink ref="E316" r:id="rId374" display="https://www.onelook.com/?loc=pub&amp;w=swell" xr:uid="{9C7B6EB1-4B17-4FD0-84B0-B5147B0A6199}"/>
+    <hyperlink ref="E317" r:id="rId375" display="https://www.onelook.com/?loc=pub&amp;w=swim" xr:uid="{7D1F604A-E397-4A58-8C50-64B827E0C28C}"/>
+    <hyperlink ref="E318" r:id="rId376" display="https://www.onelook.com/?loc=pub&amp;w=swing" xr:uid="{47D17EC5-992A-4B09-8AA5-4BBA648486C4}"/>
+    <hyperlink ref="E319" r:id="rId377" display="https://www.onelook.com/?loc=pub&amp;w=take" xr:uid="{0EB5522B-9679-40BF-B70B-EE81DC9033BC}"/>
+    <hyperlink ref="E320" r:id="rId378" display="https://www.onelook.com/?loc=pub&amp;w=teach" xr:uid="{280E5FB0-A4CA-46CF-BA3C-2D0C26C78E40}"/>
+    <hyperlink ref="E321" r:id="rId379" display="https://www.onelook.com/?loc=pub&amp;w=tear" xr:uid="{FE923770-05CC-4338-BC48-B90A186D4D9C}"/>
+    <hyperlink ref="E322" r:id="rId380" display="https://www.onelook.com/?loc=pub&amp;w=telecast" xr:uid="{A7FF215A-5C0A-4DAE-86B4-183E3F5B7D12}"/>
+    <hyperlink ref="E323" r:id="rId381" display="https://www.onelook.com/?loc=pub&amp;w=tell" xr:uid="{396E3F1A-082C-4275-94EB-E3107D18E15F}"/>
+    <hyperlink ref="E324" r:id="rId382" display="https://www.onelook.com/?loc=pub&amp;w=test-drive" xr:uid="{54576359-F60D-4453-82F0-7EF4B3B3AA4A}"/>
+    <hyperlink ref="E325" r:id="rId383" display="https://www.onelook.com/?loc=pub&amp;w=test-fly" xr:uid="{7AF60867-6627-4F3B-87F4-F8B1C3D10516}"/>
+    <hyperlink ref="E326" r:id="rId384" display="https://www.onelook.com/?loc=pub&amp;w=think" xr:uid="{A912B12A-0128-4633-8704-405FAAC2765A}"/>
+    <hyperlink ref="E327" r:id="rId385" display="https://www.onelook.com/?loc=pub&amp;w=throw" xr:uid="{92D71B12-275A-4663-8ACF-D95641B8B845}"/>
+    <hyperlink ref="E328" r:id="rId386" display="https://www.onelook.com/?loc=pub&amp;w=thrust" xr:uid="{F09C77CF-677E-47C8-ADDE-3642E4411591}"/>
+    <hyperlink ref="E329" r:id="rId387" display="https://www.onelook.com/?loc=pub&amp;w=tread" xr:uid="{D60FD7C0-0863-489D-A418-D03E4DF29401}"/>
+    <hyperlink ref="E330" r:id="rId388" display="https://www.onelook.com/?loc=pub&amp;w=typecast" xr:uid="{14A08603-1DCA-49C5-A722-0258E1B4ABC4}"/>
+    <hyperlink ref="E331" r:id="rId389" display="https://www.onelook.com/?loc=pub&amp;w=typeset" xr:uid="{B1672381-2E61-4D53-8E1E-118381164E27}"/>
+    <hyperlink ref="E332" r:id="rId390" display="https://www.onelook.com/?loc=pub&amp;w=typewrite" xr:uid="{1B29183C-2D74-4246-BA0B-1A41568EBB29}"/>
+    <hyperlink ref="E333" r:id="rId391" display="https://www.onelook.com/?loc=pub&amp;w=unbend" xr:uid="{EB2667FD-C8B5-4766-AE62-85A06EBFAD67}"/>
+    <hyperlink ref="E334" r:id="rId392" display="https://www.onelook.com/?loc=pub&amp;w=unbind" xr:uid="{67CD0C20-1D17-41A6-B964-0134D2452CBE}"/>
+    <hyperlink ref="E335" r:id="rId393" display="https://www.onelook.com/?loc=pub&amp;w=unclothe" xr:uid="{78BAC990-B850-4669-9A89-F768A989A3E8}"/>
+    <hyperlink ref="F335" r:id="rId394" location="6" display="https://www.englishpage.com/irregularverbs/info.html - 6" xr:uid="{FA3E6EFC-CE00-4C8E-A6CF-63F09FF3A56A}"/>
+    <hyperlink ref="G335" r:id="rId395" location="6" display="https://www.englishpage.com/irregularverbs/info.html - 6" xr:uid="{8CC3DF54-077B-4EEA-9914-6A46960ED78B}"/>
+    <hyperlink ref="E336" r:id="rId396" display="https://www.onelook.com/?loc=pub&amp;w=underbid" xr:uid="{AB0E82F8-73FA-4863-935E-64C0A8B29FC3}"/>
+    <hyperlink ref="E337" r:id="rId397" display="https://www.onelook.com/?loc=pub&amp;w=undercut" xr:uid="{462ED74D-2EE3-481E-9DC9-4452A60A3AC7}"/>
+    <hyperlink ref="E338" r:id="rId398" display="https://www.onelook.com/?loc=pub&amp;w=underfeed" xr:uid="{9F12C4A6-0984-405A-923F-09C5DB190FC4}"/>
+    <hyperlink ref="E339" r:id="rId399" display="https://www.onelook.com/?loc=pub&amp;w=undergo" xr:uid="{EE95ACD0-1513-41D3-ABFE-15E446D7A78F}"/>
+    <hyperlink ref="E340" r:id="rId400" display="https://www.onelook.com/?loc=pub&amp;w=underlie" xr:uid="{C125906E-CCA6-41A7-8322-2DD216514C67}"/>
+    <hyperlink ref="E341" r:id="rId401" display="https://www.onelook.com/?loc=pub&amp;w=undersell" xr:uid="{BB6F5771-4843-4965-916F-63B2D3655776}"/>
+    <hyperlink ref="E342" r:id="rId402" display="https://www.onelook.com/?loc=pub&amp;w=underspend" xr:uid="{61504EBB-31C0-4277-88AF-A7E6E0F3F368}"/>
+    <hyperlink ref="E343" r:id="rId403" display="https://www.onelook.com/?loc=pub&amp;w=understand" xr:uid="{451DC849-60EE-43BD-913B-E84EC7AA59FD}"/>
+    <hyperlink ref="E344" r:id="rId404" display="https://www.onelook.com/?loc=pub&amp;w=undertake" xr:uid="{EE73B956-6915-44CB-8BF4-AEF6B8DD8A2C}"/>
+    <hyperlink ref="E345" r:id="rId405" display="https://www.onelook.com/?loc=pub&amp;w=underwrite" xr:uid="{0FB43D10-B36F-4ABA-8B96-EB70F0359759}"/>
+    <hyperlink ref="E346" r:id="rId406" display="https://www.onelook.com/?loc=pub&amp;w=undo" xr:uid="{F992F421-52FD-43E7-BABC-61E205E37ACC}"/>
+    <hyperlink ref="E347" r:id="rId407" display="https://www.onelook.com/?loc=pub&amp;w=unfreeze" xr:uid="{7E04BB30-9CA4-4231-A0CD-7A2BB7347E01}"/>
+    <hyperlink ref="E348" r:id="rId408" display="https://www.onelook.com/?loc=pub&amp;w=unhang" xr:uid="{E3C3E01F-13D9-4C53-94AA-E31DC982936A}"/>
+    <hyperlink ref="E349" r:id="rId409" display="https://www.onelook.com/?loc=pub&amp;w=unhide" xr:uid="{EFA93945-5184-4D3D-8E18-232F39C64604}"/>
+    <hyperlink ref="E350" r:id="rId410" display="https://www.onelook.com/?loc=pub&amp;w=unknit" xr:uid="{2C6BE43E-4E2A-4B1F-8992-6A25E912D0BD}"/>
+    <hyperlink ref="E351" r:id="rId411" display="https://www.onelook.com/?loc=pub&amp;w=unlearn" xr:uid="{2C4C46D4-0902-4990-BCCD-8FFFDF77FC42}"/>
+    <hyperlink ref="F351" r:id="rId412" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{587DFD44-8166-4970-BACA-41AC7DE2F26E}"/>
+    <hyperlink ref="G351" r:id="rId413" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{97D8123E-364B-4C70-AAD4-C61CE0D7351E}"/>
+    <hyperlink ref="E352" r:id="rId414" display="https://www.onelook.com/?loc=pub&amp;w=unsew" xr:uid="{8593C19D-93ED-4F01-930F-183F6237EE95}"/>
+    <hyperlink ref="E353" r:id="rId415" display="https://www.onelook.com/?loc=pub&amp;w=unsling" xr:uid="{8F913BA3-1433-43BB-A0EE-E969CDA505F6}"/>
+    <hyperlink ref="E354" r:id="rId416" display="https://www.onelook.com/?loc=pub&amp;w=unspin" xr:uid="{8F9C4C3E-B060-4A77-A03C-1F2CCC7B7264}"/>
+    <hyperlink ref="E355" r:id="rId417" display="https://www.onelook.com/?loc=pub&amp;w=unstick" xr:uid="{59E4572A-E812-43D2-8ABE-FBFA8FD7A191}"/>
+    <hyperlink ref="E356" r:id="rId418" display="https://www.onelook.com/?loc=pub&amp;w=unstring" xr:uid="{43950782-719A-4E2B-AFAA-315EA5D3534F}"/>
+    <hyperlink ref="E357" r:id="rId419" display="https://www.onelook.com/?loc=pub&amp;w=unweave" xr:uid="{0B4E27D6-3DEA-4743-9D0A-4223495D9800}"/>
+    <hyperlink ref="E358" r:id="rId420" display="https://www.onelook.com/?loc=pub&amp;w=unwind" xr:uid="{B16214FD-790C-442F-982E-B071B95DC070}"/>
+    <hyperlink ref="E359" r:id="rId421" display="https://www.onelook.com/?loc=pub&amp;w=uphold" xr:uid="{2BCB1BE5-45F8-4D34-8145-3D3817D50D5B}"/>
+    <hyperlink ref="E360" r:id="rId422" display="https://www.onelook.com/?loc=pub&amp;w=upset" xr:uid="{44E0130C-141B-4A56-91C6-E9AC57A855C2}"/>
+    <hyperlink ref="E362" r:id="rId423" display="https://www.onelook.com/?loc=pub&amp;w=wake" xr:uid="{D7FB2F8D-D0C9-4D67-B725-5B43999882B5}"/>
+    <hyperlink ref="E363" r:id="rId424" display="https://www.onelook.com/?loc=pub&amp;w=waylay" xr:uid="{314E3D51-D9FB-44A2-880C-EED5CB0D9E26}"/>
+    <hyperlink ref="E364" r:id="rId425" display="https://www.onelook.com/?loc=pub&amp;w=wear" xr:uid="{E0C7B7B8-F3F2-451D-BDBC-AF1A71C5CE6E}"/>
+    <hyperlink ref="E365" r:id="rId426" display="https://www.onelook.com/?loc=pub&amp;w=weave" xr:uid="{7A527242-D303-48AA-A48F-9D6A6805EA5F}"/>
+    <hyperlink ref="E366" r:id="rId427" display="https://www.onelook.com/?loc=pub&amp;w=wed" xr:uid="{B747CEEF-E842-42EB-A85B-4DA82AC797CD}"/>
+    <hyperlink ref="E367" r:id="rId428" display="https://www.onelook.com/?loc=pub&amp;w=weep" xr:uid="{2D9B3136-120F-4DCE-B301-A8DF26D26DC5}"/>
+    <hyperlink ref="E368" r:id="rId429" display="https://www.onelook.com/?loc=pub&amp;w=wet" xr:uid="{2A3F1E16-0A30-478C-9420-511648DB2205}"/>
+    <hyperlink ref="F368" r:id="rId430" location="5" display="https://www.englishpage.com/irregularverbs/info.html - 5" xr:uid="{41917BEE-2242-42F7-93B3-EC246136D8EA}"/>
+    <hyperlink ref="G368" r:id="rId431" location="5" display="https://www.englishpage.com/irregularverbs/info.html - 5" xr:uid="{9D5A3889-95DE-4DEF-AFF7-0BBF364D7214}"/>
+    <hyperlink ref="E369" r:id="rId432" display="https://www.onelook.com/?loc=pub&amp;w=whet" xr:uid="{E85DD8A4-7843-4AF4-9FEB-3C657F31C19F}"/>
+    <hyperlink ref="E370" r:id="rId433" display="https://www.onelook.com/?loc=pub&amp;w=win" xr:uid="{F03ED0D0-AF91-4366-BE9B-6000D69D1671}"/>
+    <hyperlink ref="E371" r:id="rId434" display="https://www.onelook.com/?loc=pub&amp;w=wind" xr:uid="{FA79C9FD-DDCB-4A80-A3A0-B629529F63FE}"/>
+    <hyperlink ref="E372" r:id="rId435" display="https://www.onelook.com/?loc=pub&amp;w=withdraw" xr:uid="{699A60F4-AB03-4FDA-B422-6FF2B7B12F11}"/>
+    <hyperlink ref="E373" r:id="rId436" display="https://www.onelook.com/?loc=pub&amp;w=withhold" xr:uid="{03D243F7-CC5F-484A-84AD-7B11BA385320}"/>
+    <hyperlink ref="E374" r:id="rId437" display="https://www.onelook.com/?loc=pub&amp;w=withstand" xr:uid="{699F0569-A576-4AA0-A0E6-494BD5D6627F}"/>
+    <hyperlink ref="E375" r:id="rId438" display="https://www.onelook.com/?loc=pub&amp;w=wring" xr:uid="{B0A98AEA-FBE0-4FCA-ADA8-9CBE867F3D18}"/>
+    <hyperlink ref="E376" r:id="rId439" display="https://www.onelook.com/?loc=pub&amp;w=write" xr:uid="{70C26DB6-2E6E-4EEC-8332-B58B00186195}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId440"/>
+</worksheet>
 </file>
--- a/מתארים- descriptors.xlsx
+++ b/מתארים- descriptors.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\AITextAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952F93D4-3429-4CD0-A111-BB0F31E46CE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2FB937-BE23-4D47-BDD1-D121B67C05BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="887">
   <si>
     <t>מילים</t>
   </si>
@@ -2749,6 +2749,9 @@
   </si>
   <si>
     <t>wrung</t>
+  </si>
+  <si>
+    <t>לנרמל</t>
   </si>
 </sst>
 </file>
@@ -2796,7 +2799,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2806,6 +2809,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2823,24 +2832,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3124,8 +3134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3146,32 +3156,32 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -3179,7 +3189,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C9" t="s">
@@ -3192,22 +3202,22 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+      <c r="B13" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="B14" s="9" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3217,37 +3227,40 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+      <c r="B21" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="C21" t="s">
+        <v>886</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+      <c r="B23" s="9" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -3269,27 +3282,27 @@
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+      <c r="B28" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+      <c r="B29" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+      <c r="B30" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+      <c r="B31" s="9" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3297,27 +3310,27 @@
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+      <c r="B34" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
+      <c r="B35" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
+      <c r="B36" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+      <c r="B37" s="9" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3327,17 +3340,17 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3442,3940 +3455,3940 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="4" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="5" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="6" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="8" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="9" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="13" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="14" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="15" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="16" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="18" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="19" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="20" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="22" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="23" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="4" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="24" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="25" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="26" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="4" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="27" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="4" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="28" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="29" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="4" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="30" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="31" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="32" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="4" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="33" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="5" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="34" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="35" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="36" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="4" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="37" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="4" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="38" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="39" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="5" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="40" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="4" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="41" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="42" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="4" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="43" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="44" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="45" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="46" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="47" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="5" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="48" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="49" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="50" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="G50" s="5" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="51" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="52" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="53" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G53" s="4" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="54" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="55" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G55" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="56" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="57" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F57" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="G57" s="5" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="58" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F58" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G58" s="5" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="59" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="G59" s="4" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="60" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G60" s="4" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="61" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="G61" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="62" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="G62" s="4" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="63" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E63" s="6" t="s">
+      <c r="E63" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="G63" s="4" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="64" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="G64" s="4" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="65" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="G65" s="4" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="66" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E66" s="6" t="s">
+      <c r="E66" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="G66" s="4" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="67" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F67" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="G67" s="5" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="68" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E68" s="6" t="s">
+      <c r="E68" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F68" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="G68" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="69" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E69" s="6" t="s">
+      <c r="E69" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F69" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="G69" s="5" t="s">
+      <c r="G69" s="4" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="70" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E70" s="6" t="s">
+      <c r="E70" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F70" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="G70" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="71" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E71" s="6" t="s">
+      <c r="E71" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F71" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="G71" s="5" t="s">
+      <c r="G71" s="4" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="72" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E72" s="6" t="s">
+      <c r="E72" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="F72" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="G72" s="5" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="73" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E73" s="6" t="s">
+      <c r="E73" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F73" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="G73" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="74" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E74" s="6" t="s">
+      <c r="E74" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="F74" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G74" s="5" t="s">
+      <c r="G74" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="75" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E75" s="6" t="s">
+      <c r="E75" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F75" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="G75" s="5" t="s">
+      <c r="G75" s="4" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="76" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E76" s="6" t="s">
+      <c r="E76" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F76" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="G76" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="77" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E77" s="6" t="s">
+      <c r="E77" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="F77" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="G77" s="5" t="s">
+      <c r="G77" s="4" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="78" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E78" s="6" t="s">
+      <c r="E78" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="F78" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="G78" s="5" t="s">
+      <c r="G78" s="4" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="79" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E79" s="6" t="s">
+      <c r="E79" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="F79" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G79" s="5" t="s">
+      <c r="G79" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="80" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E80" s="6" t="s">
+      <c r="E80" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="F80" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="G80" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="81" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E81" s="6" t="s">
+      <c r="E81" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="F81" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G81" s="5" t="s">
+      <c r="G81" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="82" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E82" s="6" t="s">
+      <c r="E82" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="F82" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="G82" s="5" t="s">
+      <c r="G82" s="4" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="83" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E83" s="6" t="s">
+      <c r="E83" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="F83" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G83" s="5" t="s">
+      <c r="G83" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="84" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E84" s="6" t="s">
+      <c r="E84" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="F84" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G84" s="5" t="s">
+      <c r="G84" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="85" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E85" s="6" t="s">
+      <c r="E85" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="F85" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="G85" s="5" t="s">
+      <c r="G85" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="86" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E86" s="6" t="s">
+      <c r="E86" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="F86" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G86" s="5" t="s">
+      <c r="G86" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="87" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E87" s="6" t="s">
+      <c r="E87" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="F87" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="G87" s="5" t="s">
+      <c r="G87" s="4" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="88" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E88" s="6" t="s">
+      <c r="E88" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="F88" s="5" t="s">
+      <c r="F88" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="G88" s="5" t="s">
+      <c r="G88" s="4" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="89" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E89" s="6" t="s">
+      <c r="E89" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="F89" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="G89" s="5" t="s">
+      <c r="G89" s="4" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="90" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E90" s="6" t="s">
+      <c r="E90" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="F90" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="G90" s="5" t="s">
+      <c r="G90" s="4" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="91" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E91" s="6" t="s">
+      <c r="E91" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="F91" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="G91" s="5" t="s">
+      <c r="G91" s="4" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="92" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="F92" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="G92" s="5" t="s">
+      <c r="G92" s="4" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="93" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E93" s="6" t="s">
+      <c r="E93" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="F93" s="5" t="s">
+      <c r="F93" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="G93" s="5" t="s">
+      <c r="G93" s="4" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="94" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E94" s="6" t="s">
+      <c r="E94" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F94" s="5" t="s">
+      <c r="F94" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="G94" s="5" t="s">
+      <c r="G94" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="95" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E95" s="6" t="s">
+      <c r="E95" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="F95" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="G95" s="5" t="s">
+      <c r="G95" s="4" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="96" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E96" s="6" t="s">
+      <c r="E96" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="F96" s="5" t="s">
+      <c r="F96" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="G96" s="5" t="s">
+      <c r="G96" s="4" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="97" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E97" s="6" t="s">
+      <c r="E97" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F97" s="5" t="s">
+      <c r="F97" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G97" s="5" t="s">
+      <c r="G97" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="98" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E98" s="6" t="s">
+      <c r="E98" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F98" s="5" t="s">
+      <c r="F98" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G98" s="5" t="s">
+      <c r="G98" s="4" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="99" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E99" s="6" t="s">
+      <c r="E99" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="F99" s="5" t="s">
+      <c r="F99" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="G99" s="5" t="s">
+      <c r="G99" s="4" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="100" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E100" s="6" t="s">
+      <c r="E100" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F100" s="6" t="s">
+      <c r="F100" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="G100" s="6" t="s">
+      <c r="G100" s="5" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="101" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E101" s="6" t="s">
+      <c r="E101" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="F101" s="6" t="s">
+      <c r="F101" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="G101" s="6" t="s">
+      <c r="G101" s="5" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="102" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E102" s="6" t="s">
+      <c r="E102" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="F102" s="6" t="s">
+      <c r="F102" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="G102" s="6" t="s">
+      <c r="G102" s="5" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="103" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E103" s="6" t="s">
+      <c r="E103" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F103" s="5" t="s">
+      <c r="F103" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G103" s="5" t="s">
+      <c r="G103" s="4" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="104" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E104" s="6" t="s">
+      <c r="E104" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F104" s="5" t="s">
+      <c r="F104" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="G104" s="5" t="s">
+      <c r="G104" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="105" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E105" s="6" t="s">
+      <c r="E105" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F105" s="5" t="s">
+      <c r="F105" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G105" s="5" t="s">
+      <c r="G105" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="106" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E106" s="6" t="s">
+      <c r="E106" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F106" s="5" t="s">
+      <c r="F106" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G106" s="5" t="s">
+      <c r="G106" s="4" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="107" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E107" s="6" t="s">
+      <c r="E107" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="F107" s="5" t="s">
+      <c r="F107" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="G107" s="5" t="s">
+      <c r="G107" s="4" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="108" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E108" s="6" t="s">
+      <c r="E108" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F108" s="5" t="s">
+      <c r="F108" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="G108" s="5" t="s">
+      <c r="G108" s="4" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="109" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E109" s="6" t="s">
+      <c r="E109" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="F109" s="5" t="s">
+      <c r="F109" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="G109" s="5" t="s">
+      <c r="G109" s="4" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="110" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E110" s="6" t="s">
+      <c r="E110" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F110" s="5" t="s">
+      <c r="F110" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="G110" s="5" t="s">
+      <c r="G110" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="111" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E111" s="6" t="s">
+      <c r="E111" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="F111" s="5" t="s">
+      <c r="F111" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G111" s="5" t="s">
+      <c r="G111" s="4" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="112" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E112" s="6" t="s">
+      <c r="E112" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="F112" s="5" t="s">
+      <c r="F112" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="G112" s="5" t="s">
+      <c r="G112" s="4" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="113" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E113" s="6" t="s">
+      <c r="E113" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="F113" s="5" t="s">
+      <c r="F113" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="G113" s="5" t="s">
+      <c r="G113" s="4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="114" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E114" s="6" t="s">
+      <c r="E114" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="F114" s="5" t="s">
+      <c r="F114" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="G114" s="5" t="s">
+      <c r="G114" s="4" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="115" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E115" s="6" t="s">
+      <c r="E115" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="F115" s="5" t="s">
+      <c r="F115" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="G115" s="5" t="s">
+      <c r="G115" s="4" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="116" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E116" s="6" t="s">
+      <c r="E116" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="F116" s="5" t="s">
+      <c r="F116" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="G116" s="5" t="s">
+      <c r="G116" s="4" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="117" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E117" s="6" t="s">
+      <c r="E117" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="F117" s="5" t="s">
+      <c r="F117" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="G117" s="5" t="s">
+      <c r="G117" s="4" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="118" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E118" s="6" t="s">
+      <c r="E118" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="F118" s="5" t="s">
+      <c r="F118" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="G118" s="5" t="s">
+      <c r="G118" s="4" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="119" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E119" s="6" t="s">
+      <c r="E119" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="F119" s="5" t="s">
+      <c r="F119" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="G119" s="5" t="s">
+      <c r="G119" s="4" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="120" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E120" s="6" t="s">
+      <c r="E120" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="F120" s="6" t="s">
+      <c r="F120" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="G120" s="6" t="s">
+      <c r="G120" s="5" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="121" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E121" s="6" t="s">
+      <c r="E121" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="F121" s="5" t="s">
+      <c r="F121" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="G121" s="5" t="s">
+      <c r="G121" s="4" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="122" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E122" s="6" t="s">
+      <c r="E122" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="F122" s="5" t="s">
+      <c r="F122" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="G122" s="5" t="s">
+      <c r="G122" s="4" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="123" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E123" s="6" t="s">
+      <c r="E123" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="F123" s="5" t="s">
+      <c r="F123" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G123" s="5" t="s">
+      <c r="G123" s="4" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="124" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E124" s="6" t="s">
+      <c r="E124" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="F124" s="6" t="s">
+      <c r="F124" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="G124" s="6" t="s">
+      <c r="G124" s="5" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="125" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E125" s="6" t="s">
+      <c r="E125" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="F125" s="5" t="s">
+      <c r="F125" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="G125" s="5" t="s">
+      <c r="G125" s="4" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="126" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E126" s="6" t="s">
+      <c r="E126" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="F126" s="5" t="s">
+      <c r="F126" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="G126" s="5" t="s">
+      <c r="G126" s="4" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="127" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E127" s="6" t="s">
+      <c r="E127" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="F127" s="5" t="s">
+      <c r="F127" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="G127" s="5" t="s">
+      <c r="G127" s="4" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="128" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E128" s="6" t="s">
+      <c r="E128" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="F128" s="5" t="s">
+      <c r="F128" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="G128" s="5" t="s">
+      <c r="G128" s="4" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="129" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E129" s="6" t="s">
+      <c r="E129" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="F129" s="5" t="s">
+      <c r="F129" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="G129" s="5" t="s">
+      <c r="G129" s="4" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="130" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E130" s="6" t="s">
+      <c r="E130" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="F130" s="5" t="s">
+      <c r="F130" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="G130" s="5" t="s">
+      <c r="G130" s="4" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="131" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E131" s="6" t="s">
+      <c r="E131" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="F131" s="5" t="s">
+      <c r="F131" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="G131" s="5" t="s">
+      <c r="G131" s="4" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="132" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E132" s="6" t="s">
+      <c r="E132" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="F132" s="5" t="s">
+      <c r="F132" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="G132" s="5" t="s">
+      <c r="G132" s="4" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="133" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E133" s="6" t="s">
+      <c r="E133" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="F133" s="5" t="s">
+      <c r="F133" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="G133" s="5" t="s">
+      <c r="G133" s="4" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="134" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E134" s="6" t="s">
+      <c r="E134" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="F134" s="5" t="s">
+      <c r="F134" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="G134" s="5" t="s">
+      <c r="G134" s="4" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="135" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E135" s="6" t="s">
+      <c r="E135" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="F135" s="5" t="s">
+      <c r="F135" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="G135" s="5" t="s">
+      <c r="G135" s="4" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="136" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E136" s="6" t="s">
+      <c r="E136" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="F136" s="5" t="s">
+      <c r="F136" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="G136" s="5" t="s">
+      <c r="G136" s="4" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="137" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E137" s="6" t="s">
+      <c r="E137" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="F137" s="5" t="s">
+      <c r="F137" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="G137" s="5" t="s">
+      <c r="G137" s="4" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="138" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E138" s="6" t="s">
+      <c r="E138" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="F138" s="5" t="s">
+      <c r="F138" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="G138" s="5" t="s">
+      <c r="G138" s="4" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="139" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E139" s="6" t="s">
+      <c r="E139" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="F139" s="5" t="s">
+      <c r="F139" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="G139" s="5" t="s">
+      <c r="G139" s="4" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="140" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E140" s="6" t="s">
+      <c r="E140" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="F140" s="5" t="s">
+      <c r="F140" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="G140" s="5" t="s">
+      <c r="G140" s="4" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="141" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E141" s="6" t="s">
+      <c r="E141" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="F141" s="6" t="s">
+      <c r="F141" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="G141" s="6" t="s">
+      <c r="G141" s="5" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="142" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E142" s="6" t="s">
+      <c r="E142" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="F142" s="5" t="s">
+      <c r="F142" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="G142" s="5" t="s">
+      <c r="G142" s="4" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="143" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E143" s="6" t="s">
+      <c r="E143" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="F143" s="5" t="s">
+      <c r="F143" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="G143" s="5" t="s">
+      <c r="G143" s="4" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="144" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E144" s="6" t="s">
+      <c r="E144" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="F144" s="5" t="s">
+      <c r="F144" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="G144" s="5" t="s">
+      <c r="G144" s="4" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="145" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E145" s="6" t="s">
+      <c r="E145" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="F145" s="5" t="s">
+      <c r="F145" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="G145" s="5" t="s">
+      <c r="G145" s="4" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="146" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E146" s="6" t="s">
+      <c r="E146" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="F146" s="6" t="s">
+      <c r="F146" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="G146" s="6" t="s">
+      <c r="G146" s="5" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="147" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E147" s="6" t="s">
+      <c r="E147" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="F147" s="5" t="s">
+      <c r="F147" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="G147" s="5" t="s">
+      <c r="G147" s="4" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="148" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E148" s="6" t="s">
+      <c r="E148" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="F148" s="5" t="s">
+      <c r="F148" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="G148" s="5" t="s">
+      <c r="G148" s="4" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="149" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E149" s="6" t="s">
+      <c r="E149" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="F149" s="5" t="s">
+      <c r="F149" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="G149" s="5" t="s">
+      <c r="G149" s="4" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="150" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E150" s="6" t="s">
+      <c r="E150" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="F150" s="5" t="s">
+      <c r="F150" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="G150" s="5" t="s">
+      <c r="G150" s="4" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="151" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E151" s="6" t="s">
+      <c r="E151" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="F151" s="6" t="s">
+      <c r="F151" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="G151" s="6" t="s">
+      <c r="G151" s="5" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="152" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E152" s="6" t="s">
+      <c r="E152" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="F152" s="5" t="s">
+      <c r="F152" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="G152" s="5" t="s">
+      <c r="G152" s="4" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="153" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E153" s="6" t="s">
+      <c r="E153" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="F153" s="5" t="s">
+      <c r="F153" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="G153" s="5" t="s">
+      <c r="G153" s="4" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="154" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E154" s="6" t="s">
+      <c r="E154" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="F154" s="5" t="s">
+      <c r="F154" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="G154" s="5" t="s">
+      <c r="G154" s="4" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="155" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E155" s="6" t="s">
+      <c r="E155" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="F155" s="5" t="s">
+      <c r="F155" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="G155" s="5" t="s">
+      <c r="G155" s="4" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="156" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E156" s="6" t="s">
+      <c r="E156" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="F156" s="5" t="s">
+      <c r="F156" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="G156" s="5" t="s">
+      <c r="G156" s="4" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="157" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E157" s="6" t="s">
+      <c r="E157" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="F157" s="5" t="s">
+      <c r="F157" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="G157" s="5" t="s">
+      <c r="G157" s="4" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="158" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E158" s="6" t="s">
+      <c r="E158" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="F158" s="5" t="s">
+      <c r="F158" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="G158" s="5" t="s">
+      <c r="G158" s="4" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="159" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E159" s="6" t="s">
+      <c r="E159" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="F159" s="5" t="s">
+      <c r="F159" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="G159" s="5" t="s">
+      <c r="G159" s="4" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="160" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E160" s="6" t="s">
+      <c r="E160" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="F160" s="5" t="s">
+      <c r="F160" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="G160" s="5" t="s">
+      <c r="G160" s="4" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="161" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E161" s="6" t="s">
+      <c r="E161" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="F161" s="5" t="s">
+      <c r="F161" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="G161" s="5" t="s">
+      <c r="G161" s="4" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="162" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E162" s="6" t="s">
+      <c r="E162" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="F162" s="5" t="s">
+      <c r="F162" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="G162" s="5" t="s">
+      <c r="G162" s="4" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="163" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E163" s="6" t="s">
+      <c r="E163" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="F163" s="5" t="s">
+      <c r="F163" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="G163" s="5" t="s">
+      <c r="G163" s="4" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="164" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E164" s="6" t="s">
+      <c r="E164" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="F164" s="5" t="s">
+      <c r="F164" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="G164" s="5" t="s">
+      <c r="G164" s="4" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="165" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E165" s="6" t="s">
+      <c r="E165" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="F165" s="5" t="s">
+      <c r="F165" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="G165" s="5" t="s">
+      <c r="G165" s="4" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="166" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E166" s="6" t="s">
+      <c r="E166" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="F166" s="5" t="s">
+      <c r="F166" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="G166" s="5" t="s">
+      <c r="G166" s="4" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="167" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E167" s="6" t="s">
+      <c r="E167" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="F167" s="5" t="s">
+      <c r="F167" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="G167" s="5" t="s">
+      <c r="G167" s="4" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="168" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E168" s="6" t="s">
+      <c r="E168" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="F168" s="5" t="s">
+      <c r="F168" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="G168" s="5" t="s">
+      <c r="G168" s="4" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="169" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E169" s="6" t="s">
+      <c r="E169" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="F169" s="5" t="s">
+      <c r="F169" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="G169" s="5" t="s">
+      <c r="G169" s="4" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="170" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E170" s="6" t="s">
+      <c r="E170" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="F170" s="5" t="s">
+      <c r="F170" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="G170" s="5" t="s">
+      <c r="G170" s="4" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="171" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E171" s="6" t="s">
+      <c r="E171" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="F171" s="5" t="s">
+      <c r="F171" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="G171" s="5" t="s">
+      <c r="G171" s="4" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="172" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E172" s="6" t="s">
+      <c r="E172" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="F172" s="5" t="s">
+      <c r="F172" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="G172" s="5" t="s">
+      <c r="G172" s="4" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="173" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E173" s="6" t="s">
+      <c r="E173" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="F173" s="5" t="s">
+      <c r="F173" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="G173" s="5" t="s">
+      <c r="G173" s="4" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="174" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E174" s="6" t="s">
+      <c r="E174" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="F174" s="5" t="s">
+      <c r="F174" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="G174" s="5" t="s">
+      <c r="G174" s="4" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="175" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E175" s="6" t="s">
+      <c r="E175" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="F175" s="5" t="s">
+      <c r="F175" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="G175" s="5" t="s">
+      <c r="G175" s="4" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="176" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E176" s="6" t="s">
+      <c r="E176" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="F176" s="5" t="s">
+      <c r="F176" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="G176" s="5" t="s">
+      <c r="G176" s="4" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="177" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E177" s="6" t="s">
+      <c r="E177" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="F177" s="5" t="s">
+      <c r="F177" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="G177" s="5" t="s">
+      <c r="G177" s="4" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="178" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E178" s="6" t="s">
+      <c r="E178" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="F178" s="5" t="s">
+      <c r="F178" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="G178" s="5" t="s">
+      <c r="G178" s="4" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="179" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E179" s="6" t="s">
+      <c r="E179" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="F179" s="5" t="s">
+      <c r="F179" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="G179" s="5" t="s">
+      <c r="G179" s="4" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="180" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E180" s="6" t="s">
+      <c r="E180" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="F180" s="5" t="s">
+      <c r="F180" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="G180" s="5" t="s">
+      <c r="G180" s="4" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="181" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E181" s="6" t="s">
+      <c r="E181" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="F181" s="5" t="s">
+      <c r="F181" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="G181" s="5" t="s">
+      <c r="G181" s="4" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="182" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E182" s="6" t="s">
+      <c r="E182" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="F182" s="5" t="s">
+      <c r="F182" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="G182" s="5" t="s">
+      <c r="G182" s="4" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="183" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E183" s="6" t="s">
+      <c r="E183" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="F183" s="6" t="s">
+      <c r="F183" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="G183" s="6" t="s">
+      <c r="G183" s="5" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="184" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E184" s="6" t="s">
+      <c r="E184" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="F184" s="5" t="s">
+      <c r="F184" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="G184" s="5" t="s">
+      <c r="G184" s="4" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="185" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E185" s="6" t="s">
+      <c r="E185" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="F185" s="5" t="s">
+      <c r="F185" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="G185" s="5" t="s">
+      <c r="G185" s="4" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="186" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E186" s="6" t="s">
+      <c r="E186" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="F186" s="5" t="s">
+      <c r="F186" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="G186" s="5" t="s">
+      <c r="G186" s="4" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="187" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E187" s="6" t="s">
+      <c r="E187" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="F187" s="5" t="s">
+      <c r="F187" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="G187" s="5" t="s">
+      <c r="G187" s="4" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="188" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E188" s="6" t="s">
+      <c r="E188" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="F188" s="5" t="s">
+      <c r="F188" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="G188" s="5" t="s">
+      <c r="G188" s="4" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="189" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E189" s="6" t="s">
+      <c r="E189" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="F189" s="5" t="s">
+      <c r="F189" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="G189" s="5" t="s">
+      <c r="G189" s="4" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="190" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E190" s="6" t="s">
+      <c r="E190" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F190" s="5" t="s">
+      <c r="F190" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G190" s="5" t="s">
+      <c r="G190" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="191" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E191" s="6" t="s">
+      <c r="E191" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="F191" s="5" t="s">
+      <c r="F191" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="G191" s="5" t="s">
+      <c r="G191" s="4" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="192" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E192" s="6" t="s">
+      <c r="E192" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="F192" s="5" t="s">
+      <c r="F192" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="G192" s="5" t="s">
+      <c r="G192" s="4" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="193" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E193" s="6" t="s">
+      <c r="E193" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="F193" s="5" t="s">
+      <c r="F193" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="G193" s="5" t="s">
+      <c r="G193" s="4" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="194" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E194" s="6" t="s">
+      <c r="E194" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="F194" s="5" t="s">
+      <c r="F194" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="G194" s="5" t="s">
+      <c r="G194" s="4" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="195" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E195" s="6" t="s">
+      <c r="E195" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="F195" s="5" t="s">
+      <c r="F195" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="G195" s="5" t="s">
+      <c r="G195" s="4" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="196" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E196" s="6" t="s">
+      <c r="E196" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="F196" s="5" t="s">
+      <c r="F196" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="G196" s="5" t="s">
+      <c r="G196" s="4" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="197" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E197" s="6" t="s">
+      <c r="E197" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="F197" s="5" t="s">
+      <c r="F197" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="G197" s="5" t="s">
+      <c r="G197" s="4" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="198" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E198" s="6" t="s">
+      <c r="E198" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="F198" s="5" t="s">
+      <c r="F198" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="G198" s="5" t="s">
+      <c r="G198" s="4" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="199" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E199" s="6" t="s">
+      <c r="E199" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="F199" s="5" t="s">
+      <c r="F199" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G199" s="5" t="s">
+      <c r="G199" s="4" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="200" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E200" s="6" t="s">
+      <c r="E200" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="F200" s="5" t="s">
+      <c r="F200" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="G200" s="5" t="s">
+      <c r="G200" s="4" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="201" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E201" s="6" t="s">
+      <c r="E201" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="F201" s="5" t="s">
+      <c r="F201" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G201" s="5" t="s">
+      <c r="G201" s="4" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="202" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E202" s="6" t="s">
+      <c r="E202" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="F202" s="5" t="s">
+      <c r="F202" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="G202" s="5" t="s">
+      <c r="G202" s="4" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="203" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E203" s="6" t="s">
+      <c r="E203" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="F203" s="6" t="s">
+      <c r="F203" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="G203" s="6" t="s">
+      <c r="G203" s="5" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="204" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E204" s="6" t="s">
+      <c r="E204" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="F204" s="5" t="s">
+      <c r="F204" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="G204" s="5" t="s">
+      <c r="G204" s="4" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="205" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E205" s="6" t="s">
+      <c r="E205" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="F205" s="5" t="s">
+      <c r="F205" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="G205" s="5" t="s">
+      <c r="G205" s="4" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="206" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E206" s="6" t="s">
+      <c r="E206" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="F206" s="5" t="s">
+      <c r="F206" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="G206" s="5" t="s">
+      <c r="G206" s="4" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="207" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E207" s="6" t="s">
+      <c r="E207" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="F207" s="5" t="s">
+      <c r="F207" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="G207" s="5" t="s">
+      <c r="G207" s="4" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="208" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E208" s="6" t="s">
+      <c r="E208" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="F208" s="5" t="s">
+      <c r="F208" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="G208" s="5" t="s">
+      <c r="G208" s="4" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="209" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E209" s="6" t="s">
+      <c r="E209" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="F209" s="5" t="s">
+      <c r="F209" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="G209" s="5" t="s">
+      <c r="G209" s="4" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="210" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E210" s="6" t="s">
+      <c r="E210" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="F210" s="5" t="s">
+      <c r="F210" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="G210" s="5" t="s">
+      <c r="G210" s="4" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="211" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E211" s="6" t="s">
+      <c r="E211" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="F211" s="5" t="s">
+      <c r="F211" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="G211" s="5" t="s">
+      <c r="G211" s="4" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="212" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E212" s="6" t="s">
+      <c r="E212" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="F212" s="5" t="s">
+      <c r="F212" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="G212" s="5" t="s">
+      <c r="G212" s="4" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="213" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E213" s="6" t="s">
+      <c r="E213" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="F213" s="5" t="s">
+      <c r="F213" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="G213" s="5" t="s">
+      <c r="G213" s="4" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="214" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E214" s="6" t="s">
+      <c r="E214" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="F214" s="5" t="s">
+      <c r="F214" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="G214" s="5" t="s">
+      <c r="G214" s="4" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="215" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E215" s="6" t="s">
+      <c r="E215" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="F215" s="6" t="s">
+      <c r="F215" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="G215" s="6" t="s">
+      <c r="G215" s="5" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="216" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E216" s="6" t="s">
+      <c r="E216" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="F216" s="6" t="s">
+      <c r="F216" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="G216" s="6" t="s">
+      <c r="G216" s="5" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="217" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E217" s="6" t="s">
+      <c r="E217" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="F217" s="5" t="s">
+      <c r="F217" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="G217" s="5" t="s">
+      <c r="G217" s="4" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="218" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E218" s="6" t="s">
+      <c r="E218" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="F218" s="5" t="s">
+      <c r="F218" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="G218" s="5" t="s">
+      <c r="G218" s="4" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="219" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E219" s="6" t="s">
+      <c r="E219" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="F219" s="5" t="s">
+      <c r="F219" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="G219" s="5" t="s">
+      <c r="G219" s="4" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="220" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E220" s="6" t="s">
+      <c r="E220" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="F220" s="5" t="s">
+      <c r="F220" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="G220" s="5" t="s">
+      <c r="G220" s="4" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="221" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E221" s="6" t="s">
+      <c r="E221" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="F221" s="5" t="s">
+      <c r="F221" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="G221" s="5" t="s">
+      <c r="G221" s="4" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="222" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E222" s="6" t="s">
+      <c r="E222" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="F222" s="5" t="s">
+      <c r="F222" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="G222" s="5" t="s">
+      <c r="G222" s="4" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="223" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E223" s="6" t="s">
+      <c r="E223" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="F223" s="5" t="s">
+      <c r="F223" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="G223" s="5" t="s">
+      <c r="G223" s="4" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="224" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E224" s="6" t="s">
+      <c r="E224" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="F224" s="6" t="s">
+      <c r="F224" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="G224" s="6" t="s">
+      <c r="G224" s="5" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="225" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E225" s="6" t="s">
+      <c r="E225" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="F225" s="5" t="s">
+      <c r="F225" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="G225" s="5" t="s">
+      <c r="G225" s="4" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="226" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E226" s="6" t="s">
+      <c r="E226" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="F226" s="5" t="s">
+      <c r="F226" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="G226" s="5" t="s">
+      <c r="G226" s="4" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="227" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E227" s="6" t="s">
+      <c r="E227" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="F227" s="5" t="s">
+      <c r="F227" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="G227" s="5" t="s">
+      <c r="G227" s="4" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="228" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E228" s="6" t="s">
+      <c r="E228" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="F228" s="5" t="s">
+      <c r="F228" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="G228" s="5" t="s">
+      <c r="G228" s="4" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="229" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E229" s="6" t="s">
+      <c r="E229" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="F229" s="5" t="s">
+      <c r="F229" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="G229" s="5" t="s">
+      <c r="G229" s="4" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="230" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E230" s="6" t="s">
+      <c r="E230" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="F230" s="5" t="s">
+      <c r="F230" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="G230" s="5" t="s">
+      <c r="G230" s="4" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="231" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E231" s="6" t="s">
+      <c r="E231" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="F231" s="5" t="s">
+      <c r="F231" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="G231" s="5" t="s">
+      <c r="G231" s="4" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="232" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E232" s="6" t="s">
+      <c r="E232" s="5" t="s">
         <v>675</v>
       </c>
-      <c r="F232" s="5" t="s">
+      <c r="F232" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="G232" s="5" t="s">
+      <c r="G232" s="4" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="233" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E233" s="6" t="s">
+      <c r="E233" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="F233" s="5" t="s">
+      <c r="F233" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="G233" s="5" t="s">
+      <c r="G233" s="4" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="234" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E234" s="6" t="s">
+      <c r="E234" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="F234" s="5" t="s">
+      <c r="F234" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="G234" s="5" t="s">
+      <c r="G234" s="4" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="235" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E235" s="6" t="s">
+      <c r="E235" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="F235" s="5" t="s">
+      <c r="F235" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="G235" s="5" t="s">
+      <c r="G235" s="4" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="236" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E236" s="6" t="s">
+      <c r="E236" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="F236" s="5" t="s">
+      <c r="F236" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="G236" s="5" t="s">
+      <c r="G236" s="4" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="237" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E237" s="6" t="s">
+      <c r="E237" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="F237" s="5" t="s">
+      <c r="F237" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="G237" s="5" t="s">
+      <c r="G237" s="4" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="238" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E238" s="6" t="s">
+      <c r="E238" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="F238" s="5" t="s">
+      <c r="F238" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="G238" s="5" t="s">
+      <c r="G238" s="4" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="239" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E239" s="6" t="s">
+      <c r="E239" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="F239" s="5" t="s">
+      <c r="F239" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="G239" s="5" t="s">
+      <c r="G239" s="4" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="240" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E240" s="6" t="s">
+      <c r="E240" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="F240" s="6" t="s">
+      <c r="F240" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="G240" s="6" t="s">
+      <c r="G240" s="5" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="241" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E241" s="6" t="s">
+      <c r="E241" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="F241" s="5" t="s">
+      <c r="F241" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="G241" s="5" t="s">
+      <c r="G241" s="4" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="242" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E242" s="6" t="s">
+      <c r="E242" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="F242" s="5" t="s">
+      <c r="F242" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="G242" s="5" t="s">
+      <c r="G242" s="4" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="243" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E243" s="6" t="s">
+      <c r="E243" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="F243" s="5" t="s">
+      <c r="F243" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="G243" s="5" t="s">
+      <c r="G243" s="4" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="244" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E244" s="6" t="s">
+      <c r="E244" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="F244" s="5" t="s">
+      <c r="F244" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="G244" s="5" t="s">
+      <c r="G244" s="4" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="245" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E245" s="6" t="s">
+      <c r="E245" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="F245" s="6" t="s">
+      <c r="F245" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="G245" s="6" t="s">
+      <c r="G245" s="5" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="246" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E246" s="6" t="s">
+      <c r="E246" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="F246" s="5" t="s">
+      <c r="F246" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="G246" s="5" t="s">
+      <c r="G246" s="4" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="247" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E247" s="6" t="s">
+      <c r="E247" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="F247" s="5" t="s">
+      <c r="F247" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="G247" s="5" t="s">
+      <c r="G247" s="4" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="248" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E248" s="6" t="s">
+      <c r="E248" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="F248" s="5" t="s">
+      <c r="F248" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="G248" s="5" t="s">
+      <c r="G248" s="4" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="249" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E249" s="6" t="s">
+      <c r="E249" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="F249" s="5" t="s">
+      <c r="F249" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="G249" s="5" t="s">
+      <c r="G249" s="4" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="250" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E250" s="6" t="s">
+      <c r="E250" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="F250" s="5" t="s">
+      <c r="F250" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="G250" s="5" t="s">
+      <c r="G250" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="251" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E251" s="6" t="s">
+      <c r="E251" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F251" s="5" t="s">
+      <c r="F251" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G251" s="5" t="s">
+      <c r="G251" s="4" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="252" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E252" s="6" t="s">
+      <c r="E252" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F252" s="5" t="s">
+      <c r="F252" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="G252" s="5" t="s">
+      <c r="G252" s="4" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="253" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E253" s="6" t="s">
+      <c r="E253" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="F253" s="5" t="s">
+      <c r="F253" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="G253" s="5" t="s">
+      <c r="G253" s="4" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="254" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E254" s="6" t="s">
+      <c r="E254" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="F254" s="5" t="s">
+      <c r="F254" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="G254" s="5" t="s">
+      <c r="G254" s="4" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="255" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E255" s="6" t="s">
+      <c r="E255" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="F255" s="5" t="s">
+      <c r="F255" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="G255" s="5" t="s">
+      <c r="G255" s="4" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="256" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E256" s="6" t="s">
+      <c r="E256" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F256" s="5" t="s">
+      <c r="F256" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="G256" s="5" t="s">
+      <c r="G256" s="4" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="257" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E257" s="6" t="s">
+      <c r="E257" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="F257" s="5" t="s">
+      <c r="F257" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="G257" s="5" t="s">
+      <c r="G257" s="4" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="258" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E258" s="6" t="s">
+      <c r="E258" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F258" s="5" t="s">
+      <c r="F258" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="G258" s="5" t="s">
+      <c r="G258" s="4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="259" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E259" s="6" t="s">
+      <c r="E259" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="F259" s="5" t="s">
+      <c r="F259" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="G259" s="5" t="s">
+      <c r="G259" s="4" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="260" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E260" s="6" t="s">
+      <c r="E260" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="F260" s="5" t="s">
+      <c r="F260" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="G260" s="5" t="s">
+      <c r="G260" s="4" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="261" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E261" s="6" t="s">
+      <c r="E261" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="F261" s="5" t="s">
+      <c r="F261" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="G261" s="5" t="s">
+      <c r="G261" s="4" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="262" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E262" s="6" t="s">
+      <c r="E262" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="F262" s="5" t="s">
+      <c r="F262" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="G262" s="5" t="s">
+      <c r="G262" s="4" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="263" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E263" s="6" t="s">
+      <c r="E263" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="F263" s="5" t="s">
+      <c r="F263" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="G263" s="5" t="s">
+      <c r="G263" s="4" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="264" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E264" s="6" t="s">
+      <c r="E264" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F264" s="5" t="s">
+      <c r="F264" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="G264" s="5" t="s">
+      <c r="G264" s="4" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="265" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E265" s="6" t="s">
+      <c r="E265" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="F265" s="5" t="s">
+      <c r="F265" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="G265" s="5" t="s">
+      <c r="G265" s="4" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="266" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E266" s="6" t="s">
+      <c r="E266" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="F266" s="5" t="s">
+      <c r="F266" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="G266" s="5" t="s">
+      <c r="G266" s="4" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="267" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E267" s="6" t="s">
+      <c r="E267" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="F267" s="5" t="s">
+      <c r="F267" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="G267" s="5" t="s">
+      <c r="G267" s="4" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="268" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E268" s="6" t="s">
+      <c r="E268" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="F268" s="6" t="s">
+      <c r="F268" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="G268" s="6" t="s">
+      <c r="G268" s="5" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="269" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E269" s="6" t="s">
+      <c r="E269" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="F269" s="5" t="s">
+      <c r="F269" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="G269" s="5" t="s">
+      <c r="G269" s="4" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="270" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E270" s="6" t="s">
+      <c r="E270" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="F270" s="5" t="s">
+      <c r="F270" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="G270" s="5" t="s">
+      <c r="G270" s="4" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="271" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E271" s="6" t="s">
+      <c r="E271" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F271" s="5" t="s">
+      <c r="F271" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="G271" s="5" t="s">
+      <c r="G271" s="4" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="272" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E272" s="6" t="s">
+      <c r="E272" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F272" s="5" t="s">
+      <c r="F272" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="G272" s="5" t="s">
+      <c r="G272" s="4" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="273" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E273" s="6" t="s">
+      <c r="E273" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="F273" s="5" t="s">
+      <c r="F273" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G273" s="5" t="s">
+      <c r="G273" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="274" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E274" s="6" t="s">
+      <c r="E274" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="F274" s="5" t="s">
+      <c r="F274" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="G274" s="5" t="s">
+      <c r="G274" s="4" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="275" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E275" s="6" t="s">
+      <c r="E275" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F275" s="5" t="s">
+      <c r="F275" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="G275" s="5" t="s">
+      <c r="G275" s="4" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="276" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E276" s="6" t="s">
+      <c r="E276" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="F276" s="5" t="s">
+      <c r="F276" s="4" t="s">
         <v>734</v>
       </c>
-      <c r="G276" s="5" t="s">
+      <c r="G276" s="4" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="277" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E277" s="6" t="s">
+      <c r="E277" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="F277" s="5" t="s">
+      <c r="F277" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G277" s="5" t="s">
+      <c r="G277" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="278" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E278" s="6" t="s">
+      <c r="E278" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="F278" s="5" t="s">
+      <c r="F278" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="G278" s="5" t="s">
+      <c r="G278" s="4" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="279" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E279" s="6" t="s">
+      <c r="E279" s="5" t="s">
         <v>738</v>
       </c>
-      <c r="F279" s="5" t="s">
+      <c r="F279" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="G279" s="5" t="s">
+      <c r="G279" s="4" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="280" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E280" s="6" t="s">
+      <c r="E280" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="F280" s="5" t="s">
+      <c r="F280" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="G280" s="5" t="s">
+      <c r="G280" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="281" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E281" s="6" t="s">
+      <c r="E281" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="F281" s="5" t="s">
+      <c r="F281" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="G281" s="5" t="s">
+      <c r="G281" s="4" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="282" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E282" s="6" t="s">
+      <c r="E282" s="5" t="s">
         <v>740</v>
       </c>
-      <c r="F282" s="5" t="s">
+      <c r="F282" s="4" t="s">
         <v>741</v>
       </c>
-      <c r="G282" s="5" t="s">
+      <c r="G282" s="4" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="283" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E283" s="6" t="s">
+      <c r="E283" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="F283" s="5" t="s">
+      <c r="F283" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="G283" s="5" t="s">
+      <c r="G283" s="4" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="284" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E284" s="6" t="s">
+      <c r="E284" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="F284" s="5" t="s">
+      <c r="F284" s="4" t="s">
         <v>744</v>
       </c>
-      <c r="G284" s="5" t="s">
+      <c r="G284" s="4" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="285" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E285" s="6" t="s">
+      <c r="E285" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="F285" s="6" t="s">
+      <c r="F285" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="G285" s="6" t="s">
+      <c r="G285" s="5" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="286" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E286" s="6" t="s">
+      <c r="E286" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="F286" s="5" t="s">
+      <c r="F286" s="4" t="s">
         <v>747</v>
       </c>
-      <c r="G286" s="5" t="s">
+      <c r="G286" s="4" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="287" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E287" s="6" t="s">
+      <c r="E287" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="F287" s="5" t="s">
+      <c r="F287" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="G287" s="5" t="s">
+      <c r="G287" s="4" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="288" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E288" s="6" t="s">
+      <c r="E288" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="F288" s="5" t="s">
+      <c r="F288" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="G288" s="5" t="s">
+      <c r="G288" s="4" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="289" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E289" s="6" t="s">
+      <c r="E289" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="F289" s="5" t="s">
+      <c r="F289" s="4" t="s">
         <v>750</v>
       </c>
-      <c r="G289" s="5" t="s">
+      <c r="G289" s="4" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="290" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E290" s="6" t="s">
+      <c r="E290" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="F290" s="6" t="s">
+      <c r="F290" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="G290" s="6" t="s">
+      <c r="G290" s="5" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="291" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E291" s="6" t="s">
+      <c r="E291" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="F291" s="5" t="s">
+      <c r="F291" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="G291" s="5" t="s">
+      <c r="G291" s="4" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="292" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E292" s="6" t="s">
+      <c r="E292" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="F292" s="6" t="s">
+      <c r="F292" s="5" t="s">
         <v>752</v>
       </c>
-      <c r="G292" s="6" t="s">
+      <c r="G292" s="5" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="293" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E293" s="6" t="s">
+      <c r="E293" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="F293" s="5" t="s">
+      <c r="F293" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="G293" s="5" t="s">
+      <c r="G293" s="4" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="294" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E294" s="6" t="s">
+      <c r="E294" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="F294" s="5" t="s">
+      <c r="F294" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="G294" s="5" t="s">
+      <c r="G294" s="4" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="295" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E295" s="6" t="s">
+      <c r="E295" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="F295" s="5" t="s">
+      <c r="F295" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="G295" s="5" t="s">
+      <c r="G295" s="4" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="296" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E296" s="6" t="s">
+      <c r="E296" s="5" t="s">
         <v>757</v>
       </c>
-      <c r="F296" s="6" t="s">
+      <c r="F296" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="G296" s="6" t="s">
+      <c r="G296" s="5" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="297" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E297" s="6" t="s">
+      <c r="E297" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="F297" s="5" t="s">
+      <c r="F297" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="G297" s="5" t="s">
+      <c r="G297" s="4" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="298" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E298" s="6" t="s">
+      <c r="E298" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="F298" s="5" t="s">
+      <c r="F298" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="G298" s="5" t="s">
+      <c r="G298" s="4" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="299" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E299" s="6" t="s">
+      <c r="E299" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="F299" s="5" t="s">
+      <c r="F299" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="G299" s="5" t="s">
+      <c r="G299" s="4" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="300" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E300" s="6" t="s">
+      <c r="E300" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="F300" s="5" t="s">
+      <c r="F300" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="G300" s="5" t="s">
+      <c r="G300" s="4" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="301" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E301" s="6" t="s">
+      <c r="E301" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="F301" s="5" t="s">
+      <c r="F301" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="G301" s="5" t="s">
+      <c r="G301" s="4" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="302" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E302" s="6" t="s">
+      <c r="E302" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="F302" s="5" t="s">
+      <c r="F302" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="G302" s="5" t="s">
+      <c r="G302" s="4" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="303" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E303" s="6" t="s">
+      <c r="E303" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="F303" s="5" t="s">
+      <c r="F303" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="G303" s="5" t="s">
+      <c r="G303" s="4" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="304" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E304" s="6" t="s">
+      <c r="E304" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="F304" s="5" t="s">
+      <c r="F304" s="4" t="s">
         <v>765</v>
       </c>
-      <c r="G304" s="5" t="s">
+      <c r="G304" s="4" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="305" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E305" s="6" t="s">
+      <c r="E305" s="5" t="s">
         <v>766</v>
       </c>
-      <c r="F305" s="5" t="s">
+      <c r="F305" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="G305" s="5" t="s">
+      <c r="G305" s="4" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="306" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E306" s="6" t="s">
+      <c r="E306" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="F306" s="5" t="s">
+      <c r="F306" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="G306" s="5" t="s">
+      <c r="G306" s="4" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="307" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E307" s="6" t="s">
+      <c r="E307" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="F307" s="5" t="s">
+      <c r="F307" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="G307" s="5" t="s">
+      <c r="G307" s="4" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="308" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E308" s="6" t="s">
+      <c r="E308" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="F308" s="5" t="s">
+      <c r="F308" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="G308" s="5" t="s">
+      <c r="G308" s="4" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="309" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E309" s="6" t="s">
+      <c r="E309" s="5" t="s">
         <v>776</v>
       </c>
-      <c r="F309" s="5" t="s">
+      <c r="F309" s="4" t="s">
         <v>777</v>
       </c>
-      <c r="G309" s="5" t="s">
+      <c r="G309" s="4" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="310" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E310" s="6" t="s">
+      <c r="E310" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="F310" s="5" t="s">
+      <c r="F310" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="G310" s="5" t="s">
+      <c r="G310" s="4" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="311" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E311" s="6" t="s">
+      <c r="E311" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="F311" s="5" t="s">
+      <c r="F311" s="4" t="s">
         <v>781</v>
       </c>
-      <c r="G311" s="5" t="s">
+      <c r="G311" s="4" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="312" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E312" s="6" t="s">
+      <c r="E312" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="F312" s="6" t="s">
+      <c r="F312" s="5" t="s">
         <v>783</v>
       </c>
-      <c r="G312" s="6" t="s">
+      <c r="G312" s="5" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="313" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E313" s="6" t="s">
+      <c r="E313" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="F313" s="5" t="s">
+      <c r="F313" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="G313" s="5" t="s">
+      <c r="G313" s="4" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="314" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E314" s="6" t="s">
+      <c r="E314" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="F314" s="5" t="s">
+      <c r="F314" s="4" t="s">
         <v>785</v>
       </c>
-      <c r="G314" s="5" t="s">
+      <c r="G314" s="4" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="315" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E315" s="6" t="s">
+      <c r="E315" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F315" s="5" t="s">
+      <c r="F315" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G315" s="5" t="s">
+      <c r="G315" s="4" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="316" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E316" s="6" t="s">
+      <c r="E316" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="F316" s="5" t="s">
+      <c r="F316" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="G316" s="5" t="s">
+      <c r="G316" s="4" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="317" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E317" s="6" t="s">
+      <c r="E317" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="F317" s="5" t="s">
+      <c r="F317" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="G317" s="5" t="s">
+      <c r="G317" s="4" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="318" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E318" s="6" t="s">
+      <c r="E318" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="F318" s="5" t="s">
+      <c r="F318" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="G318" s="5" t="s">
+      <c r="G318" s="4" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="319" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E319" s="6" t="s">
+      <c r="E319" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="F319" s="5" t="s">
+      <c r="F319" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="G319" s="5" t="s">
+      <c r="G319" s="4" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="320" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E320" s="6" t="s">
+      <c r="E320" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="F320" s="5" t="s">
+      <c r="F320" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="G320" s="5" t="s">
+      <c r="G320" s="4" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="321" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E321" s="6" t="s">
+      <c r="E321" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="F321" s="5" t="s">
+      <c r="F321" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G321" s="5" t="s">
+      <c r="G321" s="4" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="322" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E322" s="6" t="s">
+      <c r="E322" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="F322" s="5" t="s">
+      <c r="F322" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="G322" s="5" t="s">
+      <c r="G322" s="4" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="323" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E323" s="6" t="s">
+      <c r="E323" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="F323" s="5" t="s">
+      <c r="F323" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="G323" s="5" t="s">
+      <c r="G323" s="4" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="324" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E324" s="6" t="s">
+      <c r="E324" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="F324" s="5" t="s">
+      <c r="F324" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="G324" s="5" t="s">
+      <c r="G324" s="4" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="325" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E325" s="6" t="s">
+      <c r="E325" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="F325" s="5" t="s">
+      <c r="F325" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="G325" s="5" t="s">
+      <c r="G325" s="4" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="326" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E326" s="6" t="s">
+      <c r="E326" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="F326" s="5" t="s">
+      <c r="F326" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="G326" s="5" t="s">
+      <c r="G326" s="4" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="327" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E327" s="6" t="s">
+      <c r="E327" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="F327" s="5" t="s">
+      <c r="F327" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="G327" s="5" t="s">
+      <c r="G327" s="4" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="328" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E328" s="6" t="s">
+      <c r="E328" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="F328" s="5" t="s">
+      <c r="F328" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="G328" s="5" t="s">
+      <c r="G328" s="4" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="329" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E329" s="6" t="s">
+      <c r="E329" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="F329" s="5" t="s">
+      <c r="F329" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="G329" s="5" t="s">
+      <c r="G329" s="4" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="330" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E330" s="6" t="s">
+      <c r="E330" s="5" t="s">
         <v>798</v>
       </c>
-      <c r="F330" s="5" t="s">
+      <c r="F330" s="4" t="s">
         <v>798</v>
       </c>
-      <c r="G330" s="5" t="s">
+      <c r="G330" s="4" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="331" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E331" s="6" t="s">
+      <c r="E331" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="F331" s="5" t="s">
+      <c r="F331" s="4" t="s">
         <v>799</v>
       </c>
-      <c r="G331" s="5" t="s">
+      <c r="G331" s="4" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="332" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E332" s="6" t="s">
+      <c r="E332" s="5" t="s">
         <v>800</v>
       </c>
-      <c r="F332" s="5" t="s">
+      <c r="F332" s="4" t="s">
         <v>801</v>
       </c>
-      <c r="G332" s="5" t="s">
+      <c r="G332" s="4" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="333" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E333" s="6" t="s">
+      <c r="E333" s="5" t="s">
         <v>803</v>
       </c>
-      <c r="F333" s="5" t="s">
+      <c r="F333" s="4" t="s">
         <v>804</v>
       </c>
-      <c r="G333" s="5" t="s">
+      <c r="G333" s="4" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="334" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E334" s="6" t="s">
+      <c r="E334" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="F334" s="5" t="s">
+      <c r="F334" s="4" t="s">
         <v>806</v>
       </c>
-      <c r="G334" s="5" t="s">
+      <c r="G334" s="4" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="335" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E335" s="6" t="s">
+      <c r="E335" s="5" t="s">
         <v>807</v>
       </c>
-      <c r="F335" s="6" t="s">
+      <c r="F335" s="5" t="s">
         <v>808</v>
       </c>
-      <c r="G335" s="6" t="s">
+      <c r="G335" s="5" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="336" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E336" s="6" t="s">
+      <c r="E336" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="F336" s="5" t="s">
+      <c r="F336" s="4" t="s">
         <v>809</v>
       </c>
-      <c r="G336" s="5" t="s">
+      <c r="G336" s="4" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="337" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E337" s="6" t="s">
+      <c r="E337" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="F337" s="5" t="s">
+      <c r="F337" s="4" t="s">
         <v>810</v>
       </c>
-      <c r="G337" s="5" t="s">
+      <c r="G337" s="4" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="338" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E338" s="6" t="s">
+      <c r="E338" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="F338" s="5" t="s">
+      <c r="F338" s="4" t="s">
         <v>812</v>
       </c>
-      <c r="G338" s="5" t="s">
+      <c r="G338" s="4" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="339" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E339" s="6" t="s">
+      <c r="E339" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="F339" s="5" t="s">
+      <c r="F339" s="4" t="s">
         <v>814</v>
       </c>
-      <c r="G339" s="5" t="s">
+      <c r="G339" s="4" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="340" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E340" s="6" t="s">
+      <c r="E340" s="5" t="s">
         <v>816</v>
       </c>
-      <c r="F340" s="5" t="s">
+      <c r="F340" s="4" t="s">
         <v>817</v>
       </c>
-      <c r="G340" s="5" t="s">
+      <c r="G340" s="4" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="341" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E341" s="6" t="s">
+      <c r="E341" s="5" t="s">
         <v>819</v>
       </c>
-      <c r="F341" s="5" t="s">
+      <c r="F341" s="4" t="s">
         <v>820</v>
       </c>
-      <c r="G341" s="5" t="s">
+      <c r="G341" s="4" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="342" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E342" s="6" t="s">
+      <c r="E342" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="F342" s="5" t="s">
+      <c r="F342" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="G342" s="5" t="s">
+      <c r="G342" s="4" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="343" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E343" s="6" t="s">
+      <c r="E343" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="F343" s="5" t="s">
+      <c r="F343" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="G343" s="5" t="s">
+      <c r="G343" s="4" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="344" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E344" s="6" t="s">
+      <c r="E344" s="5" t="s">
         <v>823</v>
       </c>
-      <c r="F344" s="5" t="s">
+      <c r="F344" s="4" t="s">
         <v>824</v>
       </c>
-      <c r="G344" s="5" t="s">
+      <c r="G344" s="4" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="345" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E345" s="6" t="s">
+      <c r="E345" s="5" t="s">
         <v>826</v>
       </c>
-      <c r="F345" s="5" t="s">
+      <c r="F345" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="G345" s="5" t="s">
+      <c r="G345" s="4" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="346" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E346" s="6" t="s">
+      <c r="E346" s="5" t="s">
         <v>829</v>
       </c>
-      <c r="F346" s="5" t="s">
+      <c r="F346" s="4" t="s">
         <v>830</v>
       </c>
-      <c r="G346" s="5" t="s">
+      <c r="G346" s="4" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="347" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E347" s="6" t="s">
+      <c r="E347" s="5" t="s">
         <v>832</v>
       </c>
-      <c r="F347" s="5" t="s">
+      <c r="F347" s="4" t="s">
         <v>833</v>
       </c>
-      <c r="G347" s="5" t="s">
+      <c r="G347" s="4" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="348" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E348" s="6" t="s">
+      <c r="E348" s="5" t="s">
         <v>835</v>
       </c>
-      <c r="F348" s="5" t="s">
+      <c r="F348" s="4" t="s">
         <v>836</v>
       </c>
-      <c r="G348" s="5" t="s">
+      <c r="G348" s="4" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="349" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E349" s="6" t="s">
+      <c r="E349" s="5" t="s">
         <v>837</v>
       </c>
-      <c r="F349" s="5" t="s">
+      <c r="F349" s="4" t="s">
         <v>838</v>
       </c>
-      <c r="G349" s="5" t="s">
+      <c r="G349" s="4" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="350" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E350" s="6" t="s">
+      <c r="E350" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="F350" s="5" t="s">
+      <c r="F350" s="4" t="s">
         <v>841</v>
       </c>
-      <c r="G350" s="5" t="s">
+      <c r="G350" s="4" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="351" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E351" s="6" t="s">
+      <c r="E351" s="5" t="s">
         <v>842</v>
       </c>
-      <c r="F351" s="6" t="s">
+      <c r="F351" s="5" t="s">
         <v>843</v>
       </c>
-      <c r="G351" s="6" t="s">
+      <c r="G351" s="5" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="352" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E352" s="6" t="s">
+      <c r="E352" s="5" t="s">
         <v>844</v>
       </c>
-      <c r="F352" s="5" t="s">
+      <c r="F352" s="4" t="s">
         <v>845</v>
       </c>
-      <c r="G352" s="5" t="s">
+      <c r="G352" s="4" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="353" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E353" s="6" t="s">
+      <c r="E353" s="5" t="s">
         <v>847</v>
       </c>
-      <c r="F353" s="5" t="s">
+      <c r="F353" s="4" t="s">
         <v>848</v>
       </c>
-      <c r="G353" s="5" t="s">
+      <c r="G353" s="4" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="354" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E354" s="6" t="s">
+      <c r="E354" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="F354" s="5" t="s">
+      <c r="F354" s="4" t="s">
         <v>850</v>
       </c>
-      <c r="G354" s="5" t="s">
+      <c r="G354" s="4" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="355" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E355" s="6" t="s">
+      <c r="E355" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="F355" s="5" t="s">
+      <c r="F355" s="4" t="s">
         <v>852</v>
       </c>
-      <c r="G355" s="5" t="s">
+      <c r="G355" s="4" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="356" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E356" s="6" t="s">
+      <c r="E356" s="5" t="s">
         <v>853</v>
       </c>
-      <c r="F356" s="5" t="s">
+      <c r="F356" s="4" t="s">
         <v>854</v>
       </c>
-      <c r="G356" s="5" t="s">
+      <c r="G356" s="4" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="357" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E357" s="6" t="s">
+      <c r="E357" s="5" t="s">
         <v>855</v>
       </c>
-      <c r="F357" s="5" t="s">
+      <c r="F357" s="4" t="s">
         <v>856</v>
       </c>
-      <c r="G357" s="5" t="s">
+      <c r="G357" s="4" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="358" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E358" s="6" t="s">
+      <c r="E358" s="5" t="s">
         <v>858</v>
       </c>
-      <c r="F358" s="5" t="s">
+      <c r="F358" s="4" t="s">
         <v>859</v>
       </c>
-      <c r="G358" s="5" t="s">
+      <c r="G358" s="4" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="359" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E359" s="6" t="s">
+      <c r="E359" s="5" t="s">
         <v>860</v>
       </c>
-      <c r="F359" s="5" t="s">
+      <c r="F359" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="G359" s="5" t="s">
+      <c r="G359" s="4" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="360" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E360" s="6" t="s">
+      <c r="E360" s="5" t="s">
         <v>862</v>
       </c>
-      <c r="F360" s="5" t="s">
+      <c r="F360" s="4" t="s">
         <v>862</v>
       </c>
-      <c r="G360" s="5" t="s">
+      <c r="G360" s="4" t="s">
         <v>862</v>
       </c>
     </row>
@@ -7387,167 +7400,167 @@
       <c r="G361" s="7"/>
     </row>
     <row r="362" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E362" s="6" t="s">
+      <c r="E362" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="F362" s="5" t="s">
+      <c r="F362" s="4" t="s">
         <v>864</v>
       </c>
-      <c r="G362" s="5" t="s">
+      <c r="G362" s="4" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="363" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E363" s="6" t="s">
+      <c r="E363" s="5" t="s">
         <v>866</v>
       </c>
-      <c r="F363" s="5" t="s">
+      <c r="F363" s="4" t="s">
         <v>867</v>
       </c>
-      <c r="G363" s="5" t="s">
+      <c r="G363" s="4" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="364" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E364" s="6" t="s">
+      <c r="E364" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="F364" s="5" t="s">
+      <c r="F364" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G364" s="5" t="s">
+      <c r="G364" s="4" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="365" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E365" s="6" t="s">
+      <c r="E365" s="5" t="s">
         <v>868</v>
       </c>
-      <c r="F365" s="5" t="s">
+      <c r="F365" s="4" t="s">
         <v>869</v>
       </c>
-      <c r="G365" s="5" t="s">
+      <c r="G365" s="4" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="366" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E366" s="6" t="s">
+      <c r="E366" s="5" t="s">
         <v>871</v>
       </c>
-      <c r="F366" s="5" t="s">
+      <c r="F366" s="4" t="s">
         <v>872</v>
       </c>
-      <c r="G366" s="5" t="s">
+      <c r="G366" s="4" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="367" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E367" s="6" t="s">
+      <c r="E367" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="F367" s="5" t="s">
+      <c r="F367" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="G367" s="5" t="s">
+      <c r="G367" s="4" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="368" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E368" s="6" t="s">
+      <c r="E368" s="5" t="s">
         <v>873</v>
       </c>
-      <c r="F368" s="6" t="s">
+      <c r="F368" s="5" t="s">
         <v>874</v>
       </c>
-      <c r="G368" s="6" t="s">
+      <c r="G368" s="5" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="369" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E369" s="6" t="s">
+      <c r="E369" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="F369" s="5" t="s">
+      <c r="F369" s="4" t="s">
         <v>876</v>
       </c>
-      <c r="G369" s="5" t="s">
+      <c r="G369" s="4" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="370" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E370" s="6" t="s">
+      <c r="E370" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F370" s="5" t="s">
+      <c r="F370" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="G370" s="5" t="s">
+      <c r="G370" s="4" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="371" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E371" s="6" t="s">
+      <c r="E371" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="F371" s="5" t="s">
+      <c r="F371" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="G371" s="5" t="s">
+      <c r="G371" s="4" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="372" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E372" s="6" t="s">
+      <c r="E372" s="5" t="s">
         <v>877</v>
       </c>
-      <c r="F372" s="5" t="s">
+      <c r="F372" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G372" s="5" t="s">
+      <c r="G372" s="4" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="373" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E373" s="6" t="s">
+      <c r="E373" s="5" t="s">
         <v>880</v>
       </c>
-      <c r="F373" s="5" t="s">
+      <c r="F373" s="4" t="s">
         <v>881</v>
       </c>
-      <c r="G373" s="5" t="s">
+      <c r="G373" s="4" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="374" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E374" s="6" t="s">
+      <c r="E374" s="5" t="s">
         <v>882</v>
       </c>
-      <c r="F374" s="5" t="s">
+      <c r="F374" s="4" t="s">
         <v>883</v>
       </c>
-      <c r="G374" s="5" t="s">
+      <c r="G374" s="4" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="375" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E375" s="6" t="s">
+      <c r="E375" s="5" t="s">
         <v>884</v>
       </c>
-      <c r="F375" s="5" t="s">
+      <c r="F375" s="4" t="s">
         <v>885</v>
       </c>
-      <c r="G375" s="5" t="s">
+      <c r="G375" s="4" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="376" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E376" s="6" t="s">
+      <c r="E376" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="F376" s="5" t="s">
+      <c r="F376" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="G376" s="5" t="s">
+      <c r="G376" s="4" t="s">
         <v>244</v>
       </c>
     </row>

--- a/מתארים- descriptors.xlsx
+++ b/מתארים- descriptors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\AITextAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2FB937-BE23-4D47-BDD1-D121B67C05BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C69A10-45E5-4261-8596-A351A759B614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3134,8 +3134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3197,7 +3197,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3247,7 +3247,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C21" t="s">

--- a/מתארים- descriptors.xlsx
+++ b/מתארים- descriptors.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\AITextAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5924C8DB-F177-4048-9757-420F03057700}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C69A10-45E5-4261-8596-A351A759B614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="887">
   <si>
     <t>מילים</t>
   </si>
@@ -181,6 +188,2570 @@
   </si>
   <si>
     <t>when' might be a part of a sentence</t>
+  </si>
+  <si>
+    <t>was, were</t>
+  </si>
+  <si>
+    <t>been</t>
+  </si>
+  <si>
+    <t>beat</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>became</t>
+  </si>
+  <si>
+    <t>begin</t>
+  </si>
+  <si>
+    <t>began</t>
+  </si>
+  <si>
+    <t>begun</t>
+  </si>
+  <si>
+    <t>bend</t>
+  </si>
+  <si>
+    <t>bent</t>
+  </si>
+  <si>
+    <t>bet</t>
+  </si>
+  <si>
+    <t>bid</t>
+  </si>
+  <si>
+    <t>bite</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>blow</t>
+  </si>
+  <si>
+    <t>blew</t>
+  </si>
+  <si>
+    <t>blown</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>bring</t>
+  </si>
+  <si>
+    <t>brought</t>
+  </si>
+  <si>
+    <t>build</t>
+  </si>
+  <si>
+    <t>built</t>
+  </si>
+  <si>
+    <t>burn</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>catch</t>
+  </si>
+  <si>
+    <t>caught</t>
+  </si>
+  <si>
+    <t>choose</t>
+  </si>
+  <si>
+    <t>chose</t>
+  </si>
+  <si>
+    <t>chosen</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>came</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>dig</t>
+  </si>
+  <si>
+    <t>dug</t>
+  </si>
+  <si>
+    <t>dived</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>did</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>drew</t>
+  </si>
+  <si>
+    <t>drawn</t>
+  </si>
+  <si>
+    <t>dream</t>
+  </si>
+  <si>
+    <t>drive</t>
+  </si>
+  <si>
+    <t>drove</t>
+  </si>
+  <si>
+    <t>driven</t>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>drank</t>
+  </si>
+  <si>
+    <t>drunk</t>
+  </si>
+  <si>
+    <t>eat</t>
+  </si>
+  <si>
+    <t>ate</t>
+  </si>
+  <si>
+    <t>eaten</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>felt</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>fought</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>fly</t>
+  </si>
+  <si>
+    <t>flew</t>
+  </si>
+  <si>
+    <t>flown</t>
+  </si>
+  <si>
+    <t>forget</t>
+  </si>
+  <si>
+    <t>forgot</t>
+  </si>
+  <si>
+    <t>forgive</t>
+  </si>
+  <si>
+    <t>forgave</t>
+  </si>
+  <si>
+    <t>forgiven</t>
+  </si>
+  <si>
+    <t>freeze</t>
+  </si>
+  <si>
+    <t>froze</t>
+  </si>
+  <si>
+    <t>frozen</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>gave</t>
+  </si>
+  <si>
+    <t>given</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>went</t>
+  </si>
+  <si>
+    <t>gone</t>
+  </si>
+  <si>
+    <t>grow</t>
+  </si>
+  <si>
+    <t>grew</t>
+  </si>
+  <si>
+    <t>grown</t>
+  </si>
+  <si>
+    <t>hang</t>
+  </si>
+  <si>
+    <t>hung</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>had</t>
+  </si>
+  <si>
+    <t>hear</t>
+  </si>
+  <si>
+    <t>heard</t>
+  </si>
+  <si>
+    <t>hide</t>
+  </si>
+  <si>
+    <t>hid</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>held</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>kept</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>knew</t>
+  </si>
+  <si>
+    <t>known</t>
+  </si>
+  <si>
+    <t>lay</t>
+  </si>
+  <si>
+    <t>laid</t>
+  </si>
+  <si>
+    <t>lead</t>
+  </si>
+  <si>
+    <t>led</t>
+  </si>
+  <si>
+    <t>leave</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>lend</t>
+  </si>
+  <si>
+    <t>lent</t>
+  </si>
+  <si>
+    <t>let</t>
+  </si>
+  <si>
+    <t>lie</t>
+  </si>
+  <si>
+    <t>lain</t>
+  </si>
+  <si>
+    <t>lose</t>
+  </si>
+  <si>
+    <t>lost</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>meant</t>
+  </si>
+  <si>
+    <t>meet</t>
+  </si>
+  <si>
+    <t>met</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>ride</t>
+  </si>
+  <si>
+    <t>rode</t>
+  </si>
+  <si>
+    <t>ridden</t>
+  </si>
+  <si>
+    <t>ring</t>
+  </si>
+  <si>
+    <t>rang</t>
+  </si>
+  <si>
+    <t>rung</t>
+  </si>
+  <si>
+    <t>rise</t>
+  </si>
+  <si>
+    <t>rose</t>
+  </si>
+  <si>
+    <t>risen</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>ran</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>said</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>saw</t>
+  </si>
+  <si>
+    <t>seen</t>
+  </si>
+  <si>
+    <t>sell</t>
+  </si>
+  <si>
+    <t>sold</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>sent</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>showed</t>
+  </si>
+  <si>
+    <t>shut</t>
+  </si>
+  <si>
+    <t>sing</t>
+  </si>
+  <si>
+    <t>sang</t>
+  </si>
+  <si>
+    <t>sung</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>sat</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>slept</t>
+  </si>
+  <si>
+    <t>speak</t>
+  </si>
+  <si>
+    <t>spoke</t>
+  </si>
+  <si>
+    <t>spoken</t>
+  </si>
+  <si>
+    <t>spend</t>
+  </si>
+  <si>
+    <t>spent</t>
+  </si>
+  <si>
+    <t>stood</t>
+  </si>
+  <si>
+    <t>swim</t>
+  </si>
+  <si>
+    <t>swam</t>
+  </si>
+  <si>
+    <t>swum</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>took</t>
+  </si>
+  <si>
+    <t>taken</t>
+  </si>
+  <si>
+    <t>teach</t>
+  </si>
+  <si>
+    <t>taught</t>
+  </si>
+  <si>
+    <t>tear</t>
+  </si>
+  <si>
+    <t>tore</t>
+  </si>
+  <si>
+    <t>torn</t>
+  </si>
+  <si>
+    <t>tell</t>
+  </si>
+  <si>
+    <t>told</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>throw</t>
+  </si>
+  <si>
+    <t>threw</t>
+  </si>
+  <si>
+    <t>thrown</t>
+  </si>
+  <si>
+    <t>understand</t>
+  </si>
+  <si>
+    <t>understood</t>
+  </si>
+  <si>
+    <t>wake</t>
+  </si>
+  <si>
+    <t>wear</t>
+  </si>
+  <si>
+    <t>wore</t>
+  </si>
+  <si>
+    <t>worn</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>wrote</t>
+  </si>
+  <si>
+    <t>written</t>
+  </si>
+  <si>
+    <t>arise</t>
+  </si>
+  <si>
+    <t>arose</t>
+  </si>
+  <si>
+    <t>arisen</t>
+  </si>
+  <si>
+    <t>awake</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>bear</t>
+  </si>
+  <si>
+    <t>bore</t>
+  </si>
+  <si>
+    <t>bind</t>
+  </si>
+  <si>
+    <t>bound</t>
+  </si>
+  <si>
+    <t>bleed</t>
+  </si>
+  <si>
+    <t>bled</t>
+  </si>
+  <si>
+    <t>breed</t>
+  </si>
+  <si>
+    <t>bred</t>
+  </si>
+  <si>
+    <t>broadcast</t>
+  </si>
+  <si>
+    <t>burst</t>
+  </si>
+  <si>
+    <t>cling</t>
+  </si>
+  <si>
+    <t>clung</t>
+  </si>
+  <si>
+    <t>creep</t>
+  </si>
+  <si>
+    <t>crept</t>
+  </si>
+  <si>
+    <t>deal</t>
+  </si>
+  <si>
+    <t>dealt</t>
+  </si>
+  <si>
+    <t>feed</t>
+  </si>
+  <si>
+    <t>fed</t>
+  </si>
+  <si>
+    <t>forbid</t>
+  </si>
+  <si>
+    <t>forbade</t>
+  </si>
+  <si>
+    <t>forbidden</t>
+  </si>
+  <si>
+    <t>grind</t>
+  </si>
+  <si>
+    <t>ground</t>
+  </si>
+  <si>
+    <t>kneel</t>
+  </si>
+  <si>
+    <t>lean</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>lied</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>mow</t>
+  </si>
+  <si>
+    <t>mowed</t>
+  </si>
+  <si>
+    <t>overtake</t>
+  </si>
+  <si>
+    <t>overtook</t>
+  </si>
+  <si>
+    <t>overtaken</t>
+  </si>
+  <si>
+    <t>sawed</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>sew</t>
+  </si>
+  <si>
+    <t>sewed</t>
+  </si>
+  <si>
+    <t>shake</t>
+  </si>
+  <si>
+    <t>shook</t>
+  </si>
+  <si>
+    <t>shaken</t>
+  </si>
+  <si>
+    <t>shed</t>
+  </si>
+  <si>
+    <t>shine</t>
+  </si>
+  <si>
+    <t>shoot</t>
+  </si>
+  <si>
+    <t>shot</t>
+  </si>
+  <si>
+    <t>shrink</t>
+  </si>
+  <si>
+    <t>shrunk</t>
+  </si>
+  <si>
+    <t>sink</t>
+  </si>
+  <si>
+    <t>sunk</t>
+  </si>
+  <si>
+    <t>slide</t>
+  </si>
+  <si>
+    <t>slid</t>
+  </si>
+  <si>
+    <t>smell</t>
+  </si>
+  <si>
+    <t>sow</t>
+  </si>
+  <si>
+    <t>sowed</t>
+  </si>
+  <si>
+    <t>spell</t>
+  </si>
+  <si>
+    <t>spill</t>
+  </si>
+  <si>
+    <t>spit</t>
+  </si>
+  <si>
+    <t>spread</t>
+  </si>
+  <si>
+    <t>steal</t>
+  </si>
+  <si>
+    <t>stole</t>
+  </si>
+  <si>
+    <t>stolen</t>
+  </si>
+  <si>
+    <t>stick</t>
+  </si>
+  <si>
+    <t>stuck</t>
+  </si>
+  <si>
+    <t>sting</t>
+  </si>
+  <si>
+    <t>stung</t>
+  </si>
+  <si>
+    <t>stink</t>
+  </si>
+  <si>
+    <t>stunk</t>
+  </si>
+  <si>
+    <t>struck</t>
+  </si>
+  <si>
+    <t>swear</t>
+  </si>
+  <si>
+    <t>swore</t>
+  </si>
+  <si>
+    <t>sworn</t>
+  </si>
+  <si>
+    <t>sweep</t>
+  </si>
+  <si>
+    <t>swept</t>
+  </si>
+  <si>
+    <t>swell</t>
+  </si>
+  <si>
+    <t>swelled</t>
+  </si>
+  <si>
+    <t>swing</t>
+  </si>
+  <si>
+    <t>swung</t>
+  </si>
+  <si>
+    <t>weep</t>
+  </si>
+  <si>
+    <t>wept</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>wound</t>
+  </si>
+  <si>
+    <t>awakened / awoke</t>
+  </si>
+  <si>
+    <t>awakened / awoken</t>
+  </si>
+  <si>
+    <t>backslide</t>
+  </si>
+  <si>
+    <t>backslid</t>
+  </si>
+  <si>
+    <t>backslidden / backslid</t>
+  </si>
+  <si>
+    <t>born / borne</t>
+  </si>
+  <si>
+    <t>beaten / beat</t>
+  </si>
+  <si>
+    <t>bet / betted [?]</t>
+  </si>
+  <si>
+    <t>bid (farewell)</t>
+  </si>
+  <si>
+    <t>bid / bade</t>
+  </si>
+  <si>
+    <t>bidden</t>
+  </si>
+  <si>
+    <t>bid (offer amount)</t>
+  </si>
+  <si>
+    <t>broadcast / broadcasted</t>
+  </si>
+  <si>
+    <t>browbeat</t>
+  </si>
+  <si>
+    <t>browbeaten / browbeat</t>
+  </si>
+  <si>
+    <t>burned / burnt [?]</t>
+  </si>
+  <si>
+    <t>bust</t>
+  </si>
+  <si>
+    <t>busted / bust</t>
+  </si>
+  <si>
+    <t>cast</t>
+  </si>
+  <si>
+    <t>clothe</t>
+  </si>
+  <si>
+    <t>clothed / clad [?]</t>
+  </si>
+  <si>
+    <t>crossbreed</t>
+  </si>
+  <si>
+    <t>crossbred</t>
+  </si>
+  <si>
+    <t>daydream</t>
+  </si>
+  <si>
+    <t>daydreamed / daydreamt [?]</t>
+  </si>
+  <si>
+    <t>disprove</t>
+  </si>
+  <si>
+    <t>disproved</t>
+  </si>
+  <si>
+    <t>disproved / disproven</t>
+  </si>
+  <si>
+    <t>dive (jump head-first)</t>
+  </si>
+  <si>
+    <t>dove / dived</t>
+  </si>
+  <si>
+    <t>dive (scuba diving)</t>
+  </si>
+  <si>
+    <t>dived / dove</t>
+  </si>
+  <si>
+    <t>dreamed / dreamt [?]</t>
+  </si>
+  <si>
+    <t>dwell</t>
+  </si>
+  <si>
+    <t>dwelt / dwelled [?]</t>
+  </si>
+  <si>
+    <t>fit (tailor, change size)</t>
+  </si>
+  <si>
+    <t>fitted / fit [?]</t>
+  </si>
+  <si>
+    <t>fit (be right size)</t>
+  </si>
+  <si>
+    <t>fit / fitted [?]</t>
+  </si>
+  <si>
+    <t>flee</t>
+  </si>
+  <si>
+    <t>fled</t>
+  </si>
+  <si>
+    <t>fling</t>
+  </si>
+  <si>
+    <t>flung</t>
+  </si>
+  <si>
+    <t>forecast</t>
+  </si>
+  <si>
+    <t>forego (also forgo)</t>
+  </si>
+  <si>
+    <t>forewent</t>
+  </si>
+  <si>
+    <t>foregone</t>
+  </si>
+  <si>
+    <t>foresee</t>
+  </si>
+  <si>
+    <t>foresaw</t>
+  </si>
+  <si>
+    <t>foreseen</t>
+  </si>
+  <si>
+    <t>foretell</t>
+  </si>
+  <si>
+    <t>foretold</t>
+  </si>
+  <si>
+    <t>forgotten / forgot [?]</t>
+  </si>
+  <si>
+    <t>forsake</t>
+  </si>
+  <si>
+    <t>forsook</t>
+  </si>
+  <si>
+    <t>forsaken</t>
+  </si>
+  <si>
+    <t>frostbite</t>
+  </si>
+  <si>
+    <t>frostbit</t>
+  </si>
+  <si>
+    <t>frostbitten</t>
+  </si>
+  <si>
+    <t>gotten / got [?]</t>
+  </si>
+  <si>
+    <t>hand-feed</t>
+  </si>
+  <si>
+    <t>hand-fed</t>
+  </si>
+  <si>
+    <t>handwrite</t>
+  </si>
+  <si>
+    <t>handwrote</t>
+  </si>
+  <si>
+    <t>handwritten</t>
+  </si>
+  <si>
+    <t>hew</t>
+  </si>
+  <si>
+    <t>hewed</t>
+  </si>
+  <si>
+    <t>hewn / hewed</t>
+  </si>
+  <si>
+    <t>inbreed</t>
+  </si>
+  <si>
+    <t>inbred</t>
+  </si>
+  <si>
+    <t>inlay</t>
+  </si>
+  <si>
+    <t>inlaid</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>input / inputted</t>
+  </si>
+  <si>
+    <t>interbreed</t>
+  </si>
+  <si>
+    <t>interbred</t>
+  </si>
+  <si>
+    <t>interweave</t>
+  </si>
+  <si>
+    <t>interwove / interweaved</t>
+  </si>
+  <si>
+    <t>interwoven / interweaved</t>
+  </si>
+  <si>
+    <t>interwind</t>
+  </si>
+  <si>
+    <t>interwound</t>
+  </si>
+  <si>
+    <t>jerry-build</t>
+  </si>
+  <si>
+    <t>jerry-built</t>
+  </si>
+  <si>
+    <t>knelt / kneeled</t>
+  </si>
+  <si>
+    <t>knit</t>
+  </si>
+  <si>
+    <t>knitted / knit</t>
+  </si>
+  <si>
+    <t>leaned / leant [?]</t>
+  </si>
+  <si>
+    <t>leap</t>
+  </si>
+  <si>
+    <t>leaped / leapt [?]</t>
+  </si>
+  <si>
+    <t>learned / learnt [?]</t>
+  </si>
+  <si>
+    <t>lie (not tell truth) REGULAR</t>
+  </si>
+  <si>
+    <t>lit / lighted</t>
+  </si>
+  <si>
+    <t>lip-read</t>
+  </si>
+  <si>
+    <t>miscast</t>
+  </si>
+  <si>
+    <t>misdeal</t>
+  </si>
+  <si>
+    <t>misdealt</t>
+  </si>
+  <si>
+    <t>misdo</t>
+  </si>
+  <si>
+    <t>misdid</t>
+  </si>
+  <si>
+    <t>misdone</t>
+  </si>
+  <si>
+    <t>mishear</t>
+  </si>
+  <si>
+    <t>misheard</t>
+  </si>
+  <si>
+    <t>mislay</t>
+  </si>
+  <si>
+    <t>mislaid</t>
+  </si>
+  <si>
+    <t>mislead</t>
+  </si>
+  <si>
+    <t>misled</t>
+  </si>
+  <si>
+    <t>mislearn</t>
+  </si>
+  <si>
+    <t>mislearned / mislearnt [?]</t>
+  </si>
+  <si>
+    <t>misread</t>
+  </si>
+  <si>
+    <t>misset</t>
+  </si>
+  <si>
+    <t>misspeak</t>
+  </si>
+  <si>
+    <t>misspoke</t>
+  </si>
+  <si>
+    <t>misspoken</t>
+  </si>
+  <si>
+    <t>misspell</t>
+  </si>
+  <si>
+    <t>misspelled / misspelt [?]</t>
+  </si>
+  <si>
+    <t>misspend</t>
+  </si>
+  <si>
+    <t>misspent</t>
+  </si>
+  <si>
+    <t>mistake</t>
+  </si>
+  <si>
+    <t>mistook</t>
+  </si>
+  <si>
+    <t>mistaken</t>
+  </si>
+  <si>
+    <t>misteach</t>
+  </si>
+  <si>
+    <t>mistaught</t>
+  </si>
+  <si>
+    <t>misunderstand</t>
+  </si>
+  <si>
+    <t>misunderstood</t>
+  </si>
+  <si>
+    <t>miswrite</t>
+  </si>
+  <si>
+    <t>miswrote</t>
+  </si>
+  <si>
+    <t>miswritten</t>
+  </si>
+  <si>
+    <t>mowed / mown</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>outbid</t>
+  </si>
+  <si>
+    <t>outbreed</t>
+  </si>
+  <si>
+    <t>outbred</t>
+  </si>
+  <si>
+    <t>outdo</t>
+  </si>
+  <si>
+    <t>outdid</t>
+  </si>
+  <si>
+    <t>outdone</t>
+  </si>
+  <si>
+    <t>outdraw</t>
+  </si>
+  <si>
+    <t>outdrew</t>
+  </si>
+  <si>
+    <t>outdrawn</t>
+  </si>
+  <si>
+    <t>outdrink</t>
+  </si>
+  <si>
+    <t>outdrank</t>
+  </si>
+  <si>
+    <t>outdrunk</t>
+  </si>
+  <si>
+    <t>outdrive</t>
+  </si>
+  <si>
+    <t>outdrove</t>
+  </si>
+  <si>
+    <t>outdriven</t>
+  </si>
+  <si>
+    <t>outfight</t>
+  </si>
+  <si>
+    <t>outfought</t>
+  </si>
+  <si>
+    <t>outfly</t>
+  </si>
+  <si>
+    <t>outflew</t>
+  </si>
+  <si>
+    <t>outflown</t>
+  </si>
+  <si>
+    <t>outgrow</t>
+  </si>
+  <si>
+    <t>outgrew</t>
+  </si>
+  <si>
+    <t>outgrown</t>
+  </si>
+  <si>
+    <t>outleap</t>
+  </si>
+  <si>
+    <t>outleaped / outleapt [?]</t>
+  </si>
+  <si>
+    <t>outlie (not tell truth) REGULAR</t>
+  </si>
+  <si>
+    <t>outlied</t>
+  </si>
+  <si>
+    <t>outride</t>
+  </si>
+  <si>
+    <t>outrode</t>
+  </si>
+  <si>
+    <t>outridden</t>
+  </si>
+  <si>
+    <t>outrun</t>
+  </si>
+  <si>
+    <t>outran</t>
+  </si>
+  <si>
+    <t>outsell</t>
+  </si>
+  <si>
+    <t>outsold</t>
+  </si>
+  <si>
+    <t>outshine</t>
+  </si>
+  <si>
+    <t>outshined / outshone [?]</t>
+  </si>
+  <si>
+    <t>outshoot</t>
+  </si>
+  <si>
+    <t>outshot</t>
+  </si>
+  <si>
+    <t>outsing</t>
+  </si>
+  <si>
+    <t>outsang</t>
+  </si>
+  <si>
+    <t>outsung</t>
+  </si>
+  <si>
+    <t>outsit</t>
+  </si>
+  <si>
+    <t>outsat</t>
+  </si>
+  <si>
+    <t>outsleep</t>
+  </si>
+  <si>
+    <t>outslept</t>
+  </si>
+  <si>
+    <t>outsmell</t>
+  </si>
+  <si>
+    <t>outsmelled / outsmelt [?]</t>
+  </si>
+  <si>
+    <t>outspeak</t>
+  </si>
+  <si>
+    <t>outspoke</t>
+  </si>
+  <si>
+    <t>outspoken</t>
+  </si>
+  <si>
+    <t>outspeed</t>
+  </si>
+  <si>
+    <t>outsped</t>
+  </si>
+  <si>
+    <t>outspend</t>
+  </si>
+  <si>
+    <t>outspent</t>
+  </si>
+  <si>
+    <t>outswear</t>
+  </si>
+  <si>
+    <t>outswore</t>
+  </si>
+  <si>
+    <t>outsworn</t>
+  </si>
+  <si>
+    <t>outswim</t>
+  </si>
+  <si>
+    <t>outswam</t>
+  </si>
+  <si>
+    <t>outswum</t>
+  </si>
+  <si>
+    <t>outthink</t>
+  </si>
+  <si>
+    <t>outthought</t>
+  </si>
+  <si>
+    <t>outthrow</t>
+  </si>
+  <si>
+    <t>outthrew</t>
+  </si>
+  <si>
+    <t>outthrown</t>
+  </si>
+  <si>
+    <t>outwrite</t>
+  </si>
+  <si>
+    <t>outwrote</t>
+  </si>
+  <si>
+    <t>outwritten</t>
+  </si>
+  <si>
+    <t>overbid</t>
+  </si>
+  <si>
+    <t>overbreed</t>
+  </si>
+  <si>
+    <t>overbred</t>
+  </si>
+  <si>
+    <t>overbuild</t>
+  </si>
+  <si>
+    <t>overbuilt</t>
+  </si>
+  <si>
+    <t>overbuy</t>
+  </si>
+  <si>
+    <t>overbought</t>
+  </si>
+  <si>
+    <t>overcome</t>
+  </si>
+  <si>
+    <t>overcame</t>
+  </si>
+  <si>
+    <t>overdo</t>
+  </si>
+  <si>
+    <t>overdid</t>
+  </si>
+  <si>
+    <t>overdone</t>
+  </si>
+  <si>
+    <t>overdraw</t>
+  </si>
+  <si>
+    <t>overdrew</t>
+  </si>
+  <si>
+    <t>overdrawn</t>
+  </si>
+  <si>
+    <t>overdrink</t>
+  </si>
+  <si>
+    <t>overdrank</t>
+  </si>
+  <si>
+    <t>overdrunk</t>
+  </si>
+  <si>
+    <t>overeat</t>
+  </si>
+  <si>
+    <t>overate</t>
+  </si>
+  <si>
+    <t>overeaten</t>
+  </si>
+  <si>
+    <t>overfeed</t>
+  </si>
+  <si>
+    <t>overfed</t>
+  </si>
+  <si>
+    <t>overhang</t>
+  </si>
+  <si>
+    <t>overhung</t>
+  </si>
+  <si>
+    <t>overhear</t>
+  </si>
+  <si>
+    <t>overheard</t>
+  </si>
+  <si>
+    <t>overlay</t>
+  </si>
+  <si>
+    <t>overlaid</t>
+  </si>
+  <si>
+    <t>overpay</t>
+  </si>
+  <si>
+    <t>overpaid</t>
+  </si>
+  <si>
+    <t>override</t>
+  </si>
+  <si>
+    <t>overrode</t>
+  </si>
+  <si>
+    <t>overridden</t>
+  </si>
+  <si>
+    <t>overrun</t>
+  </si>
+  <si>
+    <t>overran</t>
+  </si>
+  <si>
+    <t>oversee</t>
+  </si>
+  <si>
+    <t>oversaw</t>
+  </si>
+  <si>
+    <t>overseen</t>
+  </si>
+  <si>
+    <t>oversell</t>
+  </si>
+  <si>
+    <t>oversold</t>
+  </si>
+  <si>
+    <t>oversew</t>
+  </si>
+  <si>
+    <t>oversewed</t>
+  </si>
+  <si>
+    <t>oversewn / oversewed</t>
+  </si>
+  <si>
+    <t>overshoot</t>
+  </si>
+  <si>
+    <t>overshot</t>
+  </si>
+  <si>
+    <t>oversleep</t>
+  </si>
+  <si>
+    <t>overslept</t>
+  </si>
+  <si>
+    <t>overspeak</t>
+  </si>
+  <si>
+    <t>overspoke</t>
+  </si>
+  <si>
+    <t>overspoken</t>
+  </si>
+  <si>
+    <t>overspend</t>
+  </si>
+  <si>
+    <t>overspent</t>
+  </si>
+  <si>
+    <t>overspill</t>
+  </si>
+  <si>
+    <t>overspilled / overspilt [?]</t>
+  </si>
+  <si>
+    <t>overthink</t>
+  </si>
+  <si>
+    <t>overthought</t>
+  </si>
+  <si>
+    <t>overthrow</t>
+  </si>
+  <si>
+    <t>overthrew</t>
+  </si>
+  <si>
+    <t>overthrown</t>
+  </si>
+  <si>
+    <t>overwind</t>
+  </si>
+  <si>
+    <t>overwound</t>
+  </si>
+  <si>
+    <t>overwrite</t>
+  </si>
+  <si>
+    <t>overwrote</t>
+  </si>
+  <si>
+    <t>overwritten</t>
+  </si>
+  <si>
+    <t>partake</t>
+  </si>
+  <si>
+    <t>partook</t>
+  </si>
+  <si>
+    <t>partaken</t>
+  </si>
+  <si>
+    <t>plead</t>
+  </si>
+  <si>
+    <t>pleaded / pled</t>
+  </si>
+  <si>
+    <t>prebuild</t>
+  </si>
+  <si>
+    <t>prebuilt</t>
+  </si>
+  <si>
+    <t>predo</t>
+  </si>
+  <si>
+    <t>predid</t>
+  </si>
+  <si>
+    <t>predone</t>
+  </si>
+  <si>
+    <t>premake</t>
+  </si>
+  <si>
+    <t>premade</t>
+  </si>
+  <si>
+    <t>prepay</t>
+  </si>
+  <si>
+    <t>prepaid</t>
+  </si>
+  <si>
+    <t>presell</t>
+  </si>
+  <si>
+    <t>presold</t>
+  </si>
+  <si>
+    <t>preset</t>
+  </si>
+  <si>
+    <t>preshrink</t>
+  </si>
+  <si>
+    <t>preshrank</t>
+  </si>
+  <si>
+    <t>preshrunk</t>
+  </si>
+  <si>
+    <t>proofread</t>
+  </si>
+  <si>
+    <t>prove</t>
+  </si>
+  <si>
+    <t>proved</t>
+  </si>
+  <si>
+    <t>proven / proved</t>
+  </si>
+  <si>
+    <t>quick-freeze</t>
+  </si>
+  <si>
+    <t>quick-froze</t>
+  </si>
+  <si>
+    <t>quick-frozen</t>
+  </si>
+  <si>
+    <t>quit</t>
+  </si>
+  <si>
+    <t>quit / quitted [?]</t>
+  </si>
+  <si>
+    <t>read (sounds like "red")</t>
+  </si>
+  <si>
+    <t>reawake</t>
+  </si>
+  <si>
+    <t>reawoke</t>
+  </si>
+  <si>
+    <t>reawaken</t>
+  </si>
+  <si>
+    <t>rebid</t>
+  </si>
+  <si>
+    <t>rebind</t>
+  </si>
+  <si>
+    <t>rebound</t>
+  </si>
+  <si>
+    <t>rebroadcast</t>
+  </si>
+  <si>
+    <t>rebroadcast / rebroadcasted</t>
+  </si>
+  <si>
+    <t>rebuild</t>
+  </si>
+  <si>
+    <t>rebuilt</t>
+  </si>
+  <si>
+    <t>recast</t>
+  </si>
+  <si>
+    <t>recut</t>
+  </si>
+  <si>
+    <t>redeal</t>
+  </si>
+  <si>
+    <t>redealt</t>
+  </si>
+  <si>
+    <t>redo</t>
+  </si>
+  <si>
+    <t>redid</t>
+  </si>
+  <si>
+    <t>redone</t>
+  </si>
+  <si>
+    <t>redraw</t>
+  </si>
+  <si>
+    <t>redrew</t>
+  </si>
+  <si>
+    <t>redrawn</t>
+  </si>
+  <si>
+    <t>refit (replace parts)</t>
+  </si>
+  <si>
+    <t>refit / refitted [?]</t>
+  </si>
+  <si>
+    <t>refit (retailor)</t>
+  </si>
+  <si>
+    <t>refitted / refit [?]</t>
+  </si>
+  <si>
+    <t>regrind</t>
+  </si>
+  <si>
+    <t>reground</t>
+  </si>
+  <si>
+    <t>regrow</t>
+  </si>
+  <si>
+    <t>regrew</t>
+  </si>
+  <si>
+    <t>regrown</t>
+  </si>
+  <si>
+    <t>rehang</t>
+  </si>
+  <si>
+    <t>rehung</t>
+  </si>
+  <si>
+    <t>rehear</t>
+  </si>
+  <si>
+    <t>reheard</t>
+  </si>
+  <si>
+    <t>reknit</t>
+  </si>
+  <si>
+    <t>reknitted / reknit</t>
+  </si>
+  <si>
+    <t>relay (for example tiles)</t>
+  </si>
+  <si>
+    <t>relaid</t>
+  </si>
+  <si>
+    <t>relay (pass along) REGULAR</t>
+  </si>
+  <si>
+    <t>relayed</t>
+  </si>
+  <si>
+    <t>relearn</t>
+  </si>
+  <si>
+    <t>relearned / relearnt [?]</t>
+  </si>
+  <si>
+    <t>relight</t>
+  </si>
+  <si>
+    <t>relit / relighted</t>
+  </si>
+  <si>
+    <t>remake</t>
+  </si>
+  <si>
+    <t>remade</t>
+  </si>
+  <si>
+    <t>repay</t>
+  </si>
+  <si>
+    <t>repaid</t>
+  </si>
+  <si>
+    <t>reread</t>
+  </si>
+  <si>
+    <t>rerun</t>
+  </si>
+  <si>
+    <t>reran</t>
+  </si>
+  <si>
+    <t>resell</t>
+  </si>
+  <si>
+    <t>resold</t>
+  </si>
+  <si>
+    <t>resend</t>
+  </si>
+  <si>
+    <t>resent</t>
+  </si>
+  <si>
+    <t>reset</t>
+  </si>
+  <si>
+    <t>resew</t>
+  </si>
+  <si>
+    <t>resewed</t>
+  </si>
+  <si>
+    <t>resewn / resewed</t>
+  </si>
+  <si>
+    <t>retake</t>
+  </si>
+  <si>
+    <t>retook</t>
+  </si>
+  <si>
+    <t>retaken</t>
+  </si>
+  <si>
+    <t>reteach</t>
+  </si>
+  <si>
+    <t>retaught</t>
+  </si>
+  <si>
+    <t>retear</t>
+  </si>
+  <si>
+    <t>retore</t>
+  </si>
+  <si>
+    <t>retorn</t>
+  </si>
+  <si>
+    <t>retell</t>
+  </si>
+  <si>
+    <t>retold</t>
+  </si>
+  <si>
+    <t>rethink</t>
+  </si>
+  <si>
+    <t>rethought</t>
+  </si>
+  <si>
+    <t>retread</t>
+  </si>
+  <si>
+    <t>retrofit</t>
+  </si>
+  <si>
+    <t>retrofitted / retrofit [?]</t>
+  </si>
+  <si>
+    <t>rewake</t>
+  </si>
+  <si>
+    <t>rewoke / rewaked</t>
+  </si>
+  <si>
+    <t>rewaken / rewaked</t>
+  </si>
+  <si>
+    <t>rewear</t>
+  </si>
+  <si>
+    <t>rewore</t>
+  </si>
+  <si>
+    <t>reworn</t>
+  </si>
+  <si>
+    <t>reweave</t>
+  </si>
+  <si>
+    <t>rewove / reweaved</t>
+  </si>
+  <si>
+    <t>rewoven / reweaved</t>
+  </si>
+  <si>
+    <t>rewed</t>
+  </si>
+  <si>
+    <t>rewed / rewedded</t>
+  </si>
+  <si>
+    <t>rewet</t>
+  </si>
+  <si>
+    <t>rewet / rewetted [?]</t>
+  </si>
+  <si>
+    <t>rewin</t>
+  </si>
+  <si>
+    <t>rewon</t>
+  </si>
+  <si>
+    <t>rewind</t>
+  </si>
+  <si>
+    <t>rewound</t>
+  </si>
+  <si>
+    <t>rewrite</t>
+  </si>
+  <si>
+    <t>rewrote</t>
+  </si>
+  <si>
+    <t>rewritten</t>
+  </si>
+  <si>
+    <t>rid</t>
+  </si>
+  <si>
+    <t>roughcast</t>
+  </si>
+  <si>
+    <t>sand-cast</t>
+  </si>
+  <si>
+    <t>sawed / sawn</t>
+  </si>
+  <si>
+    <t>seek</t>
+  </si>
+  <si>
+    <t>sought</t>
+  </si>
+  <si>
+    <t>sewn / sewed</t>
+  </si>
+  <si>
+    <t>shave</t>
+  </si>
+  <si>
+    <t>shaved</t>
+  </si>
+  <si>
+    <t>shaved / shaven</t>
+  </si>
+  <si>
+    <t>shear</t>
+  </si>
+  <si>
+    <t>sheared</t>
+  </si>
+  <si>
+    <t>sheared / shorn</t>
+  </si>
+  <si>
+    <t>shined / shone [?]</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">shit / </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / shitted</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">shit/ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / shitted</t>
+    </r>
+  </si>
+  <si>
+    <t>shown / showed</t>
+  </si>
+  <si>
+    <t>shrank / shrunk</t>
+  </si>
+  <si>
+    <t>sight-read</t>
+  </si>
+  <si>
+    <t>sank / sunk</t>
+  </si>
+  <si>
+    <t>slay (kill)</t>
+  </si>
+  <si>
+    <t>slew / slayed</t>
+  </si>
+  <si>
+    <t>slain / slayed</t>
+  </si>
+  <si>
+    <t>slay (amuse) REGULAR</t>
+  </si>
+  <si>
+    <t>slayed</t>
+  </si>
+  <si>
+    <t>sling</t>
+  </si>
+  <si>
+    <t>slung</t>
+  </si>
+  <si>
+    <t>slink</t>
+  </si>
+  <si>
+    <t>slinked / slunk</t>
+  </si>
+  <si>
+    <t>slit</t>
+  </si>
+  <si>
+    <t>smelled / smelt [?]</t>
+  </si>
+  <si>
+    <t>sneak</t>
+  </si>
+  <si>
+    <t>sneaked / snuck</t>
+  </si>
+  <si>
+    <t>sown / sowed</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>sped / speeded</t>
+  </si>
+  <si>
+    <t>spelled / spelt [?]</t>
+  </si>
+  <si>
+    <t>spilled / spilt [?]</t>
+  </si>
+  <si>
+    <t>spin</t>
+  </si>
+  <si>
+    <t>spun</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">spit / </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spat</t>
+    </r>
+  </si>
+  <si>
+    <t>split</t>
+  </si>
+  <si>
+    <t>spoil</t>
+  </si>
+  <si>
+    <t>spoiled / spoilt [?]</t>
+  </si>
+  <si>
+    <t>spoon-feed</t>
+  </si>
+  <si>
+    <t>spoon-fed</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>sprang / sprung</t>
+  </si>
+  <si>
+    <t>sprung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stand </t>
+  </si>
+  <si>
+    <t>stunk / stank</t>
+  </si>
+  <si>
+    <t>strew</t>
+  </si>
+  <si>
+    <t>strewed</t>
+  </si>
+  <si>
+    <t>strewn / strewed</t>
+  </si>
+  <si>
+    <t>stride</t>
+  </si>
+  <si>
+    <t>strode</t>
+  </si>
+  <si>
+    <t>stridden</t>
+  </si>
+  <si>
+    <t>strike (delete)</t>
+  </si>
+  <si>
+    <t>stricken</t>
+  </si>
+  <si>
+    <t>strike (hit)</t>
+  </si>
+  <si>
+    <t>struck / stricken</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>strung</t>
+  </si>
+  <si>
+    <t>strive</t>
+  </si>
+  <si>
+    <t>strove / strived</t>
+  </si>
+  <si>
+    <t>striven / strived</t>
+  </si>
+  <si>
+    <t>sublet</t>
+  </si>
+  <si>
+    <t>sunburn</t>
+  </si>
+  <si>
+    <t>sunburned / sunburnt [?]</t>
+  </si>
+  <si>
+    <t>sweat</t>
+  </si>
+  <si>
+    <t>sweat / sweated</t>
+  </si>
+  <si>
+    <t>swollen / swelled</t>
+  </si>
+  <si>
+    <t>telecast</t>
+  </si>
+  <si>
+    <t>test-drive</t>
+  </si>
+  <si>
+    <t>test-drove</t>
+  </si>
+  <si>
+    <t>test-driven</t>
+  </si>
+  <si>
+    <t>test-fly</t>
+  </si>
+  <si>
+    <t>test-flew</t>
+  </si>
+  <si>
+    <t>test-flown</t>
+  </si>
+  <si>
+    <t>thrust</t>
+  </si>
+  <si>
+    <t>tread</t>
+  </si>
+  <si>
+    <t>trod</t>
+  </si>
+  <si>
+    <t>trodden / trod</t>
+  </si>
+  <si>
+    <t>typecast</t>
+  </si>
+  <si>
+    <t>typeset</t>
+  </si>
+  <si>
+    <t>typewrite</t>
+  </si>
+  <si>
+    <t>typewrote</t>
+  </si>
+  <si>
+    <t>typewritten</t>
+  </si>
+  <si>
+    <t>unbend</t>
+  </si>
+  <si>
+    <t>unbent</t>
+  </si>
+  <si>
+    <t>unbind</t>
+  </si>
+  <si>
+    <t>unbound</t>
+  </si>
+  <si>
+    <t>unclothe</t>
+  </si>
+  <si>
+    <t>unclothed / unclad [?]</t>
+  </si>
+  <si>
+    <t>underbid</t>
+  </si>
+  <si>
+    <t>undercut</t>
+  </si>
+  <si>
+    <t>underfeed</t>
+  </si>
+  <si>
+    <t>underfed</t>
+  </si>
+  <si>
+    <t>undergo</t>
+  </si>
+  <si>
+    <t>underwent</t>
+  </si>
+  <si>
+    <t>undergone</t>
+  </si>
+  <si>
+    <t>underlie</t>
+  </si>
+  <si>
+    <t>underlay</t>
+  </si>
+  <si>
+    <t>underlain</t>
+  </si>
+  <si>
+    <t>undersell</t>
+  </si>
+  <si>
+    <t>undersold</t>
+  </si>
+  <si>
+    <t>underspend</t>
+  </si>
+  <si>
+    <t>underspent</t>
+  </si>
+  <si>
+    <t>undertake</t>
+  </si>
+  <si>
+    <t>undertook</t>
+  </si>
+  <si>
+    <t>undertaken</t>
+  </si>
+  <si>
+    <t>underwrite</t>
+  </si>
+  <si>
+    <t>underwrote</t>
+  </si>
+  <si>
+    <t>underwritten</t>
+  </si>
+  <si>
+    <t>undo</t>
+  </si>
+  <si>
+    <t>undid</t>
+  </si>
+  <si>
+    <t>undone</t>
+  </si>
+  <si>
+    <t>unfreeze</t>
+  </si>
+  <si>
+    <t>unfroze</t>
+  </si>
+  <si>
+    <t>unfrozen</t>
+  </si>
+  <si>
+    <t>unhang</t>
+  </si>
+  <si>
+    <t>unhung</t>
+  </si>
+  <si>
+    <t>unhide</t>
+  </si>
+  <si>
+    <t>unhid</t>
+  </si>
+  <si>
+    <t>unhidden</t>
+  </si>
+  <si>
+    <t>unknit</t>
+  </si>
+  <si>
+    <t>unknitted / unknit</t>
+  </si>
+  <si>
+    <t>unlearn</t>
+  </si>
+  <si>
+    <t>unlearned / unlearnt [?]</t>
+  </si>
+  <si>
+    <t>unsew</t>
+  </si>
+  <si>
+    <t>unsewed</t>
+  </si>
+  <si>
+    <t>unsewn / unsewed</t>
+  </si>
+  <si>
+    <t>unsling</t>
+  </si>
+  <si>
+    <t>unslung</t>
+  </si>
+  <si>
+    <t>unspin</t>
+  </si>
+  <si>
+    <t>unspun</t>
+  </si>
+  <si>
+    <t>unstick</t>
+  </si>
+  <si>
+    <t>unstuck</t>
+  </si>
+  <si>
+    <t>unstring</t>
+  </si>
+  <si>
+    <t>unstrung</t>
+  </si>
+  <si>
+    <t>unweave</t>
+  </si>
+  <si>
+    <t>unwove / unweaved</t>
+  </si>
+  <si>
+    <t>unwoven / unweaved</t>
+  </si>
+  <si>
+    <t>unwind</t>
+  </si>
+  <si>
+    <t>unwound</t>
+  </si>
+  <si>
+    <t>uphold</t>
+  </si>
+  <si>
+    <t>upheld</t>
+  </si>
+  <si>
+    <t>upset</t>
+  </si>
+  <si>
+    <t>No commonly used irregular verbs beginning with "V."</t>
+  </si>
+  <si>
+    <t>woke / waked</t>
+  </si>
+  <si>
+    <t>woken / waked</t>
+  </si>
+  <si>
+    <t>waylay</t>
+  </si>
+  <si>
+    <t>waylaid</t>
+  </si>
+  <si>
+    <t>weave</t>
+  </si>
+  <si>
+    <t>wove / weaved</t>
+  </si>
+  <si>
+    <t>woven / weaved</t>
+  </si>
+  <si>
+    <t>wed</t>
+  </si>
+  <si>
+    <t>wed / wedded</t>
+  </si>
+  <si>
+    <t>wet</t>
+  </si>
+  <si>
+    <t>wet / wetted [?]</t>
+  </si>
+  <si>
+    <t>whet  REGULAR</t>
+  </si>
+  <si>
+    <t>whetted</t>
+  </si>
+  <si>
+    <t>withdraw</t>
+  </si>
+  <si>
+    <t>withdrew</t>
+  </si>
+  <si>
+    <t>withdrawn</t>
+  </si>
+  <si>
+    <t>withhold</t>
+  </si>
+  <si>
+    <t>withheld</t>
+  </si>
+  <si>
+    <t>withstand</t>
+  </si>
+  <si>
+    <t>withstood</t>
+  </si>
+  <si>
+    <t>wring</t>
+  </si>
+  <si>
+    <t>wrung</t>
+  </si>
+  <si>
+    <t>לנרמל</t>
   </si>
 </sst>
 </file>
@@ -212,13 +2783,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -226,8 +2790,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,7 +2808,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -249,23 +2828,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
+  <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -548,7 +3135,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,40 +3156,40 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C9" t="s">
@@ -610,27 +3197,27 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+      <c r="B13" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="B14" s="9" t="s">
         <v>44</v>
       </c>
     </row>
@@ -640,37 +3227,40 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="C21" t="s">
+        <v>886</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+      <c r="B23" s="9" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -692,27 +3282,27 @@
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+      <c r="B28" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+      <c r="B29" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+      <c r="B30" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+      <c r="B31" s="9" t="s">
         <v>44</v>
       </c>
     </row>
@@ -720,27 +3310,27 @@
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+      <c r="B34" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
+      <c r="B35" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
+      <c r="B36" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+      <c r="B37" s="9" t="s">
         <v>44</v>
       </c>
     </row>
@@ -750,17 +3340,17 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
+      <c r="B40" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
+      <c r="B41" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
+      <c r="B42" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -852,4 +3442,4574 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA122E6C-9CCE-4211-8E22-06ECBA957879}">
+  <dimension ref="E3:G376"/>
+  <sheetViews>
+    <sheetView topLeftCell="A351" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T353" sqref="T353"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E3" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E4" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E5" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E6" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E7" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E13" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E14" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E15" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E17" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E20" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E22" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E23" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E24" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E26" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E27" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E29" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E31" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E32" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E33" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E34" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E35" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E36" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E37" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E38" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E39" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E40" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E41" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E42" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="43" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E43" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E44" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E45" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E46" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E47" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="48" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E48" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E49" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E50" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E51" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E52" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E53" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E54" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E55" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E56" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E57" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="58" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E58" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="59" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E59" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="60" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E60" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="61" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E61" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E62" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="63" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E63" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="64" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E64" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="65" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E65" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="66" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E66" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="67" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E67" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="68" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E68" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E69" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="70" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E70" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E71" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="72" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E72" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="73" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E73" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E74" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E75" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="76" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E76" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E77" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="78" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E78" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="79" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E79" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E80" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E81" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E82" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="83" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E83" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E84" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E85" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E86" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E87" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="88" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E88" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="89" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E89" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="90" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E90" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="91" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E91" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="92" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E92" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="93" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E93" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="94" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E94" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E95" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="96" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E96" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="97" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E97" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E98" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="99" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E99" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="100" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E100" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="101" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E101" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="102" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E102" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="103" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E103" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="104" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E104" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="105" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E105" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="106" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E106" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="107" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E107" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="108" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E108" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="109" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E109" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="110" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E110" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="111" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E111" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="112" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E112" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="113" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E113" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="114" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E114" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="115" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E115" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="116" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E116" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="117" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E117" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="118" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E118" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="119" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E119" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="120" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E120" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="121" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E121" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="122" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E122" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="123" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E123" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="124" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E124" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="125" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E125" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="126" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E126" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="127" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E127" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="128" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E128" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="129" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E129" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="130" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E130" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="131" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E131" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="132" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E132" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="133" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E133" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="134" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E134" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="135" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E135" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="136" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E136" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="137" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E137" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="138" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E138" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="139" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E139" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="140" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E140" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="141" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E141" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="142" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E142" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="143" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E143" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="144" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E144" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="145" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E145" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="146" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E146" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="147" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E147" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="148" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E148" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="149" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E149" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="150" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E150" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="151" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E151" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="152" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E152" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="153" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E153" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="154" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E154" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="155" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E155" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="156" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E156" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="157" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E157" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="158" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E158" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="159" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E159" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="160" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E160" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="161" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E161" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="162" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E162" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="163" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E163" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="164" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E164" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="165" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E165" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="166" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E166" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="167" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E167" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="168" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E168" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="169" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E169" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="170" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E170" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="171" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E171" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="172" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E172" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="173" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E173" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="174" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E174" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="175" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E175" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="176" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E176" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="177" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E177" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="178" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E178" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="179" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E179" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="180" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E180" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="181" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E181" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="182" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E182" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="183" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E183" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="G183" s="5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="184" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E184" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="185" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E185" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="186" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E186" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="187" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E187" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="188" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E188" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="189" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E189" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="190" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E190" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="191" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E191" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="192" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E192" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="193" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E193" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="194" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E194" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="195" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E195" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="196" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E196" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="197" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E197" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="198" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E198" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="199" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E199" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="200" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E200" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="G200" s="4" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="201" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E201" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="202" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E202" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="F202" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="G202" s="4" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="203" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E203" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="G203" s="5" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="204" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E204" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F204" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="G204" s="4" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="205" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E205" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="F205" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="G205" s="4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="206" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E206" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="F206" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="G206" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="207" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E207" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="F207" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="G207" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="208" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E208" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="F208" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="G208" s="4" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="209" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E209" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="F209" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="G209" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="210" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E210" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="F210" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="G210" s="4" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="211" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E211" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="F211" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="G211" s="4" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="212" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E212" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="G212" s="4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="213" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E213" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="G213" s="4" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="214" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E214" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="F214" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G214" s="4" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="215" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E215" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="F215" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="G215" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="216" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E216" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="G216" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="217" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E217" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="F217" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G217" s="4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="218" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E218" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="F218" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G218" s="4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="219" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E219" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="F219" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="G219" s="4" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="220" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E220" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="F220" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="G220" s="4" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="221" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E221" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="F221" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="G221" s="4" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="222" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E222" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="F222" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="G222" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="223" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E223" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="F223" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="G223" s="4" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="224" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E224" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="F224" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="G224" s="5" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="225" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E225" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="F225" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="G225" s="4" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="226" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E226" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="F226" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="G226" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="227" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E227" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="F227" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="G227" s="4" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="228" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E228" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="F228" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="G228" s="4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="229" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E229" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="F229" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="G229" s="4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="230" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E230" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="F230" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="G230" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="231" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E231" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="F231" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="G231" s="4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="232" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E232" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="F232" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="G232" s="4" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="233" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E233" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="F233" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="G233" s="4" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="234" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E234" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="F234" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="G234" s="4" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="235" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E235" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="F235" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="G235" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="236" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E236" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="F236" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="G236" s="4" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="237" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E237" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="F237" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="G237" s="4" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="238" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E238" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="F238" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="G238" s="4" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="239" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E239" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="F239" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="G239" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="240" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E240" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="F240" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="G240" s="5" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="241" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E241" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="F241" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="G241" s="4" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="242" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E242" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="F242" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="G242" s="4" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="243" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E243" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="F243" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="G243" s="4" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="244" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E244" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="F244" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="G244" s="4" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="245" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E245" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="F245" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="G245" s="5" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="246" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E246" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="F246" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="G246" s="4" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="247" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E247" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="F247" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="G247" s="4" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="248" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E248" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="F248" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="G248" s="4" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="249" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E249" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="F249" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="G249" s="4" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="250" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E250" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F250" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G250" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="251" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E251" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F251" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G251" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="252" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E252" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F252" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G252" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="253" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E253" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="F253" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="G253" s="4" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="254" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E254" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F254" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G254" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="255" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E255" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="F255" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="G255" s="4" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="256" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E256" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F256" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="G256" s="4" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="257" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E257" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F257" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G257" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="258" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E258" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F258" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G258" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="259" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E259" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="F259" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="G259" s="4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="260" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E260" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F260" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G260" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="261" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E261" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F261" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G261" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="262" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E262" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F262" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G262" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="263" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E263" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F263" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G263" s="4" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="264" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E264" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F264" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G264" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="265" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E265" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="F265" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="G265" s="4" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="266" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E266" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="F266" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="G266" s="4" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="267" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E267" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F267" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="G267" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="268" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E268" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F268" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="G268" s="5" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="269" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E269" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="F269" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="G269" s="4" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="270" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E270" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="F270" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G270" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="271" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E271" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F271" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G271" s="4" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="272" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E272" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F272" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="G272" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="273" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E273" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F273" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G273" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="274" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E274" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="F274" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="G274" s="4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="275" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E275" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F275" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G275" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="276" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E276" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F276" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="G276" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="277" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E277" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F277" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G277" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="278" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E278" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="F278" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="G278" s="4" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="279" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E279" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="F279" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="G279" s="4" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="280" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E280" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F280" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G280" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="281" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E281" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="F281" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="G281" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="282" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E282" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="F282" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="G282" s="4" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="283" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E283" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F283" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="G283" s="4" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="284" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E284" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="F284" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="G284" s="4" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="285" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E285" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F285" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="G285" s="5" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="286" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E286" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="F286" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="G286" s="4" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="287" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E287" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F287" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G287" s="4" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="288" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E288" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F288" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G288" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="289" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E289" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="F289" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="G289" s="4" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="290" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E290" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="F290" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="G290" s="5" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="291" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E291" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F291" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G291" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="292" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E292" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F292" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="G292" s="5" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="293" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E293" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="F293" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="G293" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="294" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E294" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F294" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="G294" s="4" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="295" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E295" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="F295" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="G295" s="4" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="296" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E296" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="F296" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="G296" s="5" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="297" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E297" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="F297" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="G297" s="4" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="298" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E298" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="F298" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="G298" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="299" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E299" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="F299" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="G299" s="4" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="300" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E300" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="F300" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G300" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="301" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E301" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="F301" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G301" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="302" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E302" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F302" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G302" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="303" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E303" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F303" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="G303" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="304" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E304" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F304" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="G304" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="305" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E305" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="F305" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="G305" s="4" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="306" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E306" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="F306" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="G306" s="4" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="307" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E307" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="F307" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="G307" s="4" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="308" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E308" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="F308" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="G308" s="4" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="309" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E309" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="F309" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="G309" s="4" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="310" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E310" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="F310" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="G310" s="4" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="311" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E311" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="F311" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="G311" s="4" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="312" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E312" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="F312" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="G312" s="5" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="313" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E313" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F313" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="G313" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="314" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E314" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="F314" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="G314" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="315" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E315" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F315" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G315" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="316" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E316" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F316" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="G316" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="317" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E317" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F317" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G317" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="318" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E318" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="F318" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="G318" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="319" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E319" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F319" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G319" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="320" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E320" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F320" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G320" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="321" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E321" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F321" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G321" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="322" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E322" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="F322" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="G322" s="4" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="323" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E323" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F323" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G323" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="324" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E324" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="F324" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="G324" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="325" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E325" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="F325" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="G325" s="4" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="326" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E326" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F326" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="G326" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="327" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E327" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F327" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G327" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="328" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E328" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="F328" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="G328" s="4" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="329" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E329" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="F329" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="G329" s="4" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="330" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E330" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="F330" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="G330" s="4" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="331" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E331" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="F331" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="G331" s="4" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="332" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E332" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="F332" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="G332" s="4" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="333" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E333" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="F333" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="G333" s="4" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="334" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E334" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="F334" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="G334" s="4" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="335" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E335" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="F335" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="G335" s="5" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="336" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E336" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="F336" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="G336" s="4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="337" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E337" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="F337" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="G337" s="4" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="338" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E338" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="F338" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="G338" s="4" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="339" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E339" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="F339" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="G339" s="4" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="340" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E340" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="F340" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="G340" s="4" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="341" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E341" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="F341" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="G341" s="4" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="342" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E342" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F342" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="G342" s="4" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="343" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E343" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F343" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="G343" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="344" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E344" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="F344" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="G344" s="4" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="345" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E345" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="F345" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="G345" s="4" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="346" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E346" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="F346" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="G346" s="4" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="347" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E347" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="F347" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="G347" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="348" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E348" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="F348" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="G348" s="4" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="349" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E349" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F349" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="G349" s="4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="350" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E350" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="F350" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="G350" s="4" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="351" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E351" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="F351" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="G351" s="5" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="352" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E352" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="F352" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="G352" s="4" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="353" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E353" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="F353" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="G353" s="4" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="354" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E354" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="F354" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="G354" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="355" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E355" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="F355" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="G355" s="4" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="356" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E356" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="F356" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="G356" s="4" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="357" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E357" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="F357" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="G357" s="4" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="358" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E358" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="F358" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="G358" s="4" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="359" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E359" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="F359" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="G359" s="4" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="360" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E360" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="F360" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="G360" s="4" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="361" spans="5:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E361" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="F361" s="7"/>
+      <c r="G361" s="7"/>
+    </row>
+    <row r="362" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E362" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F362" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="G362" s="4" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="363" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E363" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="F363" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="G363" s="4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="364" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E364" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F364" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G364" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="365" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E365" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="F365" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="G365" s="4" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="366" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E366" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="F366" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="G366" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="367" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E367" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="F367" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="G367" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="368" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E368" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="F368" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="G368" s="5" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="369" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E369" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="F369" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="G369" s="4" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="370" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E370" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F370" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G370" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="371" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E371" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="F371" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="G371" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="372" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E372" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="F372" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="G372" s="4" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="373" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E373" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="F373" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="G373" s="4" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="374" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E374" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="F374" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="G374" s="4" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="375" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E375" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="F375" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="G375" s="4" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="376" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E376" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F376" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G376" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E361:G361"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" display="https://www.onelook.com/?loc=pub&amp;w=arise" xr:uid="{86CD8698-FED7-45BD-89E3-BCF436A8D59C}"/>
+    <hyperlink ref="E4" r:id="rId2" display="https://www.onelook.com/?loc=pub&amp;w=awake" xr:uid="{67C3368D-6C1F-415C-84FD-9762F828B126}"/>
+    <hyperlink ref="E5" r:id="rId3" display="https://www.onelook.com/?loc=pub&amp;w=backslide" xr:uid="{2135BCE6-3D48-44C0-8D63-332318854DAD}"/>
+    <hyperlink ref="E6" r:id="rId4" display="https://www.onelook.com/?loc=pub&amp;w=be" xr:uid="{27EA38C8-AB47-4B90-A287-C078957AB739}"/>
+    <hyperlink ref="E7" r:id="rId5" display="https://www.onelook.com/?loc=pub&amp;w=bear" xr:uid="{AEB2DFCE-6EA6-4F44-95B2-60EE2E8A3EF4}"/>
+    <hyperlink ref="E8" r:id="rId6" display="https://www.onelook.com/?loc=pub&amp;w=beat" xr:uid="{48290793-5339-4AA6-944E-2579742B50FB}"/>
+    <hyperlink ref="E9" r:id="rId7" display="https://www.onelook.com/?loc=pub&amp;w=become" xr:uid="{D0E5A0FB-8262-49FC-BCAC-BFC4ACE6F6D2}"/>
+    <hyperlink ref="E10" r:id="rId8" display="https://www.onelook.com/?loc=pub&amp;w=begin" xr:uid="{544092AE-707F-4017-9AF9-058C5093FC70}"/>
+    <hyperlink ref="E11" r:id="rId9" display="https://www.onelook.com/?loc=pub&amp;w=bend" xr:uid="{AEF8FCD9-F33B-4DB8-8607-3FFA5CEA1BC4}"/>
+    <hyperlink ref="E12" r:id="rId10" display="https://www.onelook.com/?loc=pub&amp;w=bet" xr:uid="{2BAAC97B-74EF-4A4D-BE18-78412C4A0DA1}"/>
+    <hyperlink ref="F12" r:id="rId11" location="5" display="https://www.englishpage.com/irregularverbs/info.html - 5" xr:uid="{2B11F118-C6A3-486D-9F86-C831F19D956D}"/>
+    <hyperlink ref="G12" r:id="rId12" location="5" display="https://www.englishpage.com/irregularverbs/info.html - 5" xr:uid="{91377350-3794-4178-B014-6A19C8C0E969}"/>
+    <hyperlink ref="E13" r:id="rId13" display="https://www.onelook.com/?loc=pub&amp;w=bid" xr:uid="{329788E1-55C2-45AE-8C7E-C91B0D5B26F2}"/>
+    <hyperlink ref="E14" r:id="rId14" display="https://www.onelook.com/?loc=pub&amp;w=bid" xr:uid="{6DC9E727-9F15-4BE5-B2E5-6477244B2847}"/>
+    <hyperlink ref="E15" r:id="rId15" display="https://www.onelook.com/?loc=pub&amp;w=bind" xr:uid="{C93828A1-6F0A-4837-BF75-DA8A1AD08384}"/>
+    <hyperlink ref="E16" r:id="rId16" display="https://www.onelook.com/?loc=pub&amp;w=bite" xr:uid="{315D0857-5242-4DA9-9312-CDFD4DD294E2}"/>
+    <hyperlink ref="E17" r:id="rId17" display="https://www.onelook.com/?loc=pub&amp;w=bleed" xr:uid="{3D5A5258-FBB8-4EE4-BA8C-FCE241D1F8A4}"/>
+    <hyperlink ref="E18" r:id="rId18" display="https://www.onelook.com/?loc=pub&amp;w=blow" xr:uid="{B4D1A0AA-3B16-4CFF-A423-E483D15100ED}"/>
+    <hyperlink ref="E19" r:id="rId19" display="https://www.onelook.com/?loc=pub&amp;w=break" xr:uid="{5C879AD0-6124-4B24-8E8C-8CB213DAC17B}"/>
+    <hyperlink ref="E20" r:id="rId20" display="https://www.onelook.com/?loc=pub&amp;w=breed" xr:uid="{7DF8EC44-64E6-41FE-BBB4-D5A5C3AA25A3}"/>
+    <hyperlink ref="E21" r:id="rId21" display="https://www.onelook.com/?loc=pub&amp;w=bring" xr:uid="{CB8CDFB5-10EE-4359-A595-25EEA8F25FA4}"/>
+    <hyperlink ref="E22" r:id="rId22" display="https://www.onelook.com/?loc=pub&amp;w=broadcast" xr:uid="{FD2A3273-AA1B-4B4D-82BD-CA7D65E639EB}"/>
+    <hyperlink ref="E23" r:id="rId23" display="https://www.onelook.com/?loc=pub&amp;w=browbeat" xr:uid="{618B2322-CECD-40E3-89E1-B1BE3EC38E4C}"/>
+    <hyperlink ref="E24" r:id="rId24" display="https://www.onelook.com/?loc=pub&amp;w=build" xr:uid="{ADAF925E-DBCC-4D23-AFE3-1F295183EC66}"/>
+    <hyperlink ref="E25" r:id="rId25" display="https://www.onelook.com/?loc=pub&amp;w=burn" xr:uid="{935E1F43-7D4C-4F49-8625-FC6AE10AD400}"/>
+    <hyperlink ref="F25" r:id="rId26" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{753FA166-0CCF-4EB8-8BBC-2569B9B6C6A8}"/>
+    <hyperlink ref="G25" r:id="rId27" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{982AF926-5794-4952-B0BE-DC8368F13303}"/>
+    <hyperlink ref="E26" r:id="rId28" display="https://www.onelook.com/?loc=pub&amp;w=burst" xr:uid="{20A14930-3FCC-4DD0-9878-4DD21E0F7117}"/>
+    <hyperlink ref="E27" r:id="rId29" display="https://www.onelook.com/?loc=pub&amp;w=bust" xr:uid="{CD18522E-C85F-475D-8D2A-E4B26CD362EE}"/>
+    <hyperlink ref="E28" r:id="rId30" display="https://www.onelook.com/?loc=pub&amp;w=buy" xr:uid="{EB0F2DA2-BB53-492B-BD9F-CFA412440866}"/>
+    <hyperlink ref="E29" r:id="rId31" display="https://www.onelook.com/?loc=pub&amp;w=cast" xr:uid="{4DB62380-9352-4FC3-AF08-9EFE2E98A6CD}"/>
+    <hyperlink ref="E30" r:id="rId32" display="https://www.onelook.com/?loc=pub&amp;w=catch" xr:uid="{3E8434AD-6FE1-4274-9796-B4B14BED9C89}"/>
+    <hyperlink ref="E31" r:id="rId33" display="https://www.onelook.com/?loc=pub&amp;w=choose" xr:uid="{2FB9A3D7-8E92-4A1F-9D07-2B8C22188622}"/>
+    <hyperlink ref="E32" r:id="rId34" display="https://www.onelook.com/?loc=pub&amp;w=cling" xr:uid="{D079DCD1-A74B-43FC-9885-01FBE3217356}"/>
+    <hyperlink ref="E33" r:id="rId35" display="https://www.onelook.com/?loc=pub&amp;w=clothe" xr:uid="{BBF1BE56-140B-4426-AB19-FFF48BE8A3CF}"/>
+    <hyperlink ref="F33" r:id="rId36" location="6" display="https://www.englishpage.com/irregularverbs/info.html - 6" xr:uid="{ED5693DB-4B69-400A-982E-672BB807FC4B}"/>
+    <hyperlink ref="G33" r:id="rId37" location="6" display="https://www.englishpage.com/irregularverbs/info.html - 6" xr:uid="{B9858B90-89C7-492D-B024-1C278A9A38C4}"/>
+    <hyperlink ref="E34" r:id="rId38" display="https://www.onelook.com/?loc=pub&amp;w=come" xr:uid="{7094BF2A-19A6-4C07-8602-DD62ACE0DE9A}"/>
+    <hyperlink ref="E35" r:id="rId39" display="https://www.onelook.com/?loc=pub&amp;w=cost" xr:uid="{B1B7A2BC-C341-4630-8F4D-8BBA4B317551}"/>
+    <hyperlink ref="E36" r:id="rId40" display="https://www.onelook.com/?loc=pub&amp;w=creep" xr:uid="{B95E59F3-4D96-455C-926E-23BD85733891}"/>
+    <hyperlink ref="E37" r:id="rId41" display="https://www.onelook.com/?loc=pub&amp;w=crossbreed" xr:uid="{6724F68C-59A7-4976-B2B2-56B99D81C427}"/>
+    <hyperlink ref="E38" r:id="rId42" display="https://www.onelook.com/?loc=pub&amp;w=cut" xr:uid="{7DA88BF4-ED27-43A3-B5C1-A1EDA0F50FBF}"/>
+    <hyperlink ref="E39" r:id="rId43" display="https://www.onelook.com/?loc=pub&amp;w=daydream" xr:uid="{B27BB06A-7971-4FCE-B11C-BB10E0FD6171}"/>
+    <hyperlink ref="F39" r:id="rId44" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{734F241E-0BFB-40D6-B80A-801963220455}"/>
+    <hyperlink ref="G39" r:id="rId45" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{48E6E39B-7093-4EA9-B299-DBB33B02225C}"/>
+    <hyperlink ref="E40" r:id="rId46" display="https://www.onelook.com/?loc=pub&amp;w=deal" xr:uid="{829ABD49-733C-41F8-9DA9-2CA8601DF654}"/>
+    <hyperlink ref="E41" r:id="rId47" display="https://www.onelook.com/?loc=pub&amp;w=dig" xr:uid="{50CFB9B1-F6E3-4E71-BE06-BA451F392CDA}"/>
+    <hyperlink ref="E42" r:id="rId48" display="https://www.onelook.com/?loc=pub&amp;w=disprove" xr:uid="{295A6027-5F25-41F6-AFF1-37C08D210781}"/>
+    <hyperlink ref="E43" r:id="rId49" display="https://www.onelook.com/?loc=pub&amp;w=dive" xr:uid="{FB88CC8D-1C40-4C32-9A74-A63CBF746D35}"/>
+    <hyperlink ref="E44" r:id="rId50" display="https://www.onelook.com/?loc=pub&amp;w=dive" xr:uid="{1DFB8C85-9816-4484-A7E8-307F3F423F31}"/>
+    <hyperlink ref="E45" r:id="rId51" display="https://www.onelook.com/?loc=pub&amp;w=do" xr:uid="{1716E2C4-1CE7-42F4-ABFF-FB2C3EE56A33}"/>
+    <hyperlink ref="E46" r:id="rId52" display="https://www.onelook.com/?loc=pub&amp;w=draw" xr:uid="{402B0184-03AD-45DB-BD39-A2A53170453D}"/>
+    <hyperlink ref="E47" r:id="rId53" display="https://www.onelook.com/?loc=pub&amp;w=dream" xr:uid="{0992A857-3204-400C-AE1F-DE62AF48016B}"/>
+    <hyperlink ref="F47" r:id="rId54" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{BAACB282-4F5F-4677-A3FC-0F39E3F7B651}"/>
+    <hyperlink ref="G47" r:id="rId55" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{29ECB719-DA8E-4BAE-B586-4343D6AAF8B8}"/>
+    <hyperlink ref="E48" r:id="rId56" display="https://www.onelook.com/?loc=pub&amp;w=drink" xr:uid="{CCF2A2DD-14BC-43A2-A300-DAD1B4D1D998}"/>
+    <hyperlink ref="E49" r:id="rId57" display="https://www.onelook.com/?loc=pub&amp;w=drive" xr:uid="{D27C0410-6A3C-461A-922A-A38BFA7DDBC1}"/>
+    <hyperlink ref="E50" r:id="rId58" display="https://www.onelook.com/?loc=pub&amp;w=dwell" xr:uid="{AA81B7B2-0A31-4940-B115-2643CDFB0B63}"/>
+    <hyperlink ref="F50" r:id="rId59" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{681ED718-3CB4-4CEF-BBC2-8523C7DC2E8C}"/>
+    <hyperlink ref="G50" r:id="rId60" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{659FF0A4-5156-40E3-8220-102051ABE3C7}"/>
+    <hyperlink ref="E51" r:id="rId61" display="https://www.onelook.com/?loc=pub&amp;w=eat" xr:uid="{5D95493B-ACE0-449D-BA60-E559BF606E4E}"/>
+    <hyperlink ref="E52" r:id="rId62" display="https://www.onelook.com/?loc=pub&amp;w=fall" xr:uid="{BEA4D6AD-B71E-429A-B952-87939BC7FAD4}"/>
+    <hyperlink ref="E53" r:id="rId63" display="https://www.onelook.com/?loc=pub&amp;w=feed" xr:uid="{3F335968-64D1-4B9A-A7A0-D7C6F233D47B}"/>
+    <hyperlink ref="E54" r:id="rId64" display="https://www.onelook.com/?loc=pub&amp;w=feel" xr:uid="{71AA04BC-48A2-4B6E-B455-34084557081D}"/>
+    <hyperlink ref="E55" r:id="rId65" display="https://www.onelook.com/?loc=pub&amp;w=fight" xr:uid="{43002C58-7DBB-4904-BD1F-E7B8C3B612CA}"/>
+    <hyperlink ref="E56" r:id="rId66" display="https://www.onelook.com/?loc=pub&amp;w=find" xr:uid="{EA82F5C8-30E7-4BC5-A8FC-29CC6D535F5E}"/>
+    <hyperlink ref="E57" r:id="rId67" display="https://www.onelook.com/?loc=pub&amp;w=fit" xr:uid="{038AD956-4361-4118-8BB9-2D251C5D011C}"/>
+    <hyperlink ref="F57" r:id="rId68" location="7" display="https://www.englishpage.com/irregularverbs/info.html - 7" xr:uid="{B0CAA897-99BB-4B82-A389-712A935B8C64}"/>
+    <hyperlink ref="G57" r:id="rId69" location="7" display="https://www.englishpage.com/irregularverbs/info.html - 7" xr:uid="{1F19DFC0-C2AF-4D45-A834-F515867A67A9}"/>
+    <hyperlink ref="E58" r:id="rId70" display="https://www.onelook.com/?loc=pub&amp;w=fit" xr:uid="{F428362C-6103-4A51-9EF2-E4A2FBA1F4F8}"/>
+    <hyperlink ref="F58" r:id="rId71" location="7" display="https://www.englishpage.com/irregularverbs/info.html - 7" xr:uid="{BC50D8AC-E18D-474E-B6E5-D190D500E864}"/>
+    <hyperlink ref="G58" r:id="rId72" location="7" display="https://www.englishpage.com/irregularverbs/info.html - 7" xr:uid="{5A76E4E6-C965-4158-884D-487C32602B81}"/>
+    <hyperlink ref="E59" r:id="rId73" display="https://www.onelook.com/?loc=pub&amp;w=flee" xr:uid="{3794403D-D9C1-47F1-A39F-A78C26FDCF2F}"/>
+    <hyperlink ref="E60" r:id="rId74" display="https://www.onelook.com/?loc=pub&amp;w=fling" xr:uid="{628AD899-F866-480F-B0FD-4CA2D7943D24}"/>
+    <hyperlink ref="E61" r:id="rId75" display="https://www.onelook.com/?loc=pub&amp;w=fly" xr:uid="{0CC88133-79B2-4B36-A2F5-DE259A8B07B1}"/>
+    <hyperlink ref="E62" r:id="rId76" display="https://www.onelook.com/?loc=pub&amp;w=forbid" xr:uid="{02C4521A-B272-4588-8436-6EDC387BEBD0}"/>
+    <hyperlink ref="E63" r:id="rId77" display="https://www.onelook.com/?loc=pub&amp;w=forecast" xr:uid="{43CF53FB-BC37-446C-B92E-993A60CA8B30}"/>
+    <hyperlink ref="E64" r:id="rId78" display="https://www.onelook.com/?loc=pub&amp;w=forego" xr:uid="{7ECACAC4-4E22-4A15-B06A-A9AAB5C861B1}"/>
+    <hyperlink ref="E65" r:id="rId79" display="https://www.onelook.com/?loc=pub&amp;w=foresee" xr:uid="{D14A2BB5-FE5E-42FF-B339-BAC8BAA8DDF0}"/>
+    <hyperlink ref="E66" r:id="rId80" display="https://www.onelook.com/?loc=pub&amp;w=foretell" xr:uid="{F26AF02B-F61C-47ED-AF75-27C715D5013F}"/>
+    <hyperlink ref="E67" r:id="rId81" display="https://www.onelook.com/?loc=pub&amp;w=forget" xr:uid="{0388F2AE-C620-45A7-9AFE-A5562B4657EE}"/>
+    <hyperlink ref="G67" r:id="rId82" location="9" display="https://www.englishpage.com/irregularverbs/info.html - 9" xr:uid="{14EF4F3F-2018-46C4-8131-70B0FBC0EF85}"/>
+    <hyperlink ref="E68" r:id="rId83" display="https://www.onelook.com/?loc=pub&amp;w=forgive" xr:uid="{1A8165FE-92E5-400F-9B2D-62C9DC3D98E2}"/>
+    <hyperlink ref="E69" r:id="rId84" display="https://www.onelook.com/?loc=pub&amp;w=forsake" xr:uid="{41194C0B-1067-48BA-A649-6F7B84A3093F}"/>
+    <hyperlink ref="E70" r:id="rId85" display="https://www.onelook.com/?loc=pub&amp;w=freeze" xr:uid="{460F877A-2A82-415A-93D5-4B70E1AE1CA9}"/>
+    <hyperlink ref="E71" r:id="rId86" display="https://www.onelook.com/?loc=pub&amp;w=frostbite" xr:uid="{D5A94A20-836D-4E92-BAC4-B4740805CC45}"/>
+    <hyperlink ref="E72" r:id="rId87" display="https://www.onelook.com/?loc=pub&amp;w=get" xr:uid="{179AF548-733B-4773-BD3F-0133590682D4}"/>
+    <hyperlink ref="G72" r:id="rId88" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{9859081D-98A9-40F9-B11E-72C997F7DF64}"/>
+    <hyperlink ref="E73" r:id="rId89" display="https://www.onelook.com/?loc=pub&amp;w=give" xr:uid="{E18526E3-B23C-46C1-B24F-B8D90ECC3CB1}"/>
+    <hyperlink ref="E74" r:id="rId90" display="https://www.onelook.com/?loc=pub&amp;w=go" xr:uid="{94D49884-C9B7-445C-A1D2-FCC4B36EAA13}"/>
+    <hyperlink ref="E75" r:id="rId91" display="https://www.onelook.com/?loc=pub&amp;w=grind" xr:uid="{4ABFCCE3-737E-4269-9FA8-6CC9132DC770}"/>
+    <hyperlink ref="E76" r:id="rId92" display="https://www.onelook.com/?loc=pub&amp;w=grow" xr:uid="{3478B3EC-7942-4CEE-A574-A76DDBB041C4}"/>
+    <hyperlink ref="E77" r:id="rId93" display="https://www.onelook.com/?loc=pub&amp;w=hand-feed" xr:uid="{5BEF5C51-D2A7-4B80-A94B-2A682E766E5A}"/>
+    <hyperlink ref="E78" r:id="rId94" display="https://www.onelook.com/?loc=pub&amp;w=handwrite" xr:uid="{D8F714BE-5A4C-4DAA-85BC-CD3757ECCAC8}"/>
+    <hyperlink ref="E79" r:id="rId95" display="https://www.onelook.com/?loc=pub&amp;w=hang" xr:uid="{C9A9C925-C9CF-45C0-8567-9C43FF6C74A2}"/>
+    <hyperlink ref="E80" r:id="rId96" display="https://www.onelook.com/?loc=pub&amp;w=have" xr:uid="{C4DCE69E-3726-48D6-9349-D1E7E78A2379}"/>
+    <hyperlink ref="E81" r:id="rId97" display="https://www.onelook.com/?loc=pub&amp;w=hear" xr:uid="{A2D0D680-1863-4269-AC3D-898887B05A3F}"/>
+    <hyperlink ref="E82" r:id="rId98" display="https://www.onelook.com/?loc=pub&amp;w=hew" xr:uid="{EC1DAEC2-0C9E-4ECB-BAA6-529257859D87}"/>
+    <hyperlink ref="E83" r:id="rId99" display="https://www.onelook.com/?loc=pub&amp;w=hide" xr:uid="{42535881-9AAB-4723-B960-8FB7C8A4E3C8}"/>
+    <hyperlink ref="E84" r:id="rId100" display="https://www.onelook.com/?loc=pub&amp;w=hit" xr:uid="{877CBDE7-6D6D-40EB-936F-4EC14E3CF423}"/>
+    <hyperlink ref="E85" r:id="rId101" display="https://www.onelook.com/?loc=pub&amp;w=hold" xr:uid="{FBBE3B8E-8A25-436F-BC57-2E31141B8335}"/>
+    <hyperlink ref="E86" r:id="rId102" display="https://www.onelook.com/?loc=pub&amp;w=hurt" xr:uid="{65295E7C-9986-4F5D-951B-C1F4CD5FE293}"/>
+    <hyperlink ref="E87" r:id="rId103" display="https://www.onelook.com/?loc=pub&amp;w=inbreed" xr:uid="{C7D11A37-9D97-4F9B-B719-AD352DF64CDD}"/>
+    <hyperlink ref="E88" r:id="rId104" display="https://www.onelook.com/?loc=pub&amp;w=inlay" xr:uid="{4523EA74-DC0E-4335-92FF-856EA821B289}"/>
+    <hyperlink ref="E89" r:id="rId105" display="https://www.onelook.com/?loc=pub&amp;w=input" xr:uid="{D8D47821-30C8-479B-B288-F4ED1A1264FB}"/>
+    <hyperlink ref="E90" r:id="rId106" display="https://www.onelook.com/?loc=pub&amp;w=interbreed" xr:uid="{82E993CD-7271-43E6-A626-643E4A3C5D0D}"/>
+    <hyperlink ref="E91" r:id="rId107" display="https://www.onelook.com/?loc=pub&amp;w=interweave" xr:uid="{350FDAD2-AB33-4B2B-B62E-130779262A2C}"/>
+    <hyperlink ref="E92" r:id="rId108" display="https://www.onelook.com/?loc=pub&amp;w=interwind" xr:uid="{AEADCBC6-752F-4523-82A8-981DED6DF754}"/>
+    <hyperlink ref="E93" r:id="rId109" display="https://www.onelook.com/?loc=pub&amp;w=jerry-build" xr:uid="{6FF4BBF0-D4F6-4ACE-8B12-072171F5D775}"/>
+    <hyperlink ref="E94" r:id="rId110" display="https://www.onelook.com/?loc=pub&amp;w=keep" xr:uid="{8F801120-AB97-4BD0-ACFE-F4B6241A9FA1}"/>
+    <hyperlink ref="E95" r:id="rId111" display="https://www.onelook.com/?loc=pub&amp;w=kneel" xr:uid="{5A8B4156-8DAC-4DCF-8380-75ABC85757EC}"/>
+    <hyperlink ref="E96" r:id="rId112" display="https://www.onelook.com/?loc=pub&amp;w=knit" xr:uid="{E857FC22-9994-4B2B-900C-1E1B2571E16E}"/>
+    <hyperlink ref="E97" r:id="rId113" display="https://www.onelook.com/?loc=pub&amp;w=know" xr:uid="{58886B42-2E54-42BC-84C8-B9E722988F29}"/>
+    <hyperlink ref="E98" r:id="rId114" display="https://www.onelook.com/?loc=pub&amp;w=lay" xr:uid="{0411FAAE-D4C3-4B76-AB52-64B77E63D6DD}"/>
+    <hyperlink ref="E99" r:id="rId115" display="https://www.onelook.com/?loc=pub&amp;w=lead" xr:uid="{12ACD616-E56A-47FD-81D7-9AE940206C83}"/>
+    <hyperlink ref="E100" r:id="rId116" display="https://www.onelook.com/?loc=pub&amp;w=lean" xr:uid="{D407600E-302B-4C0D-B011-B004804C08F5}"/>
+    <hyperlink ref="F100" r:id="rId117" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{6608F589-EAB2-4062-A869-821C49F9F753}"/>
+    <hyperlink ref="G100" r:id="rId118" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{A118176C-0FDF-4099-AFE4-D42ABA1A7B2C}"/>
+    <hyperlink ref="E101" r:id="rId119" display="https://www.onelook.com/?loc=pub&amp;w=leap" xr:uid="{B2AF0E52-4B8A-479A-8F89-61DAC5B06F3F}"/>
+    <hyperlink ref="F101" r:id="rId120" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{A8A8DE4D-4747-423D-A536-62291DED1B3C}"/>
+    <hyperlink ref="G101" r:id="rId121" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{3E2FD33C-B02A-4B6C-AF55-114D0F8FEE85}"/>
+    <hyperlink ref="E102" r:id="rId122" display="https://www.onelook.com/?loc=pub&amp;w=learn" xr:uid="{63CD1D5D-11A4-4BD8-AC7D-7FD066E4AF62}"/>
+    <hyperlink ref="F102" r:id="rId123" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{AD128603-F18E-4D2E-B9E2-6D87027F9C6D}"/>
+    <hyperlink ref="G102" r:id="rId124" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{09DABC99-CE0B-4BF7-9C3A-FD166F9E58F7}"/>
+    <hyperlink ref="E103" r:id="rId125" display="https://www.onelook.com/?loc=pub&amp;w=leave" xr:uid="{CEA7040B-D645-43DD-93A2-0492C9C2D376}"/>
+    <hyperlink ref="E104" r:id="rId126" display="https://www.onelook.com/?loc=pub&amp;w=lend" xr:uid="{0E42C3B0-FC56-496A-9A9A-9588928CDAFC}"/>
+    <hyperlink ref="E105" r:id="rId127" display="https://www.onelook.com/?loc=pub&amp;w=let" xr:uid="{92FAFFFF-8A7D-45D8-B942-6AA7CA75E9CC}"/>
+    <hyperlink ref="E106" r:id="rId128" display="https://www.onelook.com/?loc=pub&amp;w=lie" xr:uid="{008936B5-B58C-481F-A0A1-BA976200A2FF}"/>
+    <hyperlink ref="E107" r:id="rId129" display="https://www.onelook.com/?loc=pub&amp;w=lie" xr:uid="{5ACCBDE7-53AA-4929-A24E-DA2445840492}"/>
+    <hyperlink ref="E108" r:id="rId130" display="https://www.onelook.com/?loc=pub&amp;w=light" xr:uid="{14EF5FA2-1CEB-4723-92A0-6ABD4B5219AF}"/>
+    <hyperlink ref="E109" r:id="rId131" display="https://www.onelook.com/?loc=pub&amp;w=lip-read" xr:uid="{CC4EA7C0-DC13-4E91-8F0A-0CA10BB5D763}"/>
+    <hyperlink ref="E110" r:id="rId132" display="https://www.onelook.com/?loc=pub&amp;w=lose" xr:uid="{7265DBF7-ED47-49D4-860C-B1054A07284E}"/>
+    <hyperlink ref="E111" r:id="rId133" display="https://www.onelook.com/?loc=pub&amp;w=make" xr:uid="{02F3627F-04BE-48CA-A142-CC52647D78F2}"/>
+    <hyperlink ref="E112" r:id="rId134" display="https://www.onelook.com/?loc=pub&amp;w=mean" xr:uid="{DA6C0DF3-73A6-4B30-AD3A-D182441123D8}"/>
+    <hyperlink ref="E113" r:id="rId135" display="https://www.onelook.com/?loc=pub&amp;w=meet" xr:uid="{D30C5CA0-1D4A-47E6-B994-DEB4681F47AE}"/>
+    <hyperlink ref="E114" r:id="rId136" display="https://www.onelook.com/?loc=pub&amp;w=miscast" xr:uid="{274CF6FD-7DDD-46E7-AE96-2A2261B31FF2}"/>
+    <hyperlink ref="E115" r:id="rId137" display="https://www.onelook.com/?loc=pub&amp;w=misdeal" xr:uid="{1B716024-8429-470B-ABFA-0B0661DF50B3}"/>
+    <hyperlink ref="E116" r:id="rId138" display="https://www.onelook.com/?loc=pub&amp;w=misdo" xr:uid="{A3700B50-FE7A-4048-8324-E9EF7B355469}"/>
+    <hyperlink ref="E117" r:id="rId139" display="https://www.onelook.com/?loc=pub&amp;w=mishear" xr:uid="{71F099C7-9A37-4B57-BE37-6F1CE8D4E48A}"/>
+    <hyperlink ref="E118" r:id="rId140" display="https://www.onelook.com/?loc=pub&amp;w=mislay" xr:uid="{81390497-D963-4EA5-8BEE-CFBF79AF076F}"/>
+    <hyperlink ref="E119" r:id="rId141" display="https://www.onelook.com/?loc=pub&amp;w=mislead" xr:uid="{7E9A9698-AC5D-4E62-8754-99413DA3BD63}"/>
+    <hyperlink ref="E120" r:id="rId142" display="https://www.onelook.com/?loc=pub&amp;w=mislearn" xr:uid="{8E328143-6AAA-4BE9-84B5-8469948F21EA}"/>
+    <hyperlink ref="F120" r:id="rId143" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{75D1895B-86B3-466D-A600-3EA5C8B11DDC}"/>
+    <hyperlink ref="G120" r:id="rId144" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{55BE5099-6C1F-427B-A26B-FB9BC8229D52}"/>
+    <hyperlink ref="E121" r:id="rId145" display="https://www.onelook.com/?loc=pub&amp;w=misread" xr:uid="{E2F91EC0-A278-481E-B80D-ED7A74BE309F}"/>
+    <hyperlink ref="E122" r:id="rId146" display="https://www.onelook.com/?loc=pub&amp;w=misset" xr:uid="{E64F7E77-0ACD-47C5-B95D-BA472C1D235C}"/>
+    <hyperlink ref="E123" r:id="rId147" display="https://www.onelook.com/?loc=pub&amp;w=misspeak" xr:uid="{9E2FA496-F5D3-4CEF-B390-1876B6ECE75B}"/>
+    <hyperlink ref="E124" r:id="rId148" display="https://www.onelook.com/?loc=pub&amp;w=misspell" xr:uid="{D2DFA9CF-3A2E-4580-8135-861A936B2CB6}"/>
+    <hyperlink ref="F124" r:id="rId149" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{B46EF978-40CF-499E-BA93-C88035043CCD}"/>
+    <hyperlink ref="G124" r:id="rId150" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{6669D59A-84DB-4624-8D3E-7F55BBBC1168}"/>
+    <hyperlink ref="E125" r:id="rId151" display="https://www.onelook.com/?loc=pub&amp;w=misspend" xr:uid="{7B3ACE59-32AE-4920-9927-D67E432BE659}"/>
+    <hyperlink ref="E126" r:id="rId152" display="https://www.onelook.com/?loc=pub&amp;w=mistake" xr:uid="{22B14693-D73B-42A9-A773-1993AF97553F}"/>
+    <hyperlink ref="E127" r:id="rId153" display="https://www.onelook.com/?loc=pub&amp;w=misteach" xr:uid="{4EFB1D44-13DA-4061-8554-76B949EBA5B9}"/>
+    <hyperlink ref="E128" r:id="rId154" display="https://www.onelook.com/?loc=pub&amp;w=misunderstand" xr:uid="{DE16A3C6-1A6C-4412-87D8-9D1687513BA7}"/>
+    <hyperlink ref="E129" r:id="rId155" display="https://www.onelook.com/?loc=pub&amp;w=miswrite" xr:uid="{86C6A0E5-EC0E-4E8C-8F5A-FD9E4956BD96}"/>
+    <hyperlink ref="E130" r:id="rId156" display="https://www.onelook.com/?loc=pub&amp;w=mow" xr:uid="{5DCAC3A8-C081-4F51-B049-54A2467AA68C}"/>
+    <hyperlink ref="E131" r:id="rId157" display="https://www.onelook.com/?loc=pub&amp;w=offset" xr:uid="{C8060D72-07E8-4D5B-B220-A49AF1877612}"/>
+    <hyperlink ref="E132" r:id="rId158" display="https://www.onelook.com/?loc=pub&amp;w=outbid" xr:uid="{6EB9DF82-BBE0-4AD3-8BB1-EEFA4EFF819C}"/>
+    <hyperlink ref="E133" r:id="rId159" display="https://www.onelook.com/?loc=pub&amp;w=outbreed" xr:uid="{969A0EFB-CFD8-4866-A102-57108FB3075E}"/>
+    <hyperlink ref="E134" r:id="rId160" display="https://www.onelook.com/?loc=pub&amp;w=outdo" xr:uid="{F1292698-6222-4486-9F03-5B5F5FF1FE98}"/>
+    <hyperlink ref="E135" r:id="rId161" display="https://www.onelook.com/?loc=pub&amp;w=outdraw" xr:uid="{3050A47B-480E-4541-85FB-5A8BF4B1DFCE}"/>
+    <hyperlink ref="E136" r:id="rId162" display="https://www.onelook.com/?loc=pub&amp;w=outdrink" xr:uid="{D375DD9B-E6E1-4A79-8A96-C3C509F54839}"/>
+    <hyperlink ref="E137" r:id="rId163" display="https://www.onelook.com/?loc=pub&amp;w=outdrive" xr:uid="{E28AF1AD-A84B-42CC-951D-9995E51FEFCB}"/>
+    <hyperlink ref="E138" r:id="rId164" display="https://www.onelook.com/?loc=pub&amp;w=outfight" xr:uid="{0440BBEA-BC74-4F9F-9BAE-2ADAE0FE504A}"/>
+    <hyperlink ref="E139" r:id="rId165" display="https://www.onelook.com/?loc=pub&amp;w=outfly" xr:uid="{67FDAA6D-630C-45E4-8CA1-0AC91FEBE641}"/>
+    <hyperlink ref="E140" r:id="rId166" display="https://www.onelook.com/?loc=pub&amp;w=outgrow" xr:uid="{26038D81-611D-4DD7-A307-B81AC170570D}"/>
+    <hyperlink ref="E141" r:id="rId167" display="https://www.onelook.com/?loc=pub&amp;w=outleap" xr:uid="{CEAEDCB1-6A31-4D7B-A627-B75353E6F688}"/>
+    <hyperlink ref="F141" r:id="rId168" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{35EBA028-D0D4-496B-8F20-5BACE4625428}"/>
+    <hyperlink ref="G141" r:id="rId169" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{EBDE442D-32CD-48E4-A932-FAFCA7199D8C}"/>
+    <hyperlink ref="E142" r:id="rId170" display="https://www.onelook.com/?loc=pub&amp;w=outlie" xr:uid="{99EFACE2-E9B5-4CF4-87F0-DAC309527717}"/>
+    <hyperlink ref="E143" r:id="rId171" display="https://www.onelook.com/?loc=pub&amp;w=outride" xr:uid="{E8B2399E-8A4C-40D9-B309-AA9E39AF896D}"/>
+    <hyperlink ref="E144" r:id="rId172" display="https://www.onelook.com/?loc=pub&amp;w=outrun" xr:uid="{105E3FCA-EBEF-4E21-8171-722020D76626}"/>
+    <hyperlink ref="E145" r:id="rId173" display="https://www.onelook.com/?loc=pub&amp;w=outsell" xr:uid="{D17819DA-CADC-4114-A4B4-BD05B6E9FFDE}"/>
+    <hyperlink ref="E146" r:id="rId174" display="https://www.onelook.com/?loc=pub&amp;w=outshine" xr:uid="{CD3306E8-CD30-4742-A90A-B8D978C4D388}"/>
+    <hyperlink ref="F146" r:id="rId175" location="8" display="https://www.englishpage.com/irregularverbs/info.html - 8" xr:uid="{4F35E632-D4B4-4B25-A84C-6F84203E148D}"/>
+    <hyperlink ref="G146" r:id="rId176" location="8" display="https://www.englishpage.com/irregularverbs/info.html - 8" xr:uid="{435D7096-E51E-41F9-B5D3-D0A4AB4538F4}"/>
+    <hyperlink ref="E147" r:id="rId177" display="https://www.onelook.com/?loc=pub&amp;w=outshoot" xr:uid="{2FE8C3B2-8AF3-47D6-B4C8-CEFFF7684950}"/>
+    <hyperlink ref="E148" r:id="rId178" display="https://www.onelook.com/?loc=pub&amp;w=outsing" xr:uid="{44BF33C9-C268-4B73-9AE3-44EDE908C792}"/>
+    <hyperlink ref="E149" r:id="rId179" display="https://www.onelook.com/?loc=pub&amp;w=outsit" xr:uid="{EFF297C0-C86B-4F35-9E45-E503B5521B02}"/>
+    <hyperlink ref="E150" r:id="rId180" display="https://www.onelook.com/?loc=pub&amp;w=outsleep" xr:uid="{9F45CFB5-2C0A-444E-A6B7-E8A1AE42FA02}"/>
+    <hyperlink ref="E151" r:id="rId181" display="https://www.onelook.com/?loc=pub&amp;w=outsmell" xr:uid="{F9C237FD-7EBA-4AC7-8007-9FDEE68CEE3A}"/>
+    <hyperlink ref="F151" r:id="rId182" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{93F96772-8625-486C-A69C-3F936B5DC436}"/>
+    <hyperlink ref="G151" r:id="rId183" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{C70DA052-1CE4-44EA-9223-C88144C7C1BB}"/>
+    <hyperlink ref="E152" r:id="rId184" display="https://www.onelook.com/?loc=pub&amp;w=outspeak" xr:uid="{B416D6B9-C5D3-41E6-B3D1-496DC2BBFCC8}"/>
+    <hyperlink ref="E153" r:id="rId185" display="https://www.onelook.com/?loc=pub&amp;w=outspeed" xr:uid="{35B9BFC1-90AE-4D2C-A645-9C3C514B3D65}"/>
+    <hyperlink ref="E154" r:id="rId186" display="https://www.onelook.com/?loc=pub&amp;w=outspend" xr:uid="{BCDFA8BB-680E-4D6A-A993-548898F8A67C}"/>
+    <hyperlink ref="E155" r:id="rId187" display="https://www.onelook.com/?loc=pub&amp;w=outswear" xr:uid="{BCA97EE3-A5CC-4539-B3AD-A79AFB05F6E9}"/>
+    <hyperlink ref="E156" r:id="rId188" display="https://www.onelook.com/?loc=pub&amp;w=outswim" xr:uid="{C5B7525C-10C8-4B43-BB5A-9B116DB55EEC}"/>
+    <hyperlink ref="E157" r:id="rId189" display="https://www.onelook.com/?loc=pub&amp;w=outthink" xr:uid="{39DCC715-AD0B-4D7F-B6F9-5309180C3CAC}"/>
+    <hyperlink ref="E158" r:id="rId190" display="https://www.onelook.com/?loc=pub&amp;w=outthrow" xr:uid="{B31A71FB-3931-42EA-8F96-8325F9F3AACE}"/>
+    <hyperlink ref="E159" r:id="rId191" display="https://www.onelook.com/?loc=pub&amp;w=outwrite" xr:uid="{1C149D45-C789-4E53-B42E-045D4E60FD78}"/>
+    <hyperlink ref="E160" r:id="rId192" display="https://www.onelook.com/?loc=pub&amp;w=overbid" xr:uid="{2BE710BA-BD4E-45D5-9D07-389E5AA4BA47}"/>
+    <hyperlink ref="E161" r:id="rId193" display="https://www.onelook.com/?loc=pub&amp;w=overbreed" xr:uid="{FD73787B-1679-44EB-8581-DF8D96E8D232}"/>
+    <hyperlink ref="E162" r:id="rId194" display="https://www.onelook.com/?loc=pub&amp;w=overbuild" xr:uid="{644D8285-8B50-44BE-8609-8BCCFB51D0CC}"/>
+    <hyperlink ref="E163" r:id="rId195" display="https://www.onelook.com/?loc=pub&amp;w=overbuy" xr:uid="{A2B84FF2-B655-4C24-8688-86166E31CA3C}"/>
+    <hyperlink ref="E164" r:id="rId196" display="https://www.onelook.com/?loc=pub&amp;w=overcome" xr:uid="{9456C285-BC29-4DAF-AE27-06A92EE651A1}"/>
+    <hyperlink ref="E165" r:id="rId197" display="https://www.onelook.com/?loc=pub&amp;w=overdo" xr:uid="{6D40F613-A4FF-47E7-8B6A-428F874F0C6A}"/>
+    <hyperlink ref="E166" r:id="rId198" display="https://www.onelook.com/?loc=pub&amp;w=overdraw" xr:uid="{60BF2D8B-97F9-4045-90B7-60B5E2090409}"/>
+    <hyperlink ref="E167" r:id="rId199" display="https://www.onelook.com/?loc=pub&amp;w=overdrink" xr:uid="{093E0235-BACC-447F-9868-DF38770AA8AB}"/>
+    <hyperlink ref="E168" r:id="rId200" display="https://www.onelook.com/?loc=pub&amp;w=overeat" xr:uid="{B4453DC6-B3F2-4171-BFA2-D3A34F74C464}"/>
+    <hyperlink ref="E169" r:id="rId201" display="https://www.onelook.com/?loc=pub&amp;w=overfeed" xr:uid="{A031EDCB-8C37-415B-9D02-9E6C4428217D}"/>
+    <hyperlink ref="E170" r:id="rId202" display="https://www.onelook.com/?loc=pub&amp;w=overhang" xr:uid="{2E1A6682-1CD0-4772-9C1C-229013593284}"/>
+    <hyperlink ref="E171" r:id="rId203" display="https://www.onelook.com/?loc=pub&amp;w=overhear" xr:uid="{61F08805-96E8-4A57-B624-C02AE6CB659A}"/>
+    <hyperlink ref="E172" r:id="rId204" display="https://www.onelook.com/?loc=pub&amp;w=overlay" xr:uid="{7E439D8A-1FBD-43E0-AA24-80FD2BBE21AE}"/>
+    <hyperlink ref="E173" r:id="rId205" display="https://www.onelook.com/?loc=pub&amp;w=overpay" xr:uid="{356D6C74-90B7-4796-B672-21D4EC14DD3E}"/>
+    <hyperlink ref="E174" r:id="rId206" display="https://www.onelook.com/?loc=pub&amp;w=override" xr:uid="{9206453D-88CD-4709-9231-CD00ECE0F639}"/>
+    <hyperlink ref="E175" r:id="rId207" display="https://www.onelook.com/?loc=pub&amp;w=overrun" xr:uid="{5E109992-8DA6-4B83-B400-82765CAE1633}"/>
+    <hyperlink ref="E176" r:id="rId208" display="https://www.onelook.com/?loc=pub&amp;w=oversee" xr:uid="{16DB5A72-22F4-4C84-BE0B-9A6F75678E31}"/>
+    <hyperlink ref="E177" r:id="rId209" display="https://www.onelook.com/?loc=pub&amp;w=oversell" xr:uid="{CC423737-E4E0-4B10-B508-3C810197546C}"/>
+    <hyperlink ref="E178" r:id="rId210" display="https://www.onelook.com/?loc=pub&amp;w=oversew" xr:uid="{52111B6A-31FF-4073-B7AC-C3CFF0EEBCB7}"/>
+    <hyperlink ref="E179" r:id="rId211" display="https://www.onelook.com/?loc=pub&amp;w=overshoot" xr:uid="{066128C2-4511-46B2-981A-6EBCAE554753}"/>
+    <hyperlink ref="E180" r:id="rId212" display="https://www.onelook.com/?loc=pub&amp;w=oversleep" xr:uid="{07254444-8A2C-49BC-B92A-D4E8E02EB05B}"/>
+    <hyperlink ref="E181" r:id="rId213" display="https://www.onelook.com/?loc=pub&amp;w=overspeak" xr:uid="{29E88102-8573-4547-A216-B49C88522372}"/>
+    <hyperlink ref="E182" r:id="rId214" display="https://www.onelook.com/?loc=pub&amp;w=overspend" xr:uid="{9B72FD99-91B5-4962-8882-42617055F3DE}"/>
+    <hyperlink ref="E183" r:id="rId215" display="https://www.onelook.com/?loc=pub&amp;w=overspill" xr:uid="{F012622C-4AFA-4562-ADA6-16B68D262CFF}"/>
+    <hyperlink ref="F183" r:id="rId216" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{B19047C5-CDF1-4A3F-B5D7-214CB4989587}"/>
+    <hyperlink ref="G183" r:id="rId217" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{6EFF2655-D5DB-432A-B7E4-98BCD81245BA}"/>
+    <hyperlink ref="E184" r:id="rId218" display="https://www.onelook.com/?loc=pub&amp;w=overtake" xr:uid="{631512EE-1189-4D7D-A3FD-0D3B7407FB95}"/>
+    <hyperlink ref="E185" r:id="rId219" display="https://www.onelook.com/?loc=pub&amp;w=overthink" xr:uid="{E3054474-2B61-4079-9623-F02A10C5D7BC}"/>
+    <hyperlink ref="E186" r:id="rId220" display="https://www.onelook.com/?loc=pub&amp;w=overthrow" xr:uid="{6E3B4FCB-11A1-4546-AF8D-0FE64CFE4653}"/>
+    <hyperlink ref="E187" r:id="rId221" display="https://www.onelook.com/?loc=pub&amp;w=overwind" xr:uid="{A039848D-D989-4AF0-B235-9B115FE23091}"/>
+    <hyperlink ref="E188" r:id="rId222" display="https://www.onelook.com/?loc=pub&amp;w=overwrite" xr:uid="{F07EFDDD-992C-46E3-B075-A864723A81F0}"/>
+    <hyperlink ref="E189" r:id="rId223" display="https://www.onelook.com/?loc=pub&amp;w=partake" xr:uid="{791CE159-6AF3-4CF0-BB6A-EB3EFD0A4363}"/>
+    <hyperlink ref="E190" r:id="rId224" display="https://www.onelook.com/?loc=pub&amp;w=pay" xr:uid="{6EFF276B-6692-400C-9685-9693EB681AB6}"/>
+    <hyperlink ref="E191" r:id="rId225" display="https://www.onelook.com/?loc=pub&amp;w=plead" xr:uid="{20574B9D-A079-404A-A7EA-E1CEA7356CE8}"/>
+    <hyperlink ref="E192" r:id="rId226" display="https://www.onelook.com/?loc=pub&amp;w=prebuild" xr:uid="{DDE0FD52-F7D0-4D91-AC0E-19E9937C4FEE}"/>
+    <hyperlink ref="E193" r:id="rId227" display="https://www.onelook.com/?loc=pub&amp;w=predo" xr:uid="{F66991FB-CDE1-4CF4-B9B1-37B36A2A000F}"/>
+    <hyperlink ref="E194" r:id="rId228" display="https://www.onelook.com/?loc=pub&amp;w=premake" xr:uid="{1628B5C9-4738-408E-84D8-7A5B3EB0F19F}"/>
+    <hyperlink ref="E195" r:id="rId229" display="https://www.onelook.com/?loc=pub&amp;w=prepay" xr:uid="{7E66C836-7330-4B68-8D7E-A954456033C1}"/>
+    <hyperlink ref="E196" r:id="rId230" display="https://www.onelook.com/?loc=pub&amp;w=presell" xr:uid="{B158C456-CEF0-48A7-B0E8-2EC56053B92E}"/>
+    <hyperlink ref="E197" r:id="rId231" display="https://www.onelook.com/?loc=pub&amp;w=preset" xr:uid="{D0468D1A-5B6F-42AA-9E64-A60922F5DEBE}"/>
+    <hyperlink ref="E198" r:id="rId232" display="https://www.onelook.com/?loc=pub&amp;w=preshrink" xr:uid="{1F47211F-BB2D-4F36-87BB-4C140F0BD49E}"/>
+    <hyperlink ref="E199" r:id="rId233" display="https://www.onelook.com/?loc=pub&amp;w=proofread" xr:uid="{3E471335-A234-48D8-9402-E4A410EAD9F9}"/>
+    <hyperlink ref="E200" r:id="rId234" display="https://www.onelook.com/?loc=pub&amp;w=prove" xr:uid="{E7F434B1-BE93-4A71-B49A-05396D3F0FB5}"/>
+    <hyperlink ref="E201" r:id="rId235" display="https://www.onelook.com/?loc=pub&amp;w=put" xr:uid="{428D97BE-6A60-43C9-88C0-525AFDD5F9F0}"/>
+    <hyperlink ref="E202" r:id="rId236" display="https://www.onelook.com/?loc=pub&amp;w=quick-freeze" xr:uid="{15E67FF2-1D4C-4B43-ABC2-82786F27BBEF}"/>
+    <hyperlink ref="E203" r:id="rId237" display="https://www.onelook.com/?loc=pub&amp;w=quit" xr:uid="{9D745656-F4EF-48CB-9413-2D3E632E492E}"/>
+    <hyperlink ref="F203" r:id="rId238" location="5" display="https://www.englishpage.com/irregularverbs/info.html - 5" xr:uid="{6E4D669E-534F-485A-926C-3C902036F1E8}"/>
+    <hyperlink ref="G203" r:id="rId239" location="5" display="https://www.englishpage.com/irregularverbs/info.html - 5" xr:uid="{71E5F9AA-F4E9-4FB6-965E-EF75A04272B6}"/>
+    <hyperlink ref="E204" r:id="rId240" display="https://www.onelook.com/?loc=pub&amp;w=read" xr:uid="{5C672F0D-4180-4B44-B970-93E422A71D7B}"/>
+    <hyperlink ref="E205" r:id="rId241" display="https://www.onelook.com/?loc=pub&amp;w=reawake" xr:uid="{BF94599B-AB62-4C26-8BEE-868915B25F44}"/>
+    <hyperlink ref="E206" r:id="rId242" display="https://www.onelook.com/?loc=pub&amp;w=rebid" xr:uid="{17696284-056C-46B3-9D9E-696545C823C0}"/>
+    <hyperlink ref="E207" r:id="rId243" display="https://www.onelook.com/?loc=pub&amp;w=rebind" xr:uid="{96F14478-EC34-4E6E-81A0-1AC11D5D19FC}"/>
+    <hyperlink ref="E208" r:id="rId244" display="https://www.onelook.com/?loc=pub&amp;w=rebroadcast" xr:uid="{F78FFD9E-ACAD-4EBC-9A19-91BDF345E366}"/>
+    <hyperlink ref="E209" r:id="rId245" display="https://www.onelook.com/?loc=pub&amp;w=rebuild" xr:uid="{F9D7B34E-4C8D-4325-AFB4-3F6FD0460261}"/>
+    <hyperlink ref="E210" r:id="rId246" display="https://www.onelook.com/?loc=pub&amp;w=recast" xr:uid="{8A3FAF47-C016-490D-BE80-83510612B89D}"/>
+    <hyperlink ref="E211" r:id="rId247" display="https://www.onelook.com/?loc=pub&amp;w=recut" xr:uid="{05485F59-0AF1-4B05-818F-352DC0A0240E}"/>
+    <hyperlink ref="E212" r:id="rId248" display="https://www.onelook.com/?loc=pub&amp;w=redeal" xr:uid="{2EC65C1F-0182-4C68-AEDC-7EA0C193F1BC}"/>
+    <hyperlink ref="E213" r:id="rId249" display="https://www.onelook.com/?loc=pub&amp;w=redo" xr:uid="{0BF7F948-2189-4B3B-AEBC-AE1855349148}"/>
+    <hyperlink ref="E214" r:id="rId250" display="https://www.onelook.com/?loc=pub&amp;w=redraw" xr:uid="{6C6572AE-1A92-489D-8356-B4ECE0ED1C1E}"/>
+    <hyperlink ref="E215" r:id="rId251" display="https://www.onelook.com/?loc=pub&amp;w=refit" xr:uid="{07A48051-2298-4060-8E4B-894092C2B2C8}"/>
+    <hyperlink ref="F215" r:id="rId252" location="7" display="https://www.englishpage.com/irregularverbs/info.html - 7" xr:uid="{F9E67B14-BEC9-46F4-9056-7801BF54C9FE}"/>
+    <hyperlink ref="G215" r:id="rId253" location="7" display="https://www.englishpage.com/irregularverbs/info.html - 7" xr:uid="{63DC0D72-BB28-46E5-BE87-0CFC9020FA6C}"/>
+    <hyperlink ref="E216" r:id="rId254" display="https://www.onelook.com/?loc=pub&amp;w=refit" xr:uid="{236A1E7E-EF2B-4360-BCB5-EDA5A01FC247}"/>
+    <hyperlink ref="F216" r:id="rId255" location="7" display="https://www.englishpage.com/irregularverbs/info.html - 7" xr:uid="{04A9943A-A50B-4370-94ED-0284FE9AA33F}"/>
+    <hyperlink ref="G216" r:id="rId256" location="7" display="https://www.englishpage.com/irregularverbs/info.html - 7" xr:uid="{429B1D73-4886-4D1F-80F6-97432F1E0322}"/>
+    <hyperlink ref="E217" r:id="rId257" display="https://www.onelook.com/?loc=pub&amp;w=regrind" xr:uid="{AC4D03FB-2F6F-406C-9682-E59D9DF872B6}"/>
+    <hyperlink ref="E218" r:id="rId258" display="https://www.onelook.com/?loc=pub&amp;w=regrow" xr:uid="{F2E2DD6A-5C5E-4023-B364-846D3C5C23D2}"/>
+    <hyperlink ref="E219" r:id="rId259" display="https://www.onelook.com/?loc=pub&amp;w=rehang" xr:uid="{3F6B1827-BF10-42D1-A0A1-7BB85DA97264}"/>
+    <hyperlink ref="E220" r:id="rId260" display="https://www.onelook.com/?loc=pub&amp;w=rehear" xr:uid="{503CCC27-1BF9-4D1A-AD2D-7836163989E9}"/>
+    <hyperlink ref="E221" r:id="rId261" display="https://www.onelook.com/?loc=pub&amp;w=reknit" xr:uid="{29215EC0-3ACA-44C7-B770-A0A36FB70516}"/>
+    <hyperlink ref="E222" r:id="rId262" display="https://www.onelook.com/?loc=pub&amp;w=relay" xr:uid="{8D140CFF-A0DA-438C-A322-5711F09D3477}"/>
+    <hyperlink ref="E223" r:id="rId263" display="https://www.onelook.com/?loc=pub&amp;w=relay" xr:uid="{7815C195-4254-4E84-85F2-057BC16C1FCB}"/>
+    <hyperlink ref="E224" r:id="rId264" display="https://www.onelook.com/?loc=pub&amp;w=relearn" xr:uid="{8F3924CF-DCCB-4B65-9074-521FD0164495}"/>
+    <hyperlink ref="F224" r:id="rId265" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{B8AD259E-5F53-46BC-9862-00956AD263A9}"/>
+    <hyperlink ref="G224" r:id="rId266" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{67414212-E412-43A2-AD31-44DA57BAB594}"/>
+    <hyperlink ref="E225" r:id="rId267" display="https://www.onelook.com/?loc=pub&amp;w=relight" xr:uid="{3403113B-1749-4564-91B0-93409D39A6ED}"/>
+    <hyperlink ref="E226" r:id="rId268" display="https://www.onelook.com/?loc=pub&amp;w=remake" xr:uid="{EF7A42F3-41D3-4F77-AC4F-68D3BD2169C3}"/>
+    <hyperlink ref="E227" r:id="rId269" display="https://www.onelook.com/?loc=pub&amp;w=repay" xr:uid="{FD191F52-48BE-41D6-B87B-1550B5E14515}"/>
+    <hyperlink ref="E228" r:id="rId270" display="https://www.onelook.com/?loc=pub&amp;w=reread" xr:uid="{88570623-7214-4FC2-A5D8-6E2BFCE3A83D}"/>
+    <hyperlink ref="E229" r:id="rId271" display="https://www.onelook.com/?loc=pub&amp;w=rerun" xr:uid="{8ECE68F6-BE89-49A0-890F-DE621FB0EA1E}"/>
+    <hyperlink ref="E230" r:id="rId272" display="https://www.onelook.com/?loc=pub&amp;w=resell" xr:uid="{23AFB88D-FB43-4708-976B-177D6298D500}"/>
+    <hyperlink ref="E231" r:id="rId273" display="https://www.onelook.com/?loc=pub&amp;w=resend" xr:uid="{36BCAED4-F848-4395-91FC-2CD2741CF381}"/>
+    <hyperlink ref="E232" r:id="rId274" display="https://www.onelook.com/?loc=pub&amp;w=reset" xr:uid="{F9AA194D-6ACD-4804-AF07-8BA4A564AD10}"/>
+    <hyperlink ref="E233" r:id="rId275" display="https://www.onelook.com/?loc=pub&amp;w=resew" xr:uid="{3754BC9B-A169-4DC9-8A96-6324A542E9F3}"/>
+    <hyperlink ref="E234" r:id="rId276" display="https://www.onelook.com/?loc=pub&amp;w=retake" xr:uid="{E1C9698A-66B3-4E70-8319-122F777D028F}"/>
+    <hyperlink ref="E235" r:id="rId277" display="https://www.onelook.com/?loc=pub&amp;w=reteach" xr:uid="{9D7ED83E-FE22-4161-BBE4-CEB66FE3F4A4}"/>
+    <hyperlink ref="E236" r:id="rId278" display="https://www.onelook.com/?loc=pub&amp;w=retear" xr:uid="{C884D87B-BA6E-4D5E-BC99-D6CC3EBFB043}"/>
+    <hyperlink ref="E237" r:id="rId279" display="https://www.onelook.com/?loc=pub&amp;w=retell" xr:uid="{6FC1B292-D170-4958-84D9-8BCB5F720492}"/>
+    <hyperlink ref="E238" r:id="rId280" display="https://www.onelook.com/?loc=pub&amp;w=rethink" xr:uid="{E3F328FC-EAC7-4853-8361-E1A6765A0184}"/>
+    <hyperlink ref="E239" r:id="rId281" display="https://www.onelook.com/?loc=pub&amp;w=retread" xr:uid="{2D9AF283-279C-4EB3-9455-0422100A248F}"/>
+    <hyperlink ref="E240" r:id="rId282" display="https://www.onelook.com/?loc=pub&amp;w=retrofit" xr:uid="{35AE98D2-8A30-4FB1-866B-5310DA87469A}"/>
+    <hyperlink ref="F240" r:id="rId283" location="7" display="https://www.englishpage.com/irregularverbs/info.html - 7" xr:uid="{538FDA67-34D1-4FD4-A744-C6B365705D83}"/>
+    <hyperlink ref="G240" r:id="rId284" location="7" display="https://www.englishpage.com/irregularverbs/info.html - 7" xr:uid="{06783F6D-75E8-427E-83D5-0498AFBE8F4C}"/>
+    <hyperlink ref="E241" r:id="rId285" display="https://www.onelook.com/?loc=pub&amp;w=rewake" xr:uid="{DA2F7A22-9B1B-4823-BD85-1E7A0D9ABC03}"/>
+    <hyperlink ref="E242" r:id="rId286" display="https://www.onelook.com/?loc=pub&amp;w=rewear" xr:uid="{12EC9F4D-DC46-43FE-9667-64DD4DE915A5}"/>
+    <hyperlink ref="E243" r:id="rId287" display="https://www.onelook.com/?loc=pub&amp;w=reweave" xr:uid="{0A889ABC-4499-4B81-9E17-EF21E65EC97C}"/>
+    <hyperlink ref="E244" r:id="rId288" display="https://www.onelook.com/?loc=pub&amp;w=rewed" xr:uid="{0E40F77A-FCB8-491A-B608-E5E8E59B8DC4}"/>
+    <hyperlink ref="E245" r:id="rId289" display="https://www.onelook.com/?loc=pub&amp;w=rewet" xr:uid="{08259FC0-DA04-454A-BAF0-4A4A00D7F6FC}"/>
+    <hyperlink ref="F245" r:id="rId290" location="5" display="https://www.englishpage.com/irregularverbs/info.html - 5" xr:uid="{2B427171-47AF-4D11-93A7-B4D5D1401844}"/>
+    <hyperlink ref="G245" r:id="rId291" location="5" display="https://www.englishpage.com/irregularverbs/info.html - 5" xr:uid="{48AE15C3-6C60-4489-96DF-26D2AFC622A9}"/>
+    <hyperlink ref="E246" r:id="rId292" display="https://www.onelook.com/?loc=pub&amp;w=rewin" xr:uid="{A6BFE9A7-6ABE-4D54-AF23-614794073960}"/>
+    <hyperlink ref="E247" r:id="rId293" display="https://www.onelook.com/?loc=pub&amp;w=rewind" xr:uid="{256012E2-A800-4A63-9510-C2E8B20EDF21}"/>
+    <hyperlink ref="E248" r:id="rId294" display="https://www.onelook.com/?loc=pub&amp;w=rewrite" xr:uid="{0375CF72-288B-494B-93D2-918519795C56}"/>
+    <hyperlink ref="E249" r:id="rId295" display="https://www.onelook.com/?loc=pub&amp;w=rid" xr:uid="{8240693A-B845-492C-8419-C566C58D4CE1}"/>
+    <hyperlink ref="E250" r:id="rId296" display="https://www.onelook.com/?loc=pub&amp;w=ride" xr:uid="{91F03E22-32EC-4C8E-9467-5E4D385E7076}"/>
+    <hyperlink ref="E251" r:id="rId297" display="https://www.onelook.com/?loc=pub&amp;w=ring" xr:uid="{E65DC75D-D77E-4D53-8498-669937B693D3}"/>
+    <hyperlink ref="E252" r:id="rId298" display="https://www.onelook.com/?loc=pub&amp;w=rise" xr:uid="{77AD92F6-A969-4A55-B633-AE2EBA2E74FF}"/>
+    <hyperlink ref="E253" r:id="rId299" display="https://www.onelook.com/?loc=pub&amp;w=roughcast" xr:uid="{1636BECC-5A76-44CF-9D5D-CDE1D0F4F617}"/>
+    <hyperlink ref="E254" r:id="rId300" display="https://www.onelook.com/?loc=pub&amp;w=run" xr:uid="{0A0E4961-1D3E-49BB-AF76-679DB23D4C40}"/>
+    <hyperlink ref="E255" r:id="rId301" display="https://www.onelook.com/?loc=pub&amp;w=sand-cast" xr:uid="{AC98A71E-9694-4284-B370-AC80ACFB16AF}"/>
+    <hyperlink ref="E256" r:id="rId302" display="https://www.onelook.com/?loc=pub&amp;w=saw" xr:uid="{73853B61-72C6-49E2-A1AF-31DEFE76D1DD}"/>
+    <hyperlink ref="E257" r:id="rId303" display="https://www.onelook.com/?loc=pub&amp;w=say" xr:uid="{74847674-CDF7-48E7-BAB6-76C4DF68B9FE}"/>
+    <hyperlink ref="E258" r:id="rId304" display="https://www.onelook.com/?loc=pub&amp;w=see" xr:uid="{37730FAC-A285-4BBE-BCC3-052706604A7A}"/>
+    <hyperlink ref="E259" r:id="rId305" display="https://www.onelook.com/?loc=pub&amp;w=seek" xr:uid="{BD4FF4DA-6D10-4C7E-B286-68DFF19527F5}"/>
+    <hyperlink ref="E260" r:id="rId306" display="https://www.onelook.com/?loc=pub&amp;w=sell" xr:uid="{E60A3FE7-2301-4C14-B2DB-AF1F625AEAB0}"/>
+    <hyperlink ref="E261" r:id="rId307" display="https://www.onelook.com/?loc=pub&amp;w=send" xr:uid="{B0D3FF6F-85BA-4AC9-992F-F5FCC334762D}"/>
+    <hyperlink ref="E262" r:id="rId308" display="https://www.onelook.com/?loc=pub&amp;w=set" xr:uid="{CE72E0D5-1AD0-4E96-B09F-52AD457CDA51}"/>
+    <hyperlink ref="E263" r:id="rId309" display="https://www.onelook.com/?loc=pub&amp;w=sew" xr:uid="{18F13CFB-E66F-4047-9A63-00FE07DB2936}"/>
+    <hyperlink ref="E264" r:id="rId310" display="https://www.onelook.com/?loc=pub&amp;w=shake" xr:uid="{2A6B8760-DCF2-4EFC-B511-495A6A68CBD0}"/>
+    <hyperlink ref="E265" r:id="rId311" display="https://www.onelook.com/?loc=pub&amp;w=shave" xr:uid="{D7E69B55-3E12-447C-BE3D-7A96ADF213EF}"/>
+    <hyperlink ref="E266" r:id="rId312" display="https://www.onelook.com/?loc=pub&amp;w=shear" xr:uid="{F913B121-6DED-4B2E-8AD5-F46CA76EA484}"/>
+    <hyperlink ref="E267" r:id="rId313" display="https://www.onelook.com/?loc=pub&amp;w=shed" xr:uid="{AFF6A2C2-99CC-4C8C-9F36-6D360935F9FB}"/>
+    <hyperlink ref="E268" r:id="rId314" display="https://www.onelook.com/?loc=pub&amp;w=shine" xr:uid="{9D847E6F-E24C-47D5-83CA-4D8AB95D2F02}"/>
+    <hyperlink ref="F268" r:id="rId315" location="8" display="https://www.englishpage.com/irregularverbs/info.html - 8" xr:uid="{54A7CC1D-9465-4C36-B043-FA9A6B9D94CF}"/>
+    <hyperlink ref="G268" r:id="rId316" location="8" display="https://www.englishpage.com/irregularverbs/info.html - 8" xr:uid="{93F74C20-8693-452A-932A-E7CF377F70C6}"/>
+    <hyperlink ref="E269" r:id="rId317" display="https://www.onelook.com/?loc=pub&amp;w=shit" xr:uid="{E5E79D9B-ECB0-45E5-8DF3-B2535925C17A}"/>
+    <hyperlink ref="E270" r:id="rId318" display="https://www.onelook.com/?loc=pub&amp;w=shoot" xr:uid="{12F78172-04CA-448E-8E54-059C2A84DA38}"/>
+    <hyperlink ref="E271" r:id="rId319" display="https://www.onelook.com/?loc=pub&amp;w=show" xr:uid="{A4C1A35A-5E34-42EA-AEFE-6872BE04BE65}"/>
+    <hyperlink ref="E272" r:id="rId320" display="https://www.onelook.com/?loc=pub&amp;w=shrink" xr:uid="{3B49F0CA-466F-455E-8597-913B710AFC6B}"/>
+    <hyperlink ref="E273" r:id="rId321" display="https://www.onelook.com/?loc=pub&amp;w=shut" xr:uid="{7EB69D0C-7233-4885-A76D-D8704A52952B}"/>
+    <hyperlink ref="E274" r:id="rId322" display="https://www.onelook.com/?loc=pub&amp;w=sight-read" xr:uid="{63D56857-246D-46BD-B38F-24B9FA9BFB8E}"/>
+    <hyperlink ref="E275" r:id="rId323" display="https://www.onelook.com/?loc=pub&amp;w=sing" xr:uid="{9A3C087C-D386-4E14-AF38-B302C32B3C43}"/>
+    <hyperlink ref="E276" r:id="rId324" display="https://www.onelook.com/?loc=pub&amp;w=sink" xr:uid="{8DF65DF9-C64A-422F-899F-59E4532EFD9F}"/>
+    <hyperlink ref="E277" r:id="rId325" display="https://www.onelook.com/?loc=pub&amp;w=sit" xr:uid="{1C288B65-0E25-4A7C-A008-71A1BA580F8A}"/>
+    <hyperlink ref="E278" r:id="rId326" display="https://www.onelook.com/?loc=pub&amp;w=slay" xr:uid="{574554FA-D516-4931-8E55-2D8ECF9C0234}"/>
+    <hyperlink ref="E279" r:id="rId327" display="https://www.onelook.com/?loc=pub&amp;w=slay" xr:uid="{951FCD63-6608-448D-8170-65D80A709708}"/>
+    <hyperlink ref="E280" r:id="rId328" display="https://www.onelook.com/?loc=pub&amp;w=sleep" xr:uid="{B24A02C9-D2F2-4A0E-8BCB-1B823E04D2DD}"/>
+    <hyperlink ref="E281" r:id="rId329" display="https://www.onelook.com/?loc=pub&amp;w=slide" xr:uid="{43060359-CBB0-4D4F-BA8F-F28198CD49B0}"/>
+    <hyperlink ref="E282" r:id="rId330" display="https://www.onelook.com/?loc=pub&amp;w=sling" xr:uid="{2A909E05-F461-4AE9-A8D2-82853ED03A9A}"/>
+    <hyperlink ref="E283" r:id="rId331" display="https://www.onelook.com/?loc=pub&amp;w=slink" xr:uid="{FA89FE96-52C7-4FA2-AD66-2209D4EB2C64}"/>
+    <hyperlink ref="E284" r:id="rId332" display="https://www.onelook.com/?loc=pub&amp;w=slit" xr:uid="{DB5337A3-57B1-47DB-93BA-395AFB3E94DB}"/>
+    <hyperlink ref="E285" r:id="rId333" display="https://www.onelook.com/?loc=pub&amp;w=smell" xr:uid="{086CCEB3-8694-4666-917F-966588950634}"/>
+    <hyperlink ref="F285" r:id="rId334" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{E64CC2E9-7D6F-44AF-B2F2-18EC12B2D41B}"/>
+    <hyperlink ref="G285" r:id="rId335" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{6BA58E47-6760-456E-8CD7-11ADBEFBA653}"/>
+    <hyperlink ref="E286" r:id="rId336" display="https://www.onelook.com/?loc=pub&amp;w=sneak" xr:uid="{1068605A-7774-4CB1-990E-5162E465C5A1}"/>
+    <hyperlink ref="E287" r:id="rId337" display="https://www.onelook.com/?loc=pub&amp;w=sow" xr:uid="{72848621-12A3-4EE8-998A-E8E8DCAD6C20}"/>
+    <hyperlink ref="E288" r:id="rId338" display="https://www.onelook.com/?loc=pub&amp;w=speak" xr:uid="{88CD9F3F-B4EC-40E5-B6CD-42104ECBCAA7}"/>
+    <hyperlink ref="E289" r:id="rId339" display="https://www.onelook.com/?loc=pub&amp;w=speed" xr:uid="{E4791A8E-EF02-4F13-8F81-D7FF23B67EDE}"/>
+    <hyperlink ref="E290" r:id="rId340" display="https://www.onelook.com/?loc=pub&amp;w=spell" xr:uid="{37FF1B5B-B606-4B9D-A9DE-874F9280BB0F}"/>
+    <hyperlink ref="F290" r:id="rId341" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{A3A8A75D-1EF3-4C4F-A074-2EF8286CABED}"/>
+    <hyperlink ref="G290" r:id="rId342" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{B9AEF271-403E-4A7F-954D-1DC694ED66AF}"/>
+    <hyperlink ref="E291" r:id="rId343" display="https://www.onelook.com/?loc=pub&amp;w=spend" xr:uid="{546FBD56-D4FD-4730-AFD3-1C32E994ED5B}"/>
+    <hyperlink ref="E292" r:id="rId344" display="https://www.onelook.com/?loc=pub&amp;w=spill" xr:uid="{F06D81F4-E286-4423-A42A-FE0E63ED9C0C}"/>
+    <hyperlink ref="F292" r:id="rId345" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{2191D8AA-44C8-406D-9B2E-4B634769B8E4}"/>
+    <hyperlink ref="G292" r:id="rId346" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{C372F5D8-DBCC-4B60-A828-CCF476DE25EF}"/>
+    <hyperlink ref="E293" r:id="rId347" display="https://www.onelook.com/?loc=pub&amp;w=spin" xr:uid="{FD0D46F4-31B0-455D-AF8C-01B0E04A3DE8}"/>
+    <hyperlink ref="E294" r:id="rId348" display="https://www.onelook.com/?loc=pub&amp;w=spit" xr:uid="{5BCD9B2A-893E-4DB0-AB1C-2577550E1B6C}"/>
+    <hyperlink ref="E295" r:id="rId349" display="https://www.onelook.com/?loc=pub&amp;w=split" xr:uid="{8E03799A-0059-47EF-9443-EAD11B6A3EF3}"/>
+    <hyperlink ref="E296" r:id="rId350" display="https://www.onelook.com/?loc=pub&amp;w=spoil" xr:uid="{2EBD6334-22BF-403A-864A-C7ADE227F100}"/>
+    <hyperlink ref="F296" r:id="rId351" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{60B1FABC-5E5D-4AA0-B536-2CA6D7514A1E}"/>
+    <hyperlink ref="G296" r:id="rId352" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{757697DB-C771-4C30-8067-2507F75C01CB}"/>
+    <hyperlink ref="E297" r:id="rId353" display="https://www.onelook.com/?loc=pub&amp;w=spoon-feed" xr:uid="{70628379-E02E-47A6-8AB9-7CB907EA8177}"/>
+    <hyperlink ref="E298" r:id="rId354" display="https://www.onelook.com/?loc=pub&amp;w=spread" xr:uid="{F83B3D1D-CDA0-4B18-898C-451EC14B6755}"/>
+    <hyperlink ref="E299" r:id="rId355" display="https://www.onelook.com/?loc=pub&amp;w=spring" xr:uid="{76FCFE1E-8C10-42B3-ADC7-CEE1F8BB297B}"/>
+    <hyperlink ref="E300" r:id="rId356" display="https://www.onelook.com/?loc=pub&amp;w=stand" xr:uid="{EA49A642-1EA9-4807-86AF-601BD9F71C41}"/>
+    <hyperlink ref="E301" r:id="rId357" display="https://www.onelook.com/?loc=pub&amp;w=steal" xr:uid="{E497C043-75FD-48C7-B74F-5970A4446864}"/>
+    <hyperlink ref="E302" r:id="rId358" display="https://www.onelook.com/?loc=pub&amp;w=stick" xr:uid="{F6F5B922-A47B-4B96-96F7-A56C019247CA}"/>
+    <hyperlink ref="E303" r:id="rId359" display="https://www.onelook.com/?loc=pub&amp;w=sting" xr:uid="{F8C3022C-E9E0-4AB4-85FD-97E74C8CE9AD}"/>
+    <hyperlink ref="E304" r:id="rId360" display="https://www.onelook.com/?loc=pub&amp;w=stink" xr:uid="{62487058-8EF4-4D26-ACDA-ECD0A1F67FFA}"/>
+    <hyperlink ref="E305" r:id="rId361" display="https://www.onelook.com/?loc=pub&amp;w=strew" xr:uid="{99FA4218-1C18-4A7A-9308-358902B7184E}"/>
+    <hyperlink ref="E306" r:id="rId362" display="https://www.onelook.com/?loc=pub&amp;w=stride" xr:uid="{873BC2A4-F141-42AB-B71F-BCCEDA8595DC}"/>
+    <hyperlink ref="E307" r:id="rId363" display="https://www.onelook.com/?loc=pub&amp;w=strike" xr:uid="{2BE62D10-4262-49EC-8B8E-FFE6074F3C53}"/>
+    <hyperlink ref="E308" r:id="rId364" display="https://www.onelook.com/?loc=pub&amp;w=strike" xr:uid="{65B3948E-2765-4C19-A689-DEFFA1E11BC3}"/>
+    <hyperlink ref="E309" r:id="rId365" display="https://www.onelook.com/?loc=pub&amp;w=string" xr:uid="{92D0B186-0604-4D15-8421-111B6A53DBFF}"/>
+    <hyperlink ref="E310" r:id="rId366" display="https://www.onelook.com/?loc=pub&amp;w=strive" xr:uid="{DF5D3627-3B08-47A3-9937-D5EC279CA592}"/>
+    <hyperlink ref="E311" r:id="rId367" display="https://www.onelook.com/?loc=pub&amp;w=sublet" xr:uid="{A6062A82-3A98-418B-8D3F-B2836AEAA720}"/>
+    <hyperlink ref="E312" r:id="rId368" display="https://www.onelook.com/?loc=pub&amp;w=sunburn" xr:uid="{32263312-A179-4C97-9725-3C83DC501FE5}"/>
+    <hyperlink ref="F312" r:id="rId369" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{159E5D84-E899-4A9A-9CD3-04F384C50E0E}"/>
+    <hyperlink ref="G312" r:id="rId370" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{21A05679-7A92-40B8-AD22-81DB1F43A0FD}"/>
+    <hyperlink ref="E313" r:id="rId371" display="https://www.onelook.com/?loc=pub&amp;w=swear" xr:uid="{CC05BFFE-8858-4E5F-A002-A9F2A0367467}"/>
+    <hyperlink ref="E314" r:id="rId372" display="https://www.onelook.com/?loc=pub&amp;w=sweat" xr:uid="{87290B81-29D8-48A8-A42A-41CD163BF4DE}"/>
+    <hyperlink ref="E315" r:id="rId373" display="https://www.onelook.com/?loc=pub&amp;w=sweep" xr:uid="{5B1F0F2C-FC80-4322-8029-D91DD1E0B28B}"/>
+    <hyperlink ref="E316" r:id="rId374" display="https://www.onelook.com/?loc=pub&amp;w=swell" xr:uid="{9C7B6EB1-4B17-4FD0-84B0-B5147B0A6199}"/>
+    <hyperlink ref="E317" r:id="rId375" display="https://www.onelook.com/?loc=pub&amp;w=swim" xr:uid="{7D1F604A-E397-4A58-8C50-64B827E0C28C}"/>
+    <hyperlink ref="E318" r:id="rId376" display="https://www.onelook.com/?loc=pub&amp;w=swing" xr:uid="{47D17EC5-992A-4B09-8AA5-4BBA648486C4}"/>
+    <hyperlink ref="E319" r:id="rId377" display="https://www.onelook.com/?loc=pub&amp;w=take" xr:uid="{0EB5522B-9679-40BF-B70B-EE81DC9033BC}"/>
+    <hyperlink ref="E320" r:id="rId378" display="https://www.onelook.com/?loc=pub&amp;w=teach" xr:uid="{280E5FB0-A4CA-46CF-BA3C-2D0C26C78E40}"/>
+    <hyperlink ref="E321" r:id="rId379" display="https://www.onelook.com/?loc=pub&amp;w=tear" xr:uid="{FE923770-05CC-4338-BC48-B90A186D4D9C}"/>
+    <hyperlink ref="E322" r:id="rId380" display="https://www.onelook.com/?loc=pub&amp;w=telecast" xr:uid="{A7FF215A-5C0A-4DAE-86B4-183E3F5B7D12}"/>
+    <hyperlink ref="E323" r:id="rId381" display="https://www.onelook.com/?loc=pub&amp;w=tell" xr:uid="{396E3F1A-082C-4275-94EB-E3107D18E15F}"/>
+    <hyperlink ref="E324" r:id="rId382" display="https://www.onelook.com/?loc=pub&amp;w=test-drive" xr:uid="{54576359-F60D-4453-82F0-7EF4B3B3AA4A}"/>
+    <hyperlink ref="E325" r:id="rId383" display="https://www.onelook.com/?loc=pub&amp;w=test-fly" xr:uid="{7AF60867-6627-4F3B-87F4-F8B1C3D10516}"/>
+    <hyperlink ref="E326" r:id="rId384" display="https://www.onelook.com/?loc=pub&amp;w=think" xr:uid="{A912B12A-0128-4633-8704-405FAAC2765A}"/>
+    <hyperlink ref="E327" r:id="rId385" display="https://www.onelook.com/?loc=pub&amp;w=throw" xr:uid="{92D71B12-275A-4663-8ACF-D95641B8B845}"/>
+    <hyperlink ref="E328" r:id="rId386" display="https://www.onelook.com/?loc=pub&amp;w=thrust" xr:uid="{F09C77CF-677E-47C8-ADDE-3642E4411591}"/>
+    <hyperlink ref="E329" r:id="rId387" display="https://www.onelook.com/?loc=pub&amp;w=tread" xr:uid="{D60FD7C0-0863-489D-A418-D03E4DF29401}"/>
+    <hyperlink ref="E330" r:id="rId388" display="https://www.onelook.com/?loc=pub&amp;w=typecast" xr:uid="{14A08603-1DCA-49C5-A722-0258E1B4ABC4}"/>
+    <hyperlink ref="E331" r:id="rId389" display="https://www.onelook.com/?loc=pub&amp;w=typeset" xr:uid="{B1672381-2E61-4D53-8E1E-118381164E27}"/>
+    <hyperlink ref="E332" r:id="rId390" display="https://www.onelook.com/?loc=pub&amp;w=typewrite" xr:uid="{1B29183C-2D74-4246-BA0B-1A41568EBB29}"/>
+    <hyperlink ref="E333" r:id="rId391" display="https://www.onelook.com/?loc=pub&amp;w=unbend" xr:uid="{EB2667FD-C8B5-4766-AE62-85A06EBFAD67}"/>
+    <hyperlink ref="E334" r:id="rId392" display="https://www.onelook.com/?loc=pub&amp;w=unbind" xr:uid="{67CD0C20-1D17-41A6-B964-0134D2452CBE}"/>
+    <hyperlink ref="E335" r:id="rId393" display="https://www.onelook.com/?loc=pub&amp;w=unclothe" xr:uid="{78BAC990-B850-4669-9A89-F768A989A3E8}"/>
+    <hyperlink ref="F335" r:id="rId394" location="6" display="https://www.englishpage.com/irregularverbs/info.html - 6" xr:uid="{FA3E6EFC-CE00-4C8E-A6CF-63F09FF3A56A}"/>
+    <hyperlink ref="G335" r:id="rId395" location="6" display="https://www.englishpage.com/irregularverbs/info.html - 6" xr:uid="{8CC3DF54-077B-4EEA-9914-6A46960ED78B}"/>
+    <hyperlink ref="E336" r:id="rId396" display="https://www.onelook.com/?loc=pub&amp;w=underbid" xr:uid="{AB0E82F8-73FA-4863-935E-64C0A8B29FC3}"/>
+    <hyperlink ref="E337" r:id="rId397" display="https://www.onelook.com/?loc=pub&amp;w=undercut" xr:uid="{462ED74D-2EE3-481E-9DC9-4452A60A3AC7}"/>
+    <hyperlink ref="E338" r:id="rId398" display="https://www.onelook.com/?loc=pub&amp;w=underfeed" xr:uid="{9F12C4A6-0984-405A-923F-09C5DB190FC4}"/>
+    <hyperlink ref="E339" r:id="rId399" display="https://www.onelook.com/?loc=pub&amp;w=undergo" xr:uid="{EE95ACD0-1513-41D3-ABFE-15E446D7A78F}"/>
+    <hyperlink ref="E340" r:id="rId400" display="https://www.onelook.com/?loc=pub&amp;w=underlie" xr:uid="{C125906E-CCA6-41A7-8322-2DD216514C67}"/>
+    <hyperlink ref="E341" r:id="rId401" display="https://www.onelook.com/?loc=pub&amp;w=undersell" xr:uid="{BB6F5771-4843-4965-916F-63B2D3655776}"/>
+    <hyperlink ref="E342" r:id="rId402" display="https://www.onelook.com/?loc=pub&amp;w=underspend" xr:uid="{61504EBB-31C0-4277-88AF-A7E6E0F3F368}"/>
+    <hyperlink ref="E343" r:id="rId403" display="https://www.onelook.com/?loc=pub&amp;w=understand" xr:uid="{451DC849-60EE-43BD-913B-E84EC7AA59FD}"/>
+    <hyperlink ref="E344" r:id="rId404" display="https://www.onelook.com/?loc=pub&amp;w=undertake" xr:uid="{EE73B956-6915-44CB-8BF4-AEF6B8DD8A2C}"/>
+    <hyperlink ref="E345" r:id="rId405" display="https://www.onelook.com/?loc=pub&amp;w=underwrite" xr:uid="{0FB43D10-B36F-4ABA-8B96-EB70F0359759}"/>
+    <hyperlink ref="E346" r:id="rId406" display="https://www.onelook.com/?loc=pub&amp;w=undo" xr:uid="{F992F421-52FD-43E7-BABC-61E205E37ACC}"/>
+    <hyperlink ref="E347" r:id="rId407" display="https://www.onelook.com/?loc=pub&amp;w=unfreeze" xr:uid="{7E04BB30-9CA4-4231-A0CD-7A2BB7347E01}"/>
+    <hyperlink ref="E348" r:id="rId408" display="https://www.onelook.com/?loc=pub&amp;w=unhang" xr:uid="{E3C3E01F-13D9-4C53-94AA-E31DC982936A}"/>
+    <hyperlink ref="E349" r:id="rId409" display="https://www.onelook.com/?loc=pub&amp;w=unhide" xr:uid="{EFA93945-5184-4D3D-8E18-232F39C64604}"/>
+    <hyperlink ref="E350" r:id="rId410" display="https://www.onelook.com/?loc=pub&amp;w=unknit" xr:uid="{2C6BE43E-4E2A-4B1F-8992-6A25E912D0BD}"/>
+    <hyperlink ref="E351" r:id="rId411" display="https://www.onelook.com/?loc=pub&amp;w=unlearn" xr:uid="{2C4C46D4-0902-4990-BCCD-8FFFDF77FC42}"/>
+    <hyperlink ref="F351" r:id="rId412" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{587DFD44-8166-4970-BACA-41AC7DE2F26E}"/>
+    <hyperlink ref="G351" r:id="rId413" location="4" display="https://www.englishpage.com/irregularverbs/info.html - 4" xr:uid="{97D8123E-364B-4C70-AAD4-C61CE0D7351E}"/>
+    <hyperlink ref="E352" r:id="rId414" display="https://www.onelook.com/?loc=pub&amp;w=unsew" xr:uid="{8593C19D-93ED-4F01-930F-183F6237EE95}"/>
+    <hyperlink ref="E353" r:id="rId415" display="https://www.onelook.com/?loc=pub&amp;w=unsling" xr:uid="{8F913BA3-1433-43BB-A0EE-E969CDA505F6}"/>
+    <hyperlink ref="E354" r:id="rId416" display="https://www.onelook.com/?loc=pub&amp;w=unspin" xr:uid="{8F9C4C3E-B060-4A77-A03C-1F2CCC7B7264}"/>
+    <hyperlink ref="E355" r:id="rId417" display="https://www.onelook.com/?loc=pub&amp;w=unstick" xr:uid="{59E4572A-E812-43D2-8ABE-FBFA8FD7A191}"/>
+    <hyperlink ref="E356" r:id="rId418" display="https://www.onelook.com/?loc=pub&amp;w=unstring" xr:uid="{43950782-719A-4E2B-AFAA-315EA5D3534F}"/>
+    <hyperlink ref="E357" r:id="rId419" display="https://www.onelook.com/?loc=pub&amp;w=unweave" xr:uid="{0B4E27D6-3DEA-4743-9D0A-4223495D9800}"/>
+    <hyperlink ref="E358" r:id="rId420" display="https://www.onelook.com/?loc=pub&amp;w=unwind" xr:uid="{B16214FD-790C-442F-982E-B071B95DC070}"/>
+    <hyperlink ref="E359" r:id="rId421" display="https://www.onelook.com/?loc=pub&amp;w=uphold" xr:uid="{2BCB1BE5-45F8-4D34-8145-3D3817D50D5B}"/>
+    <hyperlink ref="E360" r:id="rId422" display="https://www.onelook.com/?loc=pub&amp;w=upset" xr:uid="{44E0130C-141B-4A56-91C6-E9AC57A855C2}"/>
+    <hyperlink ref="E362" r:id="rId423" display="https://www.onelook.com/?loc=pub&amp;w=wake" xr:uid="{D7FB2F8D-D0C9-4D67-B725-5B43999882B5}"/>
+    <hyperlink ref="E363" r:id="rId424" display="https://www.onelook.com/?loc=pub&amp;w=waylay" xr:uid="{314E3D51-D9FB-44A2-880C-EED5CB0D9E26}"/>
+    <hyperlink ref="E364" r:id="rId425" display="https://www.onelook.com/?loc=pub&amp;w=wear" xr:uid="{E0C7B7B8-F3F2-451D-BDBC-AF1A71C5CE6E}"/>
+    <hyperlink ref="E365" r:id="rId426" display="https://www.onelook.com/?loc=pub&amp;w=weave" xr:uid="{7A527242-D303-48AA-A48F-9D6A6805EA5F}"/>
+    <hyperlink ref="E366" r:id="rId427" display="https://www.onelook.com/?loc=pub&amp;w=wed" xr:uid="{B747CEEF-E842-42EB-A85B-4DA82AC797CD}"/>
+    <hyperlink ref="E367" r:id="rId428" display="https://www.onelook.com/?loc=pub&amp;w=weep" xr:uid="{2D9B3136-120F-4DCE-B301-A8DF26D26DC5}"/>
+    <hyperlink ref="E368" r:id="rId429" display="https://www.onelook.com/?loc=pub&amp;w=wet" xr:uid="{2A3F1E16-0A30-478C-9420-511648DB2205}"/>
+    <hyperlink ref="F368" r:id="rId430" location="5" display="https://www.englishpage.com/irregularverbs/info.html - 5" xr:uid="{41917BEE-2242-42F7-93B3-EC246136D8EA}"/>
+    <hyperlink ref="G368" r:id="rId431" location="5" display="https://www.englishpage.com/irregularverbs/info.html - 5" xr:uid="{9D5A3889-95DE-4DEF-AFF7-0BBF364D7214}"/>
+    <hyperlink ref="E369" r:id="rId432" display="https://www.onelook.com/?loc=pub&amp;w=whet" xr:uid="{E85DD8A4-7843-4AF4-9FEB-3C657F31C19F}"/>
+    <hyperlink ref="E370" r:id="rId433" display="https://www.onelook.com/?loc=pub&amp;w=win" xr:uid="{F03ED0D0-AF91-4366-BE9B-6000D69D1671}"/>
+    <hyperlink ref="E371" r:id="rId434" display="https://www.onelook.com/?loc=pub&amp;w=wind" xr:uid="{FA79C9FD-DDCB-4A80-A3A0-B629529F63FE}"/>
+    <hyperlink ref="E372" r:id="rId435" display="https://www.onelook.com/?loc=pub&amp;w=withdraw" xr:uid="{699A60F4-AB03-4FDA-B422-6FF2B7B12F11}"/>
+    <hyperlink ref="E373" r:id="rId436" display="https://www.onelook.com/?loc=pub&amp;w=withhold" xr:uid="{03D243F7-CC5F-484A-84AD-7B11BA385320}"/>
+    <hyperlink ref="E374" r:id="rId437" display="https://www.onelook.com/?loc=pub&amp;w=withstand" xr:uid="{699F0569-A576-4AA0-A0E6-494BD5D6627F}"/>
+    <hyperlink ref="E375" r:id="rId438" display="https://www.onelook.com/?loc=pub&amp;w=wring" xr:uid="{B0A98AEA-FBE0-4FCA-ADA8-9CBE867F3D18}"/>
+    <hyperlink ref="E376" r:id="rId439" display="https://www.onelook.com/?loc=pub&amp;w=write" xr:uid="{70C26DB6-2E6E-4EEC-8332-B58B00186195}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId440"/>
+</worksheet>
 </file>
--- a/מתארים- descriptors.xlsx
+++ b/מתארים- descriptors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\AITextAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C69A10-45E5-4261-8596-A351A759B614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782B03F9-4E24-422A-BE29-B7B958398694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="887">
   <si>
     <t>מילים</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>בודק וקטורי קרבה, כדאי להעביר ל k=1,2,3 (</t>
-  </si>
-  <si>
-    <t>מזהה שמות עצם, פעלים ...</t>
   </si>
   <si>
     <t>רגשות והומור</t>
@@ -2752,6 +2749,9 @@
   </si>
   <si>
     <t>לנרמל</t>
+  </si>
+  <si>
+    <t>כמות מכל סוג מנורמלת</t>
   </si>
 </sst>
 </file>
@@ -2832,7 +2832,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -2844,13 +2844,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3132,10 +3135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3147,7 +3150,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3177,7 +3180,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3185,158 +3188,158 @@
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>41</v>
+      <c r="B9" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>886</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
-        <v>40</v>
+      <c r="B10" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
-        <v>44</v>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
+      <c r="B16" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>7</v>
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>886</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+      <c r="B23" t="s">
         <v>30</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D23" t="s">
         <v>29</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E23" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="9" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="9" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="9" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="6" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -3349,95 +3352,90 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="6" t="s">
-        <v>47</v>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>14</v>
+      <c r="B54" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B60" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E23" r:id="rId1" xr:uid="{B3B9D40C-BD89-4650-9412-4C528F737C93}"/>
+    <hyperlink ref="E22" r:id="rId1" xr:uid="{B3B9D40C-BD89-4650-9412-4C528F737C93}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId2"/>
@@ -3456,4112 +3454,4112 @@
   <sheetData>
     <row r="3" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E3" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="4" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E4" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="5" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E5" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>333</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="6" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E6" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E7" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>251</v>
-      </c>
       <c r="G7" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E8" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="G11" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E12" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E13" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>339</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="14" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E14" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E15" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>253</v>
-      </c>
       <c r="G15" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E17" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>255</v>
-      </c>
       <c r="G17" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="19" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="20" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E20" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>257</v>
-      </c>
       <c r="G20" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="G21" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="E22" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E23" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>343</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="24" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="G24" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E25" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E26" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E27" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>347</v>
-      </c>
       <c r="G27" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="28" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="G28" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E29" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="30" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E30" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="G30" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E31" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="32" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E32" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>261</v>
-      </c>
       <c r="G32" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E33" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>350</v>
-      </c>
       <c r="G33" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E34" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="G34" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E35" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E36" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>263</v>
-      </c>
       <c r="G36" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E37" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>352</v>
-      </c>
       <c r="G37" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E38" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="E39" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>354</v>
-      </c>
       <c r="G39" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E40" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>265</v>
-      </c>
       <c r="G40" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E41" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="G41" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E42" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="G42" s="4" t="s">
         <v>356</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="43" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="E43" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>359</v>
-      </c>
       <c r="G43" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E44" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>361</v>
-      </c>
       <c r="G44" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E45" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="G45" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="46" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E46" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="G46" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="47" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E47" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="48" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E48" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="G48" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="49" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E49" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="50" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E50" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="F50" s="5" t="s">
-        <v>364</v>
-      </c>
       <c r="G50" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="51" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E51" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="G51" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="52" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E52" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="G52" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="53" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E53" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>267</v>
-      </c>
       <c r="G53" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="54" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E54" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="G54" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E55" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="G55" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E56" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F56" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="G56" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="E57" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="F57" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="F57" s="5" t="s">
-        <v>366</v>
-      </c>
       <c r="G57" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="58" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E58" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F58" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>368</v>
-      </c>
       <c r="G58" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="59" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E59" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>370</v>
-      </c>
       <c r="G59" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="60" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E60" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="F60" s="4" t="s">
-        <v>372</v>
-      </c>
       <c r="G60" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="61" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E61" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="G61" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="62" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E62" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="G62" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="63" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E63" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="64" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E64" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="G64" s="4" t="s">
         <v>375</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="65" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E65" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="G65" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="66" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E66" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="F66" s="4" t="s">
-        <v>381</v>
-      </c>
       <c r="G66" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="67" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E67" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F67" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F67" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="G67" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="68" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E68" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F68" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="G68" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="69" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E69" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="G69" s="4" t="s">
         <v>384</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="70" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E70" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F70" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="G70" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="71" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E71" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="F71" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="G71" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="72" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E72" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F72" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="G72" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="73" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E73" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="G73" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="74" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E74" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="G74" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="75" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E75" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="F75" s="4" t="s">
-        <v>272</v>
-      </c>
       <c r="G75" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="76" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E76" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F76" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="G76" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="77" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E77" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="F77" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="F77" s="4" t="s">
-        <v>391</v>
-      </c>
       <c r="G77" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="78" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E78" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F78" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="G78" s="4" t="s">
         <v>393</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="79" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E79" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F79" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F79" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="G79" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E80" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F80" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F80" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="G80" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E81" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F81" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F81" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="G81" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E82" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="F82" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="G82" s="4" t="s">
         <v>396</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="83" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E83" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F83" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="G83" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="84" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E84" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E85" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F85" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="G85" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E86" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E87" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="F87" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="F87" s="4" t="s">
-        <v>399</v>
-      </c>
       <c r="G87" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="88" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E88" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F88" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="F88" s="4" t="s">
-        <v>401</v>
-      </c>
       <c r="G88" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="89" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E89" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="F89" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="F89" s="4" t="s">
-        <v>403</v>
-      </c>
       <c r="G89" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="90" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E90" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="F90" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="F90" s="4" t="s">
-        <v>405</v>
-      </c>
       <c r="G90" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="91" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="E91" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="F91" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="G91" s="4" t="s">
         <v>407</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="92" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E92" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="F92" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="F92" s="4" t="s">
-        <v>410</v>
-      </c>
       <c r="G92" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="93" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E93" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="F93" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="F93" s="4" t="s">
-        <v>412</v>
-      </c>
       <c r="G93" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="94" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E94" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F94" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F94" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="G94" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E95" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="96" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E96" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="F96" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="F96" s="4" t="s">
-        <v>415</v>
-      </c>
       <c r="G96" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="97" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E97" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F97" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="G97" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="98" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E98" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F98" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F98" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="G98" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E99" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F99" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F99" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="G99" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E100" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="101" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E101" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F101" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="F101" s="5" t="s">
-        <v>418</v>
-      </c>
       <c r="G101" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="102" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E102" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="103" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E103" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F103" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F103" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="G103" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E104" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F104" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F104" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="G104" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E105" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E106" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G106" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="107" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="E107" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="108" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E108" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="109" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E109" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="110" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E110" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F110" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F110" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="G110" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="111" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E111" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F111" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F111" s="4" t="s">
-        <v>171</v>
-      </c>
       <c r="G111" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="112" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E112" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F112" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F112" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="G112" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="113" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E113" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F113" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F113" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="G113" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="114" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E114" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="115" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E115" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="F115" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="F115" s="4" t="s">
-        <v>425</v>
-      </c>
       <c r="G115" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="116" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E116" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="F116" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="F116" s="4" t="s">
+      <c r="G116" s="4" t="s">
         <v>427</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="117" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E117" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="F117" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="F117" s="4" t="s">
-        <v>430</v>
-      </c>
       <c r="G117" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="118" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E118" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="F118" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="F118" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="G118" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="119" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E119" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="F119" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="F119" s="4" t="s">
-        <v>434</v>
-      </c>
       <c r="G119" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="120" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="E120" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="F120" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="F120" s="5" t="s">
-        <v>436</v>
-      </c>
       <c r="G120" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="121" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E121" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="122" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E122" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="123" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E123" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F123" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="F123" s="4" t="s">
+      <c r="G123" s="4" t="s">
         <v>440</v>
-      </c>
-      <c r="G123" s="4" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="124" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="E124" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="F124" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="F124" s="5" t="s">
-        <v>443</v>
-      </c>
       <c r="G124" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="125" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E125" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="F125" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="F125" s="4" t="s">
-        <v>445</v>
-      </c>
       <c r="G125" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="126" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E126" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="F126" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="F126" s="4" t="s">
+      <c r="G126" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="127" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E127" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="F127" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="F127" s="4" t="s">
-        <v>450</v>
-      </c>
       <c r="G127" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="128" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E128" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="F128" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="F128" s="4" t="s">
-        <v>452</v>
-      </c>
       <c r="G128" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="129" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E129" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="F129" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="F129" s="4" t="s">
+      <c r="G129" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="G129" s="4" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="130" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E130" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F130" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="F130" s="4" t="s">
-        <v>279</v>
-      </c>
       <c r="G130" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="131" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E131" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="132" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E132" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="133" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E133" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F133" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="F133" s="4" t="s">
-        <v>460</v>
-      </c>
       <c r="G133" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="134" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E134" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="F134" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="F134" s="4" t="s">
+      <c r="G134" s="4" t="s">
         <v>462</v>
-      </c>
-      <c r="G134" s="4" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="135" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E135" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="F135" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="F135" s="4" t="s">
+      <c r="G135" s="4" t="s">
         <v>465</v>
-      </c>
-      <c r="G135" s="4" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="136" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E136" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="F136" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F136" s="4" t="s">
+      <c r="G136" s="4" t="s">
         <v>468</v>
-      </c>
-      <c r="G136" s="4" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="137" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E137" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="F137" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="F137" s="4" t="s">
+      <c r="G137" s="4" t="s">
         <v>471</v>
-      </c>
-      <c r="G137" s="4" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="138" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E138" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F138" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="F138" s="4" t="s">
-        <v>474</v>
-      </c>
       <c r="G138" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="139" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E139" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="F139" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="F139" s="4" t="s">
+      <c r="G139" s="4" t="s">
         <v>476</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="140" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E140" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="F140" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="F140" s="4" t="s">
+      <c r="G140" s="4" t="s">
         <v>479</v>
-      </c>
-      <c r="G140" s="4" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="141" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="E141" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="F141" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="F141" s="5" t="s">
-        <v>482</v>
-      </c>
       <c r="G141" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="142" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="E142" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="F142" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="F142" s="4" t="s">
-        <v>484</v>
-      </c>
       <c r="G142" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="143" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E143" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="F143" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="F143" s="4" t="s">
+      <c r="G143" s="4" t="s">
         <v>486</v>
-      </c>
-      <c r="G143" s="4" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="144" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E144" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="F144" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="F144" s="4" t="s">
-        <v>489</v>
-      </c>
       <c r="G144" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="145" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E145" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="F145" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="F145" s="4" t="s">
-        <v>491</v>
-      </c>
       <c r="G145" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="146" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="E146" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="F146" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="F146" s="5" t="s">
-        <v>493</v>
-      </c>
       <c r="G146" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="147" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E147" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="F147" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F147" s="4" t="s">
-        <v>495</v>
-      </c>
       <c r="G147" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="148" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E148" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="F148" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="F148" s="4" t="s">
+      <c r="G148" s="4" t="s">
         <v>497</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="149" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E149" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="F149" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="F149" s="4" t="s">
-        <v>500</v>
-      </c>
       <c r="G149" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="150" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E150" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="F150" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="F150" s="4" t="s">
-        <v>502</v>
-      </c>
       <c r="G150" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="151" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="E151" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="F151" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="F151" s="5" t="s">
-        <v>504</v>
-      </c>
       <c r="G151" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="152" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E152" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="F152" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="F152" s="4" t="s">
+      <c r="G152" s="4" t="s">
         <v>506</v>
-      </c>
-      <c r="G152" s="4" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="153" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E153" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="F153" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="F153" s="4" t="s">
-        <v>509</v>
-      </c>
       <c r="G153" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="154" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E154" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="F154" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="F154" s="4" t="s">
-        <v>511</v>
-      </c>
       <c r="G154" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="155" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E155" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="F155" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="F155" s="4" t="s">
+      <c r="G155" s="4" t="s">
         <v>513</v>
-      </c>
-      <c r="G155" s="4" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="156" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E156" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="F156" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="F156" s="4" t="s">
+      <c r="G156" s="4" t="s">
         <v>516</v>
-      </c>
-      <c r="G156" s="4" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="157" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E157" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="F157" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="F157" s="4" t="s">
-        <v>519</v>
-      </c>
       <c r="G157" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="158" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E158" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="F158" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="F158" s="4" t="s">
+      <c r="G158" s="4" t="s">
         <v>521</v>
-      </c>
-      <c r="G158" s="4" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="159" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E159" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="F159" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F159" s="4" t="s">
+      <c r="G159" s="4" t="s">
         <v>524</v>
-      </c>
-      <c r="G159" s="4" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="160" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E160" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="161" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E161" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="F161" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="F161" s="4" t="s">
-        <v>528</v>
-      </c>
       <c r="G161" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="162" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E162" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="F162" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="F162" s="4" t="s">
-        <v>530</v>
-      </c>
       <c r="G162" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="163" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E163" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="F163" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="F163" s="4" t="s">
-        <v>532</v>
-      </c>
       <c r="G163" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="164" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E164" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="F164" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="F164" s="4" t="s">
-        <v>534</v>
-      </c>
       <c r="G164" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="165" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E165" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="F165" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="F165" s="4" t="s">
+      <c r="G165" s="4" t="s">
         <v>536</v>
-      </c>
-      <c r="G165" s="4" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="166" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E166" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="F166" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="F166" s="4" t="s">
+      <c r="G166" s="4" t="s">
         <v>539</v>
-      </c>
-      <c r="G166" s="4" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="167" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E167" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="F167" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="F167" s="4" t="s">
+      <c r="G167" s="4" t="s">
         <v>542</v>
-      </c>
-      <c r="G167" s="4" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="168" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E168" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="F168" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="F168" s="4" t="s">
+      <c r="G168" s="4" t="s">
         <v>545</v>
-      </c>
-      <c r="G168" s="4" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="169" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E169" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="F169" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="F169" s="4" t="s">
-        <v>548</v>
-      </c>
       <c r="G169" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="170" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E170" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="F170" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="F170" s="4" t="s">
-        <v>550</v>
-      </c>
       <c r="G170" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="171" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E171" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="F171" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="F171" s="4" t="s">
-        <v>552</v>
-      </c>
       <c r="G171" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="172" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E172" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="F172" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="F172" s="4" t="s">
-        <v>554</v>
-      </c>
       <c r="G172" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="173" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E173" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="F173" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="F173" s="4" t="s">
-        <v>556</v>
-      </c>
       <c r="G173" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="174" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E174" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="F174" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="F174" s="4" t="s">
+      <c r="G174" s="4" t="s">
         <v>558</v>
-      </c>
-      <c r="G174" s="4" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="175" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E175" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="F175" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="F175" s="4" t="s">
-        <v>561</v>
-      </c>
       <c r="G175" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="176" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E176" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="F176" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="F176" s="4" t="s">
+      <c r="G176" s="4" t="s">
         <v>563</v>
-      </c>
-      <c r="G176" s="4" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="177" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E177" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="F177" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="F177" s="4" t="s">
-        <v>566</v>
-      </c>
       <c r="G177" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="178" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="E178" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="F178" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="F178" s="4" t="s">
+      <c r="G178" s="4" t="s">
         <v>568</v>
-      </c>
-      <c r="G178" s="4" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="179" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E179" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="F179" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="F179" s="4" t="s">
-        <v>571</v>
-      </c>
       <c r="G179" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="180" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E180" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="F180" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="F180" s="4" t="s">
-        <v>573</v>
-      </c>
       <c r="G180" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="181" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E181" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="F181" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="F181" s="4" t="s">
+      <c r="G181" s="4" t="s">
         <v>575</v>
-      </c>
-      <c r="G181" s="4" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="182" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E182" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="F182" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="F182" s="4" t="s">
-        <v>578</v>
-      </c>
       <c r="G182" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="183" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="E183" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="F183" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="F183" s="5" t="s">
-        <v>580</v>
-      </c>
       <c r="G183" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="184" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E184" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F184" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="F184" s="4" t="s">
+      <c r="G184" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="G184" s="4" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="185" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E185" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="F185" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="F185" s="4" t="s">
-        <v>582</v>
-      </c>
       <c r="G185" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="186" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E186" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="F186" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="F186" s="4" t="s">
+      <c r="G186" s="4" t="s">
         <v>584</v>
-      </c>
-      <c r="G186" s="4" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="187" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E187" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="F187" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="F187" s="4" t="s">
-        <v>587</v>
-      </c>
       <c r="G187" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="188" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E188" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="F188" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="F188" s="4" t="s">
+      <c r="G188" s="4" t="s">
         <v>589</v>
-      </c>
-      <c r="G188" s="4" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="189" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E189" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="F189" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="F189" s="4" t="s">
+      <c r="G189" s="4" t="s">
         <v>592</v>
-      </c>
-      <c r="G189" s="4" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="190" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E190" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F190" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F190" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="G190" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="191" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E191" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="F191" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="F191" s="4" t="s">
-        <v>595</v>
-      </c>
       <c r="G191" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="192" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E192" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="F192" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="F192" s="4" t="s">
-        <v>597</v>
-      </c>
       <c r="G192" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="193" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E193" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="F193" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="F193" s="4" t="s">
+      <c r="G193" s="4" t="s">
         <v>599</v>
-      </c>
-      <c r="G193" s="4" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="194" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E194" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="F194" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="F194" s="4" t="s">
-        <v>602</v>
-      </c>
       <c r="G194" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="195" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E195" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="F195" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="F195" s="4" t="s">
-        <v>604</v>
-      </c>
       <c r="G195" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="196" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E196" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="F196" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="F196" s="4" t="s">
-        <v>606</v>
-      </c>
       <c r="G196" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="197" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E197" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="198" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E198" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="F198" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="F198" s="4" t="s">
+      <c r="G198" s="4" t="s">
         <v>609</v>
-      </c>
-      <c r="G198" s="4" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="199" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E199" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="200" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E200" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="F200" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="F200" s="4" t="s">
+      <c r="G200" s="4" t="s">
         <v>613</v>
-      </c>
-      <c r="G200" s="4" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="201" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E201" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="202" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E202" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="F202" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="F202" s="4" t="s">
+      <c r="G202" s="4" t="s">
         <v>616</v>
-      </c>
-      <c r="G202" s="4" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="203" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E203" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="F203" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="F203" s="5" t="s">
-        <v>619</v>
-      </c>
       <c r="G203" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="204" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="E204" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="205" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E205" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="F205" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="F205" s="4" t="s">
+      <c r="G205" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="G205" s="4" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="206" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E206" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="207" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E207" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="F207" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="F207" s="4" t="s">
-        <v>626</v>
-      </c>
       <c r="G207" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="208" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="E208" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="F208" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="F208" s="4" t="s">
-        <v>628</v>
-      </c>
       <c r="G208" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="209" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E209" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="F209" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="F209" s="4" t="s">
-        <v>630</v>
-      </c>
       <c r="G209" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="210" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E210" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="211" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E211" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="212" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E212" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="F212" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="F212" s="4" t="s">
-        <v>634</v>
-      </c>
       <c r="G212" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="213" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E213" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="F213" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="F213" s="4" t="s">
+      <c r="G213" s="4" t="s">
         <v>636</v>
-      </c>
-      <c r="G213" s="4" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="214" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E214" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="F214" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="F214" s="4" t="s">
+      <c r="G214" s="4" t="s">
         <v>639</v>
-      </c>
-      <c r="G214" s="4" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="215" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E215" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="F215" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="F215" s="5" t="s">
-        <v>642</v>
-      </c>
       <c r="G215" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="216" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E216" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="F216" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="F216" s="5" t="s">
-        <v>644</v>
-      </c>
       <c r="G216" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="217" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E217" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="F217" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="F217" s="4" t="s">
-        <v>646</v>
-      </c>
       <c r="G217" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="218" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E218" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="F218" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F218" s="4" t="s">
+      <c r="G218" s="4" t="s">
         <v>648</v>
-      </c>
-      <c r="G218" s="4" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="219" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E219" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="F219" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="F219" s="4" t="s">
-        <v>651</v>
-      </c>
       <c r="G219" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="220" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E220" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="F220" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="F220" s="4" t="s">
-        <v>653</v>
-      </c>
       <c r="G220" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="221" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E221" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="F221" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="F221" s="4" t="s">
-        <v>655</v>
-      </c>
       <c r="G221" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="222" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E222" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="F222" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="F222" s="4" t="s">
-        <v>657</v>
-      </c>
       <c r="G222" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="223" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="E223" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="F223" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="F223" s="4" t="s">
-        <v>659</v>
-      </c>
       <c r="G223" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="224" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="E224" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="F224" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="F224" s="5" t="s">
-        <v>661</v>
-      </c>
       <c r="G224" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="225" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E225" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="F225" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="F225" s="4" t="s">
-        <v>663</v>
-      </c>
       <c r="G225" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="226" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E226" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="F226" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="F226" s="4" t="s">
-        <v>665</v>
-      </c>
       <c r="G226" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="227" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E227" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="F227" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="F227" s="4" t="s">
-        <v>667</v>
-      </c>
       <c r="G227" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="228" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E228" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="229" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E229" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="F229" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="F229" s="4" t="s">
-        <v>670</v>
-      </c>
       <c r="G229" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="230" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E230" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="F230" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="F230" s="4" t="s">
-        <v>672</v>
-      </c>
       <c r="G230" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="231" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E231" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="F231" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="F231" s="4" t="s">
-        <v>674</v>
-      </c>
       <c r="G231" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="232" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E232" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="233" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E233" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="F233" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="F233" s="4" t="s">
+      <c r="G233" s="4" t="s">
         <v>677</v>
-      </c>
-      <c r="G233" s="4" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="234" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E234" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="F234" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="F234" s="4" t="s">
+      <c r="G234" s="4" t="s">
         <v>680</v>
-      </c>
-      <c r="G234" s="4" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="235" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E235" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="F235" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="F235" s="4" t="s">
-        <v>683</v>
-      </c>
       <c r="G235" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="236" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E236" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="F236" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="F236" s="4" t="s">
+      <c r="G236" s="4" t="s">
         <v>685</v>
-      </c>
-      <c r="G236" s="4" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="237" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E237" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="F237" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="F237" s="4" t="s">
-        <v>688</v>
-      </c>
       <c r="G237" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="238" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E238" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="F238" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="F238" s="4" t="s">
-        <v>690</v>
-      </c>
       <c r="G238" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="239" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E239" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F239" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="240" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="E240" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="F240" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="F240" s="5" t="s">
-        <v>693</v>
-      </c>
       <c r="G240" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="241" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E241" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="F241" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="F241" s="4" t="s">
+      <c r="G241" s="4" t="s">
         <v>695</v>
-      </c>
-      <c r="G241" s="4" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="242" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E242" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="F242" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="F242" s="4" t="s">
+      <c r="G242" s="4" t="s">
         <v>698</v>
-      </c>
-      <c r="G242" s="4" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="243" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="E243" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="F243" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="F243" s="4" t="s">
+      <c r="G243" s="4" t="s">
         <v>701</v>
-      </c>
-      <c r="G243" s="4" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="244" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E244" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="F244" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="F244" s="4" t="s">
-        <v>704</v>
-      </c>
       <c r="G244" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="245" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E245" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="F245" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="F245" s="5" t="s">
-        <v>706</v>
-      </c>
       <c r="G245" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="246" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E246" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="F246" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="F246" s="4" t="s">
-        <v>708</v>
-      </c>
       <c r="G246" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="247" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E247" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="F247" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="F247" s="4" t="s">
-        <v>710</v>
-      </c>
       <c r="G247" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="248" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E248" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="F248" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="F248" s="4" t="s">
+      <c r="G248" s="4" t="s">
         <v>712</v>
-      </c>
-      <c r="G248" s="4" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="249" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E249" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="250" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E250" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F250" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="F250" s="4" t="s">
+      <c r="G250" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="G250" s="4" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="251" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E251" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F251" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F251" s="4" t="s">
+      <c r="G251" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="G251" s="4" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="252" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E252" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F252" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F252" s="4" t="s">
+      <c r="G252" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="G252" s="4" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="253" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E253" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="254" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E254" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F254" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="F254" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="G254" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="255" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E255" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F255" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="256" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E256" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F256" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="257" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E257" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F257" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="F257" s="4" t="s">
-        <v>192</v>
-      </c>
       <c r="G257" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="258" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E258" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F258" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="F258" s="4" t="s">
+      <c r="G258" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="G258" s="4" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="259" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E259" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="F259" s="4" t="s">
         <v>718</v>
       </c>
-      <c r="F259" s="4" t="s">
-        <v>719</v>
-      </c>
       <c r="G259" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="260" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E260" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F260" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="F260" s="4" t="s">
-        <v>197</v>
-      </c>
       <c r="G260" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="261" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E261" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F261" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F261" s="4" t="s">
-        <v>199</v>
-      </c>
       <c r="G261" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="262" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E262" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F262" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G262" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="263" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E263" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F263" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="F263" s="4" t="s">
-        <v>286</v>
-      </c>
       <c r="G263" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="264" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E264" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F264" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="F264" s="4" t="s">
+      <c r="G264" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="G264" s="4" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="265" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E265" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="F265" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="F265" s="4" t="s">
+      <c r="G265" s="4" t="s">
         <v>722</v>
-      </c>
-      <c r="G265" s="4" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="266" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E266" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="F266" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="F266" s="4" t="s">
+      <c r="G266" s="4" t="s">
         <v>725</v>
-      </c>
-      <c r="G266" s="4" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="267" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E267" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F267" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G267" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="268" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E268" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F268" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="269" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E269" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="F269" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="F269" s="4" t="s">
+      <c r="G269" s="4" t="s">
         <v>729</v>
-      </c>
-      <c r="G269" s="4" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="270" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E270" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F270" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="F270" s="4" t="s">
-        <v>293</v>
-      </c>
       <c r="G270" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="271" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E271" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F271" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="F271" s="4" t="s">
-        <v>201</v>
-      </c>
       <c r="G271" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="272" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E272" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F272" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="G272" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="F272" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="G272" s="4" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="273" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E273" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F273" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G273" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="274" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E274" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F274" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G274" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="275" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E275" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F275" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="F275" s="4" t="s">
+      <c r="G275" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="G275" s="4" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="276" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E276" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F276" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="G276" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="F276" s="4" t="s">
-        <v>734</v>
-      </c>
-      <c r="G276" s="4" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="277" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E277" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F277" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F277" s="4" t="s">
-        <v>207</v>
-      </c>
       <c r="G277" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="278" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E278" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="F278" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="F278" s="4" t="s">
+      <c r="G278" s="4" t="s">
         <v>736</v>
-      </c>
-      <c r="G278" s="4" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="279" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E279" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="F279" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="F279" s="4" t="s">
-        <v>739</v>
-      </c>
       <c r="G279" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="280" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E280" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F280" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F280" s="4" t="s">
-        <v>209</v>
-      </c>
       <c r="G280" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="281" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E281" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F281" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="F281" s="4" t="s">
-        <v>299</v>
-      </c>
       <c r="G281" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="282" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E282" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="F282" s="4" t="s">
         <v>740</v>
       </c>
-      <c r="F282" s="4" t="s">
-        <v>741</v>
-      </c>
       <c r="G282" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="283" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E283" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="F283" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="F283" s="4" t="s">
-        <v>743</v>
-      </c>
       <c r="G283" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="284" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E284" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F284" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G284" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="285" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E285" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F285" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G285" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="286" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E286" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="F286" s="4" t="s">
         <v>746</v>
       </c>
-      <c r="F286" s="4" t="s">
-        <v>747</v>
-      </c>
       <c r="G286" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="287" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E287" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F287" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="F287" s="4" t="s">
-        <v>302</v>
-      </c>
       <c r="G287" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="288" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E288" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F288" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="F288" s="4" t="s">
+      <c r="G288" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="G288" s="4" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="289" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E289" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="F289" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="F289" s="4" t="s">
-        <v>750</v>
-      </c>
       <c r="G289" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="290" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E290" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F290" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G290" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="291" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E291" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F291" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F291" s="4" t="s">
-        <v>214</v>
-      </c>
       <c r="G291" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="292" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E292" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F292" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G292" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="293" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E293" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="F293" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="F293" s="4" t="s">
-        <v>754</v>
-      </c>
       <c r="G293" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="294" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E294" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F294" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G294" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="295" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E295" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F295" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G295" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="296" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E296" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="F296" s="5" t="s">
         <v>757</v>
       </c>
-      <c r="F296" s="5" t="s">
-        <v>758</v>
-      </c>
       <c r="G296" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="297" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E297" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="F297" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="F297" s="4" t="s">
-        <v>760</v>
-      </c>
       <c r="G297" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="298" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E298" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F298" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G298" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="299" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E299" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="F299" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="F299" s="4" t="s">
+      <c r="G299" s="4" t="s">
         <v>762</v>
-      </c>
-      <c r="G299" s="4" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="300" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E300" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F300" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G300" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="301" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E301" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="F301" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="F301" s="4" t="s">
+      <c r="G301" s="4" t="s">
         <v>308</v>
-      </c>
-      <c r="G301" s="4" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="302" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E302" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F302" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F302" s="4" t="s">
-        <v>311</v>
-      </c>
       <c r="G302" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="303" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E303" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F303" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="F303" s="4" t="s">
-        <v>313</v>
-      </c>
       <c r="G303" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="304" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E304" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F304" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="G304" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="F304" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="G304" s="4" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="305" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E305" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="F305" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="F305" s="4" t="s">
+      <c r="G305" s="4" t="s">
         <v>767</v>
-      </c>
-      <c r="G305" s="4" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="306" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E306" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="F306" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="F306" s="4" t="s">
+      <c r="G306" s="4" t="s">
         <v>770</v>
-      </c>
-      <c r="G306" s="4" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="307" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E307" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="F307" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="G307" s="4" t="s">
         <v>772</v>
-      </c>
-      <c r="F307" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="G307" s="4" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="308" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E308" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="F308" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="G308" s="4" t="s">
         <v>774</v>
-      </c>
-      <c r="F308" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="G308" s="4" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="309" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E309" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="F309" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="F309" s="4" t="s">
-        <v>777</v>
-      </c>
       <c r="G309" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="310" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E310" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="F310" s="4" t="s">
         <v>778</v>
       </c>
-      <c r="F310" s="4" t="s">
+      <c r="G310" s="4" t="s">
         <v>779</v>
-      </c>
-      <c r="G310" s="4" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="311" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E311" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F311" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G311" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="312" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="E312" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="F312" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="F312" s="5" t="s">
-        <v>783</v>
-      </c>
       <c r="G312" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="313" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E313" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="F313" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="F313" s="4" t="s">
+      <c r="G313" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="G313" s="4" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="314" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E314" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="F314" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="F314" s="4" t="s">
-        <v>785</v>
-      </c>
       <c r="G314" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="315" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E315" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F315" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="F315" s="4" t="s">
-        <v>321</v>
-      </c>
       <c r="G315" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="316" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E316" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="F316" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="F316" s="4" t="s">
-        <v>323</v>
-      </c>
       <c r="G316" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="317" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E317" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F317" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F317" s="4" t="s">
+      <c r="G317" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="G317" s="4" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="318" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E318" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F318" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="F318" s="4" t="s">
-        <v>325</v>
-      </c>
       <c r="G318" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="319" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E319" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F319" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="F319" s="4" t="s">
+      <c r="G319" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="G319" s="4" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="320" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E320" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F320" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F320" s="4" t="s">
-        <v>223</v>
-      </c>
       <c r="G320" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="321" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E321" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F321" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F321" s="4" t="s">
+      <c r="G321" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="G321" s="4" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="322" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E322" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F322" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G322" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="323" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E323" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F323" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="F323" s="4" t="s">
-        <v>228</v>
-      </c>
       <c r="G323" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="324" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E324" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="F324" s="4" t="s">
         <v>788</v>
       </c>
-      <c r="F324" s="4" t="s">
+      <c r="G324" s="4" t="s">
         <v>789</v>
-      </c>
-      <c r="G324" s="4" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="325" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E325" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="F325" s="4" t="s">
         <v>791</v>
       </c>
-      <c r="F325" s="4" t="s">
+      <c r="G325" s="4" t="s">
         <v>792</v>
-      </c>
-      <c r="G325" s="4" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="326" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E326" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F326" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="F326" s="4" t="s">
-        <v>230</v>
-      </c>
       <c r="G326" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="327" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E327" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F327" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="F327" s="4" t="s">
+      <c r="G327" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="G327" s="4" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="328" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E328" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F328" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G328" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="329" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E329" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="F329" s="4" t="s">
         <v>795</v>
       </c>
-      <c r="F329" s="4" t="s">
+      <c r="G329" s="4" t="s">
         <v>796</v>
-      </c>
-      <c r="G329" s="4" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="330" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E330" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F330" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G330" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="331" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E331" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F331" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G331" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="332" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E332" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="F332" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="F332" s="4" t="s">
+      <c r="G332" s="4" t="s">
         <v>801</v>
-      </c>
-      <c r="G332" s="4" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="333" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E333" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="F333" s="4" t="s">
         <v>803</v>
       </c>
-      <c r="F333" s="4" t="s">
-        <v>804</v>
-      </c>
       <c r="G333" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="334" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E334" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="F334" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="F334" s="4" t="s">
-        <v>806</v>
-      </c>
       <c r="G334" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="335" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="E335" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="F335" s="5" t="s">
         <v>807</v>
       </c>
-      <c r="F335" s="5" t="s">
-        <v>808</v>
-      </c>
       <c r="G335" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="336" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E336" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F336" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G336" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="337" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E337" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F337" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G337" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="338" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E338" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="F338" s="4" t="s">
         <v>811</v>
       </c>
-      <c r="F338" s="4" t="s">
-        <v>812</v>
-      </c>
       <c r="G338" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="339" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E339" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="F339" s="4" t="s">
         <v>813</v>
       </c>
-      <c r="F339" s="4" t="s">
+      <c r="G339" s="4" t="s">
         <v>814</v>
-      </c>
-      <c r="G339" s="4" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="340" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E340" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="F340" s="4" t="s">
         <v>816</v>
       </c>
-      <c r="F340" s="4" t="s">
+      <c r="G340" s="4" t="s">
         <v>817</v>
-      </c>
-      <c r="G340" s="4" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="341" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E341" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="F341" s="4" t="s">
         <v>819</v>
       </c>
-      <c r="F341" s="4" t="s">
-        <v>820</v>
-      </c>
       <c r="G341" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="342" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E342" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="F342" s="4" t="s">
         <v>821</v>
       </c>
-      <c r="F342" s="4" t="s">
-        <v>822</v>
-      </c>
       <c r="G342" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="343" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E343" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F343" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="F343" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="G343" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="344" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E344" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="F344" s="4" t="s">
         <v>823</v>
       </c>
-      <c r="F344" s="4" t="s">
+      <c r="G344" s="4" t="s">
         <v>824</v>
-      </c>
-      <c r="G344" s="4" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="345" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E345" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="F345" s="4" t="s">
         <v>826</v>
       </c>
-      <c r="F345" s="4" t="s">
+      <c r="G345" s="4" t="s">
         <v>827</v>
-      </c>
-      <c r="G345" s="4" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="346" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E346" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="F346" s="4" t="s">
         <v>829</v>
       </c>
-      <c r="F346" s="4" t="s">
+      <c r="G346" s="4" t="s">
         <v>830</v>
-      </c>
-      <c r="G346" s="4" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="347" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E347" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="F347" s="4" t="s">
         <v>832</v>
       </c>
-      <c r="F347" s="4" t="s">
+      <c r="G347" s="4" t="s">
         <v>833</v>
-      </c>
-      <c r="G347" s="4" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="348" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E348" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="F348" s="4" t="s">
         <v>835</v>
       </c>
-      <c r="F348" s="4" t="s">
-        <v>836</v>
-      </c>
       <c r="G348" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="349" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E349" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="F349" s="4" t="s">
         <v>837</v>
       </c>
-      <c r="F349" s="4" t="s">
+      <c r="G349" s="4" t="s">
         <v>838</v>
-      </c>
-      <c r="G349" s="4" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="350" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E350" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="F350" s="4" t="s">
         <v>840</v>
       </c>
-      <c r="F350" s="4" t="s">
-        <v>841</v>
-      </c>
       <c r="G350" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="351" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="E351" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="F351" s="5" t="s">
         <v>842</v>
       </c>
-      <c r="F351" s="5" t="s">
-        <v>843</v>
-      </c>
       <c r="G351" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="352" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E352" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="F352" s="4" t="s">
         <v>844</v>
       </c>
-      <c r="F352" s="4" t="s">
+      <c r="G352" s="4" t="s">
         <v>845</v>
-      </c>
-      <c r="G352" s="4" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="353" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E353" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="F353" s="4" t="s">
         <v>847</v>
       </c>
-      <c r="F353" s="4" t="s">
-        <v>848</v>
-      </c>
       <c r="G353" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="354" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E354" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="F354" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="F354" s="4" t="s">
-        <v>850</v>
-      </c>
       <c r="G354" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="355" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E355" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="F355" s="4" t="s">
         <v>851</v>
       </c>
-      <c r="F355" s="4" t="s">
-        <v>852</v>
-      </c>
       <c r="G355" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="356" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E356" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="F356" s="4" t="s">
         <v>853</v>
       </c>
-      <c r="F356" s="4" t="s">
-        <v>854</v>
-      </c>
       <c r="G356" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="357" spans="5:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="E357" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="F357" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="F357" s="4" t="s">
+      <c r="G357" s="4" t="s">
         <v>856</v>
-      </c>
-      <c r="G357" s="4" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="358" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E358" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="F358" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="F358" s="4" t="s">
-        <v>859</v>
-      </c>
       <c r="G358" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="359" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E359" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="F359" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="F359" s="4" t="s">
-        <v>861</v>
-      </c>
       <c r="G359" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="360" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E360" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="F360" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="G360" s="4" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="361" spans="5:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E361" s="9" t="s">
         <v>862</v>
       </c>
-      <c r="F360" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="G360" s="4" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="361" spans="5:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E361" s="7" t="s">
-        <v>863</v>
-      </c>
-      <c r="F361" s="7"/>
-      <c r="G361" s="7"/>
+      <c r="F361" s="9"/>
+      <c r="G361" s="9"/>
     </row>
     <row r="362" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E362" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F362" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="G362" s="4" t="s">
         <v>864</v>
-      </c>
-      <c r="G362" s="4" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="363" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E363" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="F363" s="4" t="s">
         <v>866</v>
       </c>
-      <c r="F363" s="4" t="s">
-        <v>867</v>
-      </c>
       <c r="G363" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="364" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E364" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F364" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F364" s="4" t="s">
+      <c r="G364" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="G364" s="4" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="365" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E365" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="F365" s="4" t="s">
         <v>868</v>
       </c>
-      <c r="F365" s="4" t="s">
+      <c r="G365" s="4" t="s">
         <v>869</v>
-      </c>
-      <c r="G365" s="4" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="366" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E366" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="F366" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="F366" s="4" t="s">
-        <v>872</v>
-      </c>
       <c r="G366" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="367" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E367" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F367" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="F367" s="4" t="s">
-        <v>327</v>
-      </c>
       <c r="G367" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="368" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E368" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="F368" s="5" t="s">
         <v>873</v>
       </c>
-      <c r="F368" s="5" t="s">
-        <v>874</v>
-      </c>
       <c r="G368" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="369" spans="5:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E369" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="F369" s="4" t="s">
         <v>875</v>
       </c>
-      <c r="F369" s="4" t="s">
-        <v>876</v>
-      </c>
       <c r="G369" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="370" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E370" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F370" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F370" s="4" t="s">
-        <v>241</v>
-      </c>
       <c r="G370" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="371" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E371" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="F371" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="F371" s="4" t="s">
-        <v>329</v>
-      </c>
       <c r="G371" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="372" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E372" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="F372" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="F372" s="4" t="s">
+      <c r="G372" s="4" t="s">
         <v>878</v>
-      </c>
-      <c r="G372" s="4" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="373" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E373" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="F373" s="4" t="s">
         <v>880</v>
       </c>
-      <c r="F373" s="4" t="s">
-        <v>881</v>
-      </c>
       <c r="G373" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="374" spans="5:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E374" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="F374" s="4" t="s">
         <v>882</v>
       </c>
-      <c r="F374" s="4" t="s">
-        <v>883</v>
-      </c>
       <c r="G374" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="375" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E375" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="F375" s="4" t="s">
         <v>884</v>
       </c>
-      <c r="F375" s="4" t="s">
-        <v>885</v>
-      </c>
       <c r="G375" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="376" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E376" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F376" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F376" s="4" t="s">
+      <c r="G376" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="G376" s="4" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>
